--- a/RealProject/kids_list_updated2.xlsx
+++ b/RealProject/kids_list_updated2.xlsx
@@ -200,7 +200,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="23">
     <fill>
       <patternFill/>
     </fill>
@@ -313,12 +313,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.3998229926450392"/>
         <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.3998229926450392"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -709,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1034,8 +1028,8 @@
     <xf numFmtId="0" fontId="6" fillId="19" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" readingOrder="2"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1043,10 +1037,7 @@
     <xf numFmtId="0" fontId="7" fillId="22" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1537,7 +1528,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE348"/>
+  <dimension ref="A1:AF348"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
@@ -1730,7 +1721,12 @@
           <t xml:space="preserve">تسلم الكتاب </t>
         </is>
       </c>
-      <c r="AE3" s="134" t="inlineStr">
+      <c r="AE3" s="4" t="inlineStr">
+        <is>
+          <t>Ist in Nabil Liste Ja/nein</t>
+        </is>
+      </c>
+      <c r="AF3" s="132" t="inlineStr">
         <is>
           <t>Phone Number</t>
         </is>
@@ -1797,8 +1793,10 @@
       </c>
       <c r="AC4" s="10" t="n"/>
       <c r="AD4" s="10" t="n"/>
-      <c r="AE4" s="7" t="n">
-        <v/>
+      <c r="AE4" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
       </c>
     </row>
     <row r="5" ht="21.1" customHeight="1">
@@ -1812,7 +1810,7 @@
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>M'Hamed Abderrahim</t>
+          <t xml:space="preserve">M'Hamed Abderrahim </t>
         </is>
       </c>
       <c r="D5" s="8" t="n">
@@ -1845,10 +1843,10 @@
       <c r="M5" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="N5" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="O5" s="136" t="n"/>
+      <c r="N5" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="O5" s="135" t="n"/>
       <c r="P5" s="9" t="n"/>
       <c r="Q5" s="9" t="n"/>
       <c r="R5" s="9" t="n"/>
@@ -1868,8 +1866,10 @@
           <t>*</t>
         </is>
       </c>
-      <c r="AE5" s="13" t="n">
-        <v/>
+      <c r="AE5" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
       </c>
     </row>
     <row r="6" ht="21.1" customHeight="1">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>M'Hamed Abderrahim</t>
+          <t xml:space="preserve">M'Hamed Abderrahim </t>
         </is>
       </c>
       <c r="D6" s="8" t="n">
@@ -1916,10 +1916,10 @@
       <c r="M6" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="N6" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="O6" s="136" t="n"/>
+      <c r="N6" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="O6" s="135" t="n"/>
       <c r="P6" s="9" t="n"/>
       <c r="Q6" s="9" t="n"/>
       <c r="R6" s="9" t="n"/>
@@ -1939,8 +1939,10 @@
           <t>*</t>
         </is>
       </c>
-      <c r="AE6" s="13" t="n">
-        <v/>
+      <c r="AE6" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
       </c>
     </row>
     <row r="7" ht="21.1" customHeight="1">
@@ -1976,9 +1978,7 @@
       </c>
       <c r="AC7" s="10" t="n"/>
       <c r="AD7" s="10" t="n"/>
-      <c r="AE7" s="13" t="n">
-        <v/>
-      </c>
+      <c r="AE7" s="11" t="n"/>
     </row>
     <row r="8" ht="21.1" customHeight="1">
       <c r="A8" s="6" t="n">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>Karima Chamlal</t>
+          <t>Afkir Mohamed / Karima Chamlal</t>
         </is>
       </c>
       <c r="D8" s="8" t="n">
@@ -2030,10 +2030,10 @@
       <c r="O8" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P8" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="136" t="n"/>
+      <c r="P8" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="135" t="n"/>
       <c r="R8" s="9" t="n"/>
       <c r="S8" s="9" t="n"/>
       <c r="T8" s="9" t="n"/>
@@ -2043,8 +2043,10 @@
       </c>
       <c r="AC8" s="10" t="n"/>
       <c r="AD8" s="10" t="n"/>
-      <c r="AE8" s="7" t="n">
-        <v/>
+      <c r="AE8" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
       </c>
     </row>
     <row r="9" ht="21.1" customHeight="1">
@@ -2058,7 +2060,7 @@
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t>Karima Chamlal</t>
+          <t>Afkir Mohamed / Karima Chamlal</t>
         </is>
       </c>
       <c r="D9" s="8" t="n">
@@ -2097,10 +2099,10 @@
       <c r="O9" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P9" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q9" s="136" t="n"/>
+      <c r="P9" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="135" t="n"/>
       <c r="R9" s="9" t="n"/>
       <c r="S9" s="9" t="n"/>
       <c r="T9" s="9" t="n"/>
@@ -2110,8 +2112,10 @@
       </c>
       <c r="AC9" s="10" t="n"/>
       <c r="AD9" s="10" t="n"/>
-      <c r="AE9" s="7" t="n">
-        <v/>
+      <c r="AE9" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
       </c>
     </row>
     <row r="10" ht="21.1" customHeight="1">
@@ -2125,7 +2129,7 @@
       </c>
       <c r="C10" s="13" t="inlineStr">
         <is>
-          <t>Walid Ahmadi und Rachida Ahmadi</t>
+          <t xml:space="preserve">Walid Ahmadi </t>
         </is>
       </c>
       <c r="D10" s="8" t="n">
@@ -2164,10 +2168,10 @@
       <c r="O10" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P10" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q10" s="136" t="n"/>
+      <c r="P10" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="135" t="n"/>
       <c r="R10" s="9" t="n"/>
       <c r="S10" s="9" t="n"/>
       <c r="T10" s="9" t="n"/>
@@ -2185,8 +2189,10 @@
           <t>*</t>
         </is>
       </c>
-      <c r="AE10" s="13" t="n">
-        <v/>
+      <c r="AE10" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
       </c>
     </row>
     <row r="11" ht="21.1" customHeight="1">
@@ -2200,7 +2206,7 @@
       </c>
       <c r="C11" s="13" t="inlineStr">
         <is>
-          <t>Walid Ahmadi und Rachida Ahmadi</t>
+          <t xml:space="preserve">Walid Ahmadi </t>
         </is>
       </c>
       <c r="D11" s="8" t="n">
@@ -2239,10 +2245,10 @@
       <c r="O11" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P11" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q11" s="136" t="n"/>
+      <c r="P11" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="135" t="n"/>
       <c r="R11" s="9" t="n"/>
       <c r="S11" s="9" t="n"/>
       <c r="T11" s="9" t="n"/>
@@ -2260,8 +2266,10 @@
           <t>*</t>
         </is>
       </c>
-      <c r="AE11" s="13" t="n">
-        <v/>
+      <c r="AE11" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
       </c>
     </row>
     <row r="12" ht="21.1" customHeight="1">
@@ -2275,7 +2283,7 @@
       </c>
       <c r="C12" s="13" t="inlineStr">
         <is>
-          <t>Walid Ahmadi und Rachida Ahmadi</t>
+          <t>Walid Ahmadi</t>
         </is>
       </c>
       <c r="D12" s="8" t="n">
@@ -2314,10 +2322,10 @@
       <c r="O12" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P12" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q12" s="136" t="n"/>
+      <c r="P12" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="135" t="n"/>
       <c r="R12" s="9" t="n"/>
       <c r="S12" s="9" t="n"/>
       <c r="T12" s="9" t="n"/>
@@ -2327,8 +2335,10 @@
       </c>
       <c r="AC12" s="10" t="n"/>
       <c r="AD12" s="10" t="n"/>
-      <c r="AE12" s="13" t="n">
-        <v/>
+      <c r="AE12" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
       </c>
     </row>
     <row r="13" ht="21.1" customHeight="1">
@@ -2342,7 +2352,7 @@
       </c>
       <c r="C13" s="7" t="inlineStr">
         <is>
-          <t>Mohamed Ahriouil</t>
+          <t xml:space="preserve">Mohamed Ahriouil </t>
         </is>
       </c>
       <c r="D13" s="8" t="n">
@@ -2388,8 +2398,10 @@
       </c>
       <c r="AC13" s="10" t="n"/>
       <c r="AD13" s="10" t="n"/>
-      <c r="AE13" s="7" t="n">
-        <v/>
+      <c r="AE13" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
       </c>
     </row>
     <row r="14" ht="21.1" customHeight="1">
@@ -2437,9 +2449,7 @@
       </c>
       <c r="AC14" s="10" t="n"/>
       <c r="AD14" s="10" t="n"/>
-      <c r="AE14" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE14" s="11" t="n"/>
     </row>
     <row r="15" ht="21.1" customHeight="1">
       <c r="A15" s="6" t="n">
@@ -2452,7 +2462,7 @@
       </c>
       <c r="C15" s="7" t="inlineStr">
         <is>
-          <t>Moulay El Hassan Ait Sghir YaminaSaidi</t>
+          <t>Moulay El Hassan Ait Sghir</t>
         </is>
       </c>
       <c r="D15" s="8" t="n">
@@ -2502,8 +2512,10 @@
       </c>
       <c r="AC15" s="10" t="n"/>
       <c r="AD15" s="10" t="n"/>
-      <c r="AE15" s="7" t="n">
-        <v/>
+      <c r="AE15" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
       </c>
     </row>
     <row r="16" ht="21.1" customHeight="1">
@@ -2517,7 +2529,7 @@
       </c>
       <c r="C16" s="13" t="inlineStr">
         <is>
-          <t>Mhd Asaad Akkad</t>
+          <t>Mhd Asaad Akkad (623914891)</t>
         </is>
       </c>
       <c r="D16" s="8" t="n">
@@ -2575,9 +2587,9 @@
           <t>*</t>
         </is>
       </c>
-      <c r="AE16" s="13" t="inlineStr">
-        <is>
-          <t>623914891</t>
+      <c r="AE16" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -2592,7 +2604,7 @@
       </c>
       <c r="C17" s="13" t="inlineStr">
         <is>
-          <t>Akouch Miloud</t>
+          <t>Akouch Miloud (016097264718)</t>
         </is>
       </c>
       <c r="D17" s="15" t="n"/>
@@ -2634,9 +2646,9 @@
       </c>
       <c r="AC17" s="10" t="n"/>
       <c r="AD17" s="10" t="n"/>
-      <c r="AE17" s="13" t="inlineStr">
-        <is>
-          <t>016097264718</t>
+      <c r="AE17" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2663,7 @@
       </c>
       <c r="C18" s="13" t="inlineStr">
         <is>
-          <t>Hassan Al-Haddoutti/Nadia Kadim</t>
+          <t>Hassan Al-Haddoutti/Nadia Kadim (015782364891)</t>
         </is>
       </c>
       <c r="D18" s="8" t="n">
@@ -2719,9 +2731,9 @@
           <t>*</t>
         </is>
       </c>
-      <c r="AE18" s="13" t="inlineStr">
-        <is>
-          <t>015782364891</t>
+      <c r="AE18" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -2758,9 +2770,7 @@
       </c>
       <c r="AC19" s="10" t="n"/>
       <c r="AD19" s="10" t="n"/>
-      <c r="AE19" s="13" t="n">
-        <v/>
-      </c>
+      <c r="AE19" s="11" t="n"/>
     </row>
     <row r="20" ht="21.1" customHeight="1">
       <c r="A20" s="6" t="n">
@@ -2795,9 +2805,7 @@
       </c>
       <c r="AC20" s="10" t="n"/>
       <c r="AD20" s="10" t="n"/>
-      <c r="AE20" s="13" t="n">
-        <v/>
-      </c>
+      <c r="AE20" s="11" t="n"/>
     </row>
     <row r="21" ht="21.1" customHeight="1">
       <c r="A21" s="6" t="n">
@@ -2810,7 +2818,7 @@
       </c>
       <c r="C21" s="13" t="inlineStr">
         <is>
-          <t>Beguenstigter/Zahlungspflichtiger</t>
+          <t>(01608531784)</t>
         </is>
       </c>
       <c r="D21" s="16" t="n"/>
@@ -2836,11 +2844,7 @@
       </c>
       <c r="AC21" s="10" t="n"/>
       <c r="AD21" s="10" t="n"/>
-      <c r="AE21" s="13" t="inlineStr">
-        <is>
-          <t>01608531784</t>
-        </is>
-      </c>
+      <c r="AE21" s="11" t="n"/>
     </row>
     <row r="22" ht="21.1" customHeight="1">
       <c r="A22" s="6" t="n">
@@ -2878,10 +2882,10 @@
       <c r="O22" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P22" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q22" s="136" t="n"/>
+      <c r="P22" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="135" t="n"/>
       <c r="R22" s="9" t="n"/>
       <c r="S22" s="9" t="n"/>
       <c r="T22" s="9" t="n"/>
@@ -2891,9 +2895,7 @@
       </c>
       <c r="AC22" s="10" t="n"/>
       <c r="AD22" s="10" t="n"/>
-      <c r="AE22" s="17" t="n">
-        <v/>
-      </c>
+      <c r="AE22" s="11" t="n"/>
     </row>
     <row r="23" ht="21.1" customHeight="1">
       <c r="A23" s="6" t="n">
@@ -2943,7 +2945,7 @@
       <c r="O23" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P23" s="136" t="n"/>
+      <c r="P23" s="135" t="n"/>
       <c r="Q23" s="9" t="n"/>
       <c r="R23" s="9" t="n"/>
       <c r="S23" s="9" t="n"/>
@@ -2954,8 +2956,10 @@
       </c>
       <c r="AC23" s="10" t="n"/>
       <c r="AD23" s="10" t="n"/>
-      <c r="AE23" s="7" t="n">
-        <v/>
+      <c r="AE23" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
       </c>
     </row>
     <row r="24" ht="21.1" customHeight="1">
@@ -2969,7 +2973,7 @@
       </c>
       <c r="C24" s="7" t="inlineStr">
         <is>
-          <t>Amachaibou Fouad</t>
+          <t>Amachaibou Fouad (01637020882)</t>
         </is>
       </c>
       <c r="D24" s="8" t="n">
@@ -3008,7 +3012,7 @@
       <c r="O24" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P24" s="136" t="n"/>
+      <c r="P24" s="135" t="n"/>
       <c r="Q24" s="9" t="n"/>
       <c r="R24" s="9" t="n"/>
       <c r="S24" s="9" t="n"/>
@@ -3019,9 +3023,9 @@
       </c>
       <c r="AC24" s="10" t="n"/>
       <c r="AD24" s="10" t="n"/>
-      <c r="AE24" s="7" t="inlineStr">
-        <is>
-          <t>01637020882</t>
+      <c r="AE24" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3040,7 @@
       </c>
       <c r="C25" s="7" t="inlineStr">
         <is>
-          <t>Amachaibou Fouad</t>
+          <t>Amachaibou Fouad (01637020882)</t>
         </is>
       </c>
       <c r="D25" s="8" t="n">
@@ -3075,7 +3079,7 @@
       <c r="O25" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P25" s="136" t="n"/>
+      <c r="P25" s="135" t="n"/>
       <c r="Q25" s="9" t="n"/>
       <c r="R25" s="9" t="n"/>
       <c r="S25" s="9" t="n"/>
@@ -3086,9 +3090,9 @@
       </c>
       <c r="AC25" s="10" t="n"/>
       <c r="AD25" s="10" t="n"/>
-      <c r="AE25" s="7" t="inlineStr">
-        <is>
-          <t>01637020882</t>
+      <c r="AE25" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3107,7 @@
       </c>
       <c r="C26" s="7" t="inlineStr">
         <is>
-          <t>Amachaibou Fouad</t>
+          <t>Amachaibou Fouad (01637020882)</t>
         </is>
       </c>
       <c r="D26" s="8" t="n">
@@ -3142,7 +3146,7 @@
       <c r="O26" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P26" s="136" t="n"/>
+      <c r="P26" s="135" t="n"/>
       <c r="Q26" s="9" t="n"/>
       <c r="R26" s="9" t="n"/>
       <c r="S26" s="9" t="n"/>
@@ -3153,9 +3157,9 @@
       </c>
       <c r="AC26" s="10" t="n"/>
       <c r="AD26" s="10" t="n"/>
-      <c r="AE26" s="7" t="inlineStr">
-        <is>
-          <t>01637020882</t>
+      <c r="AE26" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -3170,7 +3174,7 @@
       </c>
       <c r="C27" s="7" t="inlineStr">
         <is>
-          <t>Majdouline Anfar</t>
+          <t>Majdouline Anfar (630323444)</t>
         </is>
       </c>
       <c r="D27" s="15" t="n"/>
@@ -3216,9 +3220,9 @@
       </c>
       <c r="AC27" s="10" t="n"/>
       <c r="AD27" s="10" t="n"/>
-      <c r="AE27" s="7" t="inlineStr">
-        <is>
-          <t>630323444</t>
+      <c r="AE27" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -3231,10 +3235,8 @@
           <t>Arabaj El Bouslami Ayman</t>
         </is>
       </c>
-      <c r="C28" s="18" t="inlineStr">
-        <is>
-          <t>-646697186</t>
-        </is>
+      <c r="C28" s="18" t="n">
+        <v>-646697186</v>
       </c>
       <c r="D28" s="15" t="n"/>
       <c r="E28" s="15" t="n"/>
@@ -3259,9 +3261,7 @@
       </c>
       <c r="AC28" s="10" t="n"/>
       <c r="AD28" s="10" t="n"/>
-      <c r="AE28" s="18" t="n">
-        <v/>
-      </c>
+      <c r="AE28" s="11" t="n"/>
     </row>
     <row r="29" ht="21.1" customHeight="1">
       <c r="A29" s="6" t="n">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="C29" s="7" t="inlineStr">
         <is>
-          <t>MOHAMED ASLA / ZINAB LALOUCHI</t>
+          <t>MOHAMED ASLA / ZINAB LALOUCHI (015774239272)</t>
         </is>
       </c>
       <c r="D29" s="8" t="n">
@@ -3324,9 +3324,9 @@
       </c>
       <c r="AC29" s="10" t="n"/>
       <c r="AD29" s="10" t="n"/>
-      <c r="AE29" s="7" t="inlineStr">
-        <is>
-          <t>015774239272</t>
+      <c r="AE29" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="C30" s="7" t="inlineStr">
         <is>
-          <t>Mohamed Assabiki</t>
+          <t>Mohamed Assabiki (01636052152)</t>
         </is>
       </c>
       <c r="D30" s="8" t="n">
@@ -3391,9 +3391,9 @@
       </c>
       <c r="AC30" s="10" t="n"/>
       <c r="AD30" s="10" t="n"/>
-      <c r="AE30" s="7" t="inlineStr">
-        <is>
-          <t>01636052152</t>
+      <c r="AE30" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="C31" s="7" t="inlineStr">
         <is>
-          <t>Lahcen Assaouci</t>
+          <t>Lahcen Assaouci (644280857)</t>
         </is>
       </c>
       <c r="D31" s="8" t="n">
@@ -3458,9 +3458,9 @@
       </c>
       <c r="AC31" s="10" t="n"/>
       <c r="AD31" s="10" t="n"/>
-      <c r="AE31" s="7" t="inlineStr">
-        <is>
-          <t>644280857</t>
+      <c r="AE31" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="C32" s="13" t="inlineStr">
         <is>
-          <t>Mourad Baghdadi</t>
+          <t>Mourad Baghdadi (01627270413)</t>
         </is>
       </c>
       <c r="D32" s="8" t="n">
@@ -3523,31 +3523,31 @@
       <c r="R32" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="S32" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="T32" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="U32" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="V32" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="W32" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="X32" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y32" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z32" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA32" s="135" t="n">
+      <c r="S32" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="T32" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="U32" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="V32" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="W32" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="X32" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y32" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z32" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA32" s="134" t="n">
         <v>25</v>
       </c>
       <c r="AB32" s="6">
@@ -3556,9 +3556,9 @@
       </c>
       <c r="AC32" s="10" t="n"/>
       <c r="AD32" s="10" t="n"/>
-      <c r="AE32" s="13" t="inlineStr">
-        <is>
-          <t>01627270413</t>
+      <c r="AE32" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="C33" s="13" t="inlineStr">
         <is>
-          <t>Mourad Baghdadi</t>
+          <t>Mourad Baghdadi (01627270413)</t>
         </is>
       </c>
       <c r="D33" s="8" t="n">
@@ -3621,31 +3621,31 @@
       <c r="R33" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="S33" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="T33" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="U33" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="V33" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="W33" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="X33" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y33" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z33" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA33" s="135" t="n">
+      <c r="S33" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="T33" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="U33" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="V33" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="W33" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="X33" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y33" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z33" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA33" s="134" t="n">
         <v>25</v>
       </c>
       <c r="AB33" s="6">
@@ -3654,9 +3654,9 @@
       </c>
       <c r="AC33" s="10" t="n"/>
       <c r="AD33" s="10" t="n"/>
-      <c r="AE33" s="13" t="inlineStr">
-        <is>
-          <t>01627270413</t>
+      <c r="AE33" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="C34" s="13" t="inlineStr">
         <is>
-          <t>Jamal Bakhtaoui</t>
+          <t>Jamal Bakhtaoui (632334540)</t>
         </is>
       </c>
       <c r="D34" s="8" t="n">
@@ -3710,10 +3710,10 @@
       <c r="O34" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P34" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q34" s="136" t="n"/>
+      <c r="P34" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q34" s="135" t="n"/>
       <c r="R34" s="9" t="n"/>
       <c r="S34" s="9" t="n"/>
       <c r="T34" s="9" t="n"/>
@@ -3723,9 +3723,9 @@
       </c>
       <c r="AC34" s="10" t="n"/>
       <c r="AD34" s="10" t="n"/>
-      <c r="AE34" s="13" t="inlineStr">
-        <is>
-          <t>632334540</t>
+      <c r="AE34" s="11" t="inlineStr">
+        <is>
+          <t>ja</t>
         </is>
       </c>
     </row>
@@ -3738,11 +3738,7 @@
           <t>Bakhtaoui Tasnim</t>
         </is>
       </c>
-      <c r="C35" s="18" t="inlineStr">
-        <is>
-          <t>Jamal Bakhtaoui</t>
-        </is>
-      </c>
+      <c r="C35" s="18" t="n"/>
       <c r="D35" s="15" t="n"/>
       <c r="E35" s="15" t="n"/>
       <c r="F35" s="15" t="n"/>
@@ -3766,9 +3762,7 @@
       </c>
       <c r="AC35" s="10" t="n"/>
       <c r="AD35" s="10" t="n"/>
-      <c r="AE35" s="18" t="n">
-        <v/>
-      </c>
+      <c r="AE35" s="11" t="n"/>
     </row>
     <row r="36" ht="21.1" customHeight="1">
       <c r="A36" s="6" t="n">
@@ -3779,11 +3773,7 @@
           <t>Barta Adam</t>
         </is>
       </c>
-      <c r="C36" s="18" t="inlineStr">
-        <is>
-          <t>Abdellatif Barta</t>
-        </is>
-      </c>
+      <c r="C36" s="18" t="n"/>
       <c r="D36" s="15" t="n"/>
       <c r="E36" s="15" t="n"/>
       <c r="F36" s="15" t="n"/>
@@ -3807,9 +3797,7 @@
       </c>
       <c r="AC36" s="10" t="n"/>
       <c r="AD36" s="10" t="n"/>
-      <c r="AE36" s="18" t="n">
-        <v/>
-      </c>
+      <c r="AE36" s="11" t="n"/>
     </row>
     <row r="37" ht="21.1" customHeight="1">
       <c r="A37" s="6" t="n">
@@ -3822,7 +3810,7 @@
       </c>
       <c r="C37" s="7" t="inlineStr">
         <is>
-          <t>MOHAMED BECHROURI</t>
+          <t>MOHAMED BECHROURI (015778648500)</t>
         </is>
       </c>
       <c r="D37" s="8" t="n">
@@ -3861,10 +3849,10 @@
       <c r="O37" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P37" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q37" s="136" t="n"/>
+      <c r="P37" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q37" s="135" t="n"/>
       <c r="R37" s="9" t="n"/>
       <c r="S37" s="9" t="n"/>
       <c r="T37" s="9" t="n"/>
@@ -3882,9 +3870,9 @@
           <t>*</t>
         </is>
       </c>
-      <c r="AE37" s="7" t="inlineStr">
-        <is>
-          <t>015778648500</t>
+      <c r="AE37" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -3899,7 +3887,7 @@
       </c>
       <c r="C38" s="7" t="inlineStr">
         <is>
-          <t>MOHAMED BECHROURI</t>
+          <t>MOHAMED BECHROURI (015778648500)</t>
         </is>
       </c>
       <c r="D38" s="8" t="n">
@@ -3938,10 +3926,10 @@
       <c r="O38" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P38" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q38" s="136" t="n"/>
+      <c r="P38" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q38" s="135" t="n"/>
       <c r="R38" s="9" t="n"/>
       <c r="S38" s="9" t="n"/>
       <c r="T38" s="9" t="n"/>
@@ -3951,9 +3939,9 @@
       </c>
       <c r="AC38" s="10" t="n"/>
       <c r="AD38" s="10" t="n"/>
-      <c r="AE38" s="7" t="inlineStr">
-        <is>
-          <t>015778648500</t>
+      <c r="AE38" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -3968,7 +3956,7 @@
       </c>
       <c r="C39" s="7" t="inlineStr">
         <is>
-          <t>Mohamed Belga und Sabah Bohaloui</t>
+          <t>Mohamed Belga (01629347971)</t>
         </is>
       </c>
       <c r="D39" s="8" t="n">
@@ -4026,9 +4014,9 @@
           <t>*</t>
         </is>
       </c>
-      <c r="AE39" s="7" t="inlineStr">
-        <is>
-          <t>01629347971</t>
+      <c r="AE39" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -4043,7 +4031,7 @@
       </c>
       <c r="C40" s="17" t="inlineStr">
         <is>
-          <t>Huelya Tiska</t>
+          <t>Huelya Tiska Belkassem Hafid (33561831)</t>
         </is>
       </c>
       <c r="D40" s="15" t="n"/>
@@ -4081,9 +4069,9 @@
       </c>
       <c r="AC40" s="10" t="n"/>
       <c r="AD40" s="10" t="n"/>
-      <c r="AE40" s="17" t="inlineStr">
-        <is>
-          <t>33561831</t>
+      <c r="AE40" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -4098,7 +4086,7 @@
       </c>
       <c r="C41" s="17" t="inlineStr">
         <is>
-          <t>Bilal Belkassem</t>
+          <t>Bilal Belkassem (684608600)</t>
         </is>
       </c>
       <c r="D41" s="15" t="n"/>
@@ -4134,11 +4122,7 @@
       </c>
       <c r="AC41" s="10" t="n"/>
       <c r="AD41" s="10" t="n"/>
-      <c r="AE41" s="17" t="inlineStr">
-        <is>
-          <t>684608600</t>
-        </is>
-      </c>
+      <c r="AE41" s="11" t="n"/>
     </row>
     <row r="42" ht="21.1" customHeight="1">
       <c r="A42" s="6" t="n">
@@ -4151,7 +4135,7 @@
       </c>
       <c r="C42" s="17" t="inlineStr">
         <is>
-          <t>Belkassem Hafid</t>
+          <t>Belkassem Hafid (33561831)</t>
         </is>
       </c>
       <c r="D42" s="15" t="n"/>
@@ -4177,11 +4161,7 @@
       </c>
       <c r="AC42" s="10" t="n"/>
       <c r="AD42" s="10" t="n"/>
-      <c r="AE42" s="17" t="inlineStr">
-        <is>
-          <t>33561831</t>
-        </is>
-      </c>
+      <c r="AE42" s="11" t="n"/>
     </row>
     <row r="43" ht="21.1" customHeight="1">
       <c r="A43" s="6" t="n">
@@ -4194,7 +4174,7 @@
       </c>
       <c r="C43" s="7" t="inlineStr">
         <is>
-          <t>Ben Attia Samir</t>
+          <t>Ben Attia Samir (015755184201)</t>
         </is>
       </c>
       <c r="D43" s="8" t="n">
@@ -4244,9 +4224,9 @@
       </c>
       <c r="AC43" s="10" t="n"/>
       <c r="AD43" s="10" t="n"/>
-      <c r="AE43" s="7" t="inlineStr">
-        <is>
-          <t>015755184201</t>
+      <c r="AE43" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -4261,7 +4241,7 @@
       </c>
       <c r="C44" s="13" t="inlineStr">
         <is>
-          <t>Mohamed Ben Hamad</t>
+          <t>Mohamed Ben Hamad (631130470)</t>
         </is>
       </c>
       <c r="D44" s="15" t="n"/>
@@ -4303,9 +4283,9 @@
       </c>
       <c r="AC44" s="10" t="n"/>
       <c r="AD44" s="10" t="n"/>
-      <c r="AE44" s="13" t="inlineStr">
-        <is>
-          <t>631130470</t>
+      <c r="AE44" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -4320,7 +4300,7 @@
       </c>
       <c r="C45" s="7" t="inlineStr">
         <is>
-          <t>Rachid Benjeddou</t>
+          <t>Rachid Benjeddou (88757701)</t>
         </is>
       </c>
       <c r="D45" s="8" t="n">
@@ -4372,9 +4352,9 @@
       </c>
       <c r="AC45" s="10" t="n"/>
       <c r="AD45" s="10" t="n"/>
-      <c r="AE45" s="7" t="inlineStr">
-        <is>
-          <t>88757701</t>
+      <c r="AE45" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -4387,10 +4367,8 @@
           <t>Ben Nasser Rania</t>
         </is>
       </c>
-      <c r="C46" s="17" t="inlineStr">
-        <is>
-          <t>1786984637</t>
-        </is>
+      <c r="C46" s="17" t="n">
+        <v>1786984637</v>
       </c>
       <c r="D46" s="15" t="n"/>
       <c r="E46" s="15" t="n"/>
@@ -4415,9 +4393,7 @@
       </c>
       <c r="AC46" s="10" t="n"/>
       <c r="AD46" s="10" t="n"/>
-      <c r="AE46" s="17" t="n">
-        <v/>
-      </c>
+      <c r="AE46" s="11" t="n"/>
     </row>
     <row r="47" ht="21.1" customHeight="1">
       <c r="A47" s="6" t="n">
@@ -4459,7 +4435,7 @@
       <c r="O47" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P47" s="136" t="n"/>
+      <c r="P47" s="135" t="n"/>
       <c r="Q47" s="9" t="n"/>
       <c r="R47" s="9" t="n"/>
       <c r="S47" s="9" t="n"/>
@@ -4470,9 +4446,7 @@
       </c>
       <c r="AC47" s="10" t="n"/>
       <c r="AD47" s="10" t="n"/>
-      <c r="AE47" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE47" s="11" t="n"/>
     </row>
     <row r="48" ht="21.1" customHeight="1">
       <c r="A48" s="6" t="n">
@@ -4514,7 +4488,7 @@
       <c r="O48" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P48" s="136" t="n"/>
+      <c r="P48" s="135" t="n"/>
       <c r="Q48" s="9" t="n"/>
       <c r="R48" s="9" t="n"/>
       <c r="S48" s="9" t="n"/>
@@ -4525,9 +4499,7 @@
       </c>
       <c r="AC48" s="10" t="n"/>
       <c r="AD48" s="10" t="n"/>
-      <c r="AE48" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE48" s="11" t="n"/>
     </row>
     <row r="49" ht="21.1" customHeight="1">
       <c r="A49" s="6" t="n">
@@ -4540,7 +4512,7 @@
       </c>
       <c r="C49" s="17" t="inlineStr">
         <is>
-          <t>Amal Hajji und Khalid Bensaid</t>
+          <t>Amal Hajji (83039184)</t>
         </is>
       </c>
       <c r="D49" s="15" t="n"/>
@@ -4570,11 +4542,7 @@
       </c>
       <c r="AC49" s="10" t="n"/>
       <c r="AD49" s="10" t="n"/>
-      <c r="AE49" s="17" t="inlineStr">
-        <is>
-          <t>83039184</t>
-        </is>
-      </c>
+      <c r="AE49" s="11" t="n"/>
     </row>
     <row r="50" ht="21.1" customHeight="1">
       <c r="A50" s="6" t="n">
@@ -4587,7 +4555,7 @@
       </c>
       <c r="C50" s="7" t="inlineStr">
         <is>
-          <t>Hamza Bekri</t>
+          <t>Hamza Bekri (621205280)</t>
         </is>
       </c>
       <c r="D50" s="15" t="n"/>
@@ -4633,9 +4601,9 @@
       </c>
       <c r="AC50" s="10" t="n"/>
       <c r="AD50" s="10" t="n"/>
-      <c r="AE50" s="7" t="inlineStr">
-        <is>
-          <t>621205280</t>
+      <c r="AE50" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -4650,7 +4618,7 @@
       </c>
       <c r="C51" s="13" t="inlineStr">
         <is>
-          <t>Jamal Bonnou und Sabah Razouki</t>
+          <t>Jamal Bonnou und Sabah Razouki (015252615611)</t>
         </is>
       </c>
       <c r="D51" s="8" t="n">
@@ -4700,9 +4668,9 @@
       </c>
       <c r="AC51" s="10" t="n"/>
       <c r="AD51" s="10" t="n"/>
-      <c r="AE51" s="13" t="inlineStr">
-        <is>
-          <t>015252615611</t>
+      <c r="AE51" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4685,7 @@
       </c>
       <c r="C52" s="7" t="inlineStr">
         <is>
-          <t>Amar und Meriam Boughriba</t>
+          <t>Amar und Meriam Boughriba (015202764625)</t>
         </is>
       </c>
       <c r="D52" s="8" t="n">
@@ -4769,9 +4737,9 @@
       </c>
       <c r="AC52" s="10" t="n"/>
       <c r="AD52" s="10" t="n"/>
-      <c r="AE52" s="7" t="inlineStr">
-        <is>
-          <t>015202764625</t>
+      <c r="AE52" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -4786,7 +4754,7 @@
       </c>
       <c r="C53" s="13" t="inlineStr">
         <is>
-          <t>Boulahfa Abdelmouniim</t>
+          <t>Boulahfa Abdelmouniim (49137956)</t>
         </is>
       </c>
       <c r="D53" s="15" t="n"/>
@@ -4824,7 +4792,7 @@
       <c r="P53" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="Q53" s="136" t="n"/>
+      <c r="Q53" s="135" t="n"/>
       <c r="R53" s="9" t="n"/>
       <c r="S53" s="9" t="n"/>
       <c r="T53" s="9" t="n"/>
@@ -4834,9 +4802,9 @@
       </c>
       <c r="AC53" s="10" t="n"/>
       <c r="AD53" s="10" t="n"/>
-      <c r="AE53" s="13" t="inlineStr">
-        <is>
-          <t>49137956</t>
+      <c r="AE53" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4819,7 @@
       </c>
       <c r="C54" s="13" t="inlineStr">
         <is>
-          <t>Boulahfa Abdelmouniim</t>
+          <t>Boulahfa Abdelmouniim (49137956)</t>
         </is>
       </c>
       <c r="D54" s="15" t="n"/>
@@ -4889,7 +4857,7 @@
       <c r="P54" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="Q54" s="136" t="n"/>
+      <c r="Q54" s="135" t="n"/>
       <c r="R54" s="9" t="n"/>
       <c r="S54" s="9" t="n"/>
       <c r="T54" s="9" t="n"/>
@@ -4899,9 +4867,9 @@
       </c>
       <c r="AC54" s="10" t="n"/>
       <c r="AD54" s="10" t="n"/>
-      <c r="AE54" s="13" t="inlineStr">
-        <is>
-          <t>49137956</t>
+      <c r="AE54" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -4916,7 +4884,7 @@
       </c>
       <c r="C55" s="7" t="inlineStr">
         <is>
-          <t>Bourouba Abderrahim</t>
+          <t>Bourouba Abderrahim (015731354679)</t>
         </is>
       </c>
       <c r="D55" s="8" t="n">
@@ -4955,7 +4923,7 @@
       <c r="O55" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P55" s="136" t="n"/>
+      <c r="P55" s="135" t="n"/>
       <c r="Q55" s="9" t="n"/>
       <c r="R55" s="9" t="n"/>
       <c r="S55" s="9" t="n"/>
@@ -4966,9 +4934,9 @@
       </c>
       <c r="AC55" s="10" t="n"/>
       <c r="AD55" s="10" t="n"/>
-      <c r="AE55" s="7" t="inlineStr">
-        <is>
-          <t>015731354679</t>
+      <c r="AE55" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -4983,7 +4951,7 @@
       </c>
       <c r="C56" s="7" t="inlineStr">
         <is>
-          <t>Bourouba Abderrahim</t>
+          <t>Bourouba Abderrahim (015731354679)</t>
         </is>
       </c>
       <c r="D56" s="8" t="n">
@@ -5022,7 +4990,7 @@
       <c r="O56" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P56" s="136" t="n"/>
+      <c r="P56" s="135" t="n"/>
       <c r="Q56" s="9" t="n"/>
       <c r="R56" s="9" t="n"/>
       <c r="S56" s="9" t="n"/>
@@ -5033,9 +5001,9 @@
       </c>
       <c r="AC56" s="10" t="n"/>
       <c r="AD56" s="10" t="n"/>
-      <c r="AE56" s="7" t="inlineStr">
-        <is>
-          <t>015731354679</t>
+      <c r="AE56" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -5050,7 +5018,7 @@
       </c>
       <c r="C57" s="7" t="inlineStr">
         <is>
-          <t>Bourouba Abderrahim</t>
+          <t>Bourouba Abderrahim (015731354679)</t>
         </is>
       </c>
       <c r="D57" s="8" t="n">
@@ -5089,7 +5057,7 @@
       <c r="O57" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P57" s="136" t="n"/>
+      <c r="P57" s="135" t="n"/>
       <c r="Q57" s="9" t="n"/>
       <c r="R57" s="9" t="n"/>
       <c r="S57" s="9" t="n"/>
@@ -5100,9 +5068,9 @@
       </c>
       <c r="AC57" s="10" t="n"/>
       <c r="AD57" s="10" t="n"/>
-      <c r="AE57" s="7" t="inlineStr">
-        <is>
-          <t>015731354679</t>
+      <c r="AE57" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -5138,10 +5106,10 @@
       <c r="O58" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P58" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q58" s="136" t="n"/>
+      <c r="P58" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q58" s="135" t="n"/>
       <c r="R58" s="9" t="n"/>
       <c r="S58" s="9" t="n"/>
       <c r="T58" s="9" t="n"/>
@@ -5151,9 +5119,7 @@
       </c>
       <c r="AC58" s="10" t="n"/>
       <c r="AD58" s="10" t="n"/>
-      <c r="AE58" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE58" s="11" t="n"/>
     </row>
     <row r="59" ht="21.1" customHeight="1">
       <c r="A59" s="6" t="n">
@@ -5192,9 +5158,7 @@
       </c>
       <c r="AC59" s="10" t="n"/>
       <c r="AD59" s="10" t="n"/>
-      <c r="AE59" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE59" s="11" t="n"/>
     </row>
     <row r="60" ht="21.1" customHeight="1">
       <c r="A60" s="6" t="n">
@@ -5233,9 +5197,7 @@
       </c>
       <c r="AC60" s="10" t="n"/>
       <c r="AD60" s="10" t="n"/>
-      <c r="AE60" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE60" s="11" t="n"/>
     </row>
     <row r="61" ht="21.1" customHeight="1">
       <c r="A61" s="6" t="n">
@@ -5274,9 +5236,7 @@
       </c>
       <c r="AC61" s="10" t="n"/>
       <c r="AD61" s="10" t="n"/>
-      <c r="AE61" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE61" s="11" t="n"/>
     </row>
     <row r="62" ht="21.1" customHeight="1">
       <c r="A62" s="6" t="n">
@@ -5289,7 +5249,7 @@
       </c>
       <c r="C62" s="13" t="inlineStr">
         <is>
-          <t>Mostapha Bouzakri Bouzakri NaimaRhadi</t>
+          <t>Mostapha Bouzakri (015751704161)</t>
         </is>
       </c>
       <c r="D62" s="8" t="n">
@@ -5347,9 +5307,9 @@
           <t>*</t>
         </is>
       </c>
-      <c r="AE62" s="13" t="inlineStr">
-        <is>
-          <t>015751704161</t>
+      <c r="AE62" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -5364,7 +5324,7 @@
       </c>
       <c r="C63" s="7" t="inlineStr">
         <is>
-          <t>Said Bouzambou / Nassim Bouzambou</t>
+          <t xml:space="preserve">Said Bouzambou (648075411) / Nassim Bouzambou (656999288) </t>
         </is>
       </c>
       <c r="D63" s="14" t="n"/>
@@ -5394,7 +5354,7 @@
       <c r="N63" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="O63" s="136" t="n"/>
+      <c r="O63" s="135" t="n"/>
       <c r="P63" s="9" t="n"/>
       <c r="Q63" s="9" t="n"/>
       <c r="R63" s="9" t="n"/>
@@ -5406,9 +5366,9 @@
       </c>
       <c r="AC63" s="10" t="n"/>
       <c r="AD63" s="10" t="n"/>
-      <c r="AE63" s="7" t="inlineStr">
-        <is>
-          <t>648075411</t>
+      <c r="AE63" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -5423,7 +5383,7 @@
       </c>
       <c r="C64" s="7" t="inlineStr">
         <is>
-          <t>Said Bouzambou / Nassim Bouzambou</t>
+          <t xml:space="preserve">Said Bouzambou (648075411) / Nassim Bouzambou (656999288) </t>
         </is>
       </c>
       <c r="D64" s="15" t="n"/>
@@ -5449,11 +5409,7 @@
       </c>
       <c r="AC64" s="10" t="n"/>
       <c r="AD64" s="10" t="n"/>
-      <c r="AE64" s="7" t="inlineStr">
-        <is>
-          <t>648075411</t>
-        </is>
-      </c>
+      <c r="AE64" s="11" t="n"/>
     </row>
     <row r="65" ht="21.1" customHeight="1">
       <c r="A65" s="6" t="n">
@@ -5466,7 +5422,7 @@
       </c>
       <c r="C65" s="7" t="inlineStr">
         <is>
-          <t>Said Bouzambou / Nassim Bouzambou</t>
+          <t xml:space="preserve">Said Bouzambou (648075411) / Nassim Bouzambou (656999288) </t>
         </is>
       </c>
       <c r="D65" s="15" t="n"/>
@@ -5492,11 +5448,7 @@
       </c>
       <c r="AC65" s="10" t="n"/>
       <c r="AD65" s="10" t="n"/>
-      <c r="AE65" s="7" t="inlineStr">
-        <is>
-          <t>648075411</t>
-        </is>
-      </c>
+      <c r="AE65" s="11" t="n"/>
     </row>
     <row r="66" ht="21.1" customHeight="1">
       <c r="A66" s="6" t="n">
@@ -5509,7 +5461,7 @@
       </c>
       <c r="C66" s="7" t="inlineStr">
         <is>
-          <t>Mohamed Bouzinab Idir</t>
+          <t>Mohamed Bouzinab Idir (015228267087)</t>
         </is>
       </c>
       <c r="D66" s="8" t="n">
@@ -5548,10 +5500,10 @@
       <c r="O66" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P66" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q66" s="136" t="n"/>
+      <c r="P66" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q66" s="135" t="n"/>
       <c r="R66" s="9" t="n"/>
       <c r="S66" s="9" t="n"/>
       <c r="T66" s="9" t="n"/>
@@ -5561,9 +5513,9 @@
       </c>
       <c r="AC66" s="10" t="n"/>
       <c r="AD66" s="10" t="n"/>
-      <c r="AE66" s="7" t="inlineStr">
-        <is>
-          <t>015228267087</t>
+      <c r="AE66" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -5578,7 +5530,7 @@
       </c>
       <c r="C67" s="7" t="inlineStr">
         <is>
-          <t>Mohamed Bouzinab Idir</t>
+          <t>Mohamed Bouzinab Idir (015228267087)</t>
         </is>
       </c>
       <c r="D67" s="8" t="n">
@@ -5617,10 +5569,10 @@
       <c r="O67" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P67" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q67" s="136" t="n"/>
+      <c r="P67" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q67" s="135" t="n"/>
       <c r="R67" s="9" t="n"/>
       <c r="S67" s="9" t="n"/>
       <c r="T67" s="9" t="n"/>
@@ -5630,9 +5582,9 @@
       </c>
       <c r="AC67" s="10" t="n"/>
       <c r="AD67" s="10" t="n"/>
-      <c r="AE67" s="7" t="inlineStr">
-        <is>
-          <t>015228267087</t>
+      <c r="AE67" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -5647,7 +5599,7 @@
       </c>
       <c r="C68" s="7" t="inlineStr">
         <is>
-          <t>Mohamed Bouzinab Idir</t>
+          <t>Mohamed Bouzinab Idir (015228267087)</t>
         </is>
       </c>
       <c r="D68" s="8" t="n">
@@ -5686,10 +5638,10 @@
       <c r="O68" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P68" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q68" s="136" t="n"/>
+      <c r="P68" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q68" s="135" t="n"/>
       <c r="R68" s="9" t="n"/>
       <c r="S68" s="9" t="n"/>
       <c r="T68" s="9" t="n"/>
@@ -5699,9 +5651,9 @@
       </c>
       <c r="AC68" s="10" t="n"/>
       <c r="AD68" s="10" t="n"/>
-      <c r="AE68" s="7" t="inlineStr">
-        <is>
-          <t>015228267087</t>
+      <c r="AE68" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -5716,7 +5668,7 @@
       </c>
       <c r="C69" s="7" t="inlineStr">
         <is>
-          <t>Mohamed Bouzinab Idir</t>
+          <t>Mohamed Bouzinab Idir (015228267087)</t>
         </is>
       </c>
       <c r="D69" s="8" t="n">
@@ -5755,10 +5707,10 @@
       <c r="O69" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P69" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q69" s="136" t="n"/>
+      <c r="P69" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q69" s="135" t="n"/>
       <c r="R69" s="9" t="n"/>
       <c r="S69" s="9" t="n"/>
       <c r="T69" s="9" t="n"/>
@@ -5768,9 +5720,9 @@
       </c>
       <c r="AC69" s="10" t="n"/>
       <c r="AD69" s="10" t="n"/>
-      <c r="AE69" s="7" t="inlineStr">
-        <is>
-          <t>015228267087</t>
+      <c r="AE69" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -5785,7 +5737,7 @@
       </c>
       <c r="C70" s="7" t="inlineStr">
         <is>
-          <t>Farida Razouki</t>
+          <t>Farida Razouki (620912784)</t>
         </is>
       </c>
       <c r="D70" s="8" t="n">
@@ -5835,9 +5787,9 @@
       </c>
       <c r="AC70" s="10" t="n"/>
       <c r="AD70" s="10" t="n"/>
-      <c r="AE70" s="7" t="inlineStr">
-        <is>
-          <t>620912784</t>
+      <c r="AE70" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -5852,7 +5804,7 @@
       </c>
       <c r="C71" s="7" t="inlineStr">
         <is>
-          <t>Bouziane Brahim</t>
+          <t>Bouziane Brahim (82012638)</t>
         </is>
       </c>
       <c r="D71" s="8" t="n">
@@ -5900,9 +5852,9 @@
       </c>
       <c r="AC71" s="10" t="n"/>
       <c r="AD71" s="10" t="n"/>
-      <c r="AE71" s="7" t="inlineStr">
-        <is>
-          <t>82012638</t>
+      <c r="AE71" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -5917,7 +5869,7 @@
       </c>
       <c r="C72" s="7" t="inlineStr">
         <is>
-          <t>Brahmi Aissa</t>
+          <t>Brahmi Aissa (86624581)</t>
         </is>
       </c>
       <c r="D72" s="15" t="n"/>
@@ -5959,9 +5911,9 @@
       </c>
       <c r="AC72" s="10" t="n"/>
       <c r="AD72" s="10" t="n"/>
-      <c r="AE72" s="7" t="inlineStr">
-        <is>
-          <t>86624581</t>
+      <c r="AE72" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5928,7 @@
       </c>
       <c r="C73" s="17" t="inlineStr">
         <is>
-          <t>Naima Calabro</t>
+          <t>Thomas Calabro / Naima Calabro  / (015228127376)</t>
         </is>
       </c>
       <c r="D73" s="15" t="n"/>
@@ -6024,9 +5976,9 @@
       </c>
       <c r="AC73" s="10" t="n"/>
       <c r="AD73" s="10" t="n"/>
-      <c r="AE73" s="17" t="inlineStr">
-        <is>
-          <t>015228127376</t>
+      <c r="AE73" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -6041,7 +5993,7 @@
       </c>
       <c r="C74" s="7" t="inlineStr">
         <is>
-          <t>Nabil Chaddadi</t>
+          <t>Nabil Chaddadi (015737878177)</t>
         </is>
       </c>
       <c r="D74" s="8" t="n">
@@ -6080,7 +6032,7 @@
       <c r="O74" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P74" s="137" t="n">
+      <c r="P74" s="136" t="n">
         <v>20</v>
       </c>
       <c r="Q74" s="9" t="n"/>
@@ -6093,9 +6045,9 @@
       </c>
       <c r="AC74" s="10" t="n"/>
       <c r="AD74" s="10" t="n"/>
-      <c r="AE74" s="7" t="inlineStr">
-        <is>
-          <t>015737878177</t>
+      <c r="AE74" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -6110,7 +6062,7 @@
       </c>
       <c r="C75" s="7" t="inlineStr">
         <is>
-          <t>Nabil Chaddadi</t>
+          <t>Nabil Chaddadi (015737878177)</t>
         </is>
       </c>
       <c r="D75" s="8" t="n">
@@ -6149,7 +6101,7 @@
       <c r="O75" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P75" s="136" t="n"/>
+      <c r="P75" s="135" t="n"/>
       <c r="Q75" s="9" t="n"/>
       <c r="R75" s="9" t="n"/>
       <c r="S75" s="9" t="n"/>
@@ -6160,9 +6112,9 @@
       </c>
       <c r="AC75" s="10" t="n"/>
       <c r="AD75" s="10" t="n"/>
-      <c r="AE75" s="7" t="inlineStr">
-        <is>
-          <t>015737878177</t>
+      <c r="AE75" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -6177,7 +6129,7 @@
       </c>
       <c r="C76" s="7" t="inlineStr">
         <is>
-          <t>Hatim Chaibi</t>
+          <t>Hatim Chaibi (73515681)</t>
         </is>
       </c>
       <c r="D76" s="8" t="n">
@@ -6216,10 +6168,10 @@
       <c r="O76" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P76" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q76" s="136" t="n"/>
+      <c r="P76" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q76" s="135" t="n"/>
       <c r="R76" s="9" t="n"/>
       <c r="S76" s="9" t="n"/>
       <c r="T76" s="9" t="n"/>
@@ -6229,9 +6181,9 @@
       </c>
       <c r="AC76" s="10" t="n"/>
       <c r="AD76" s="10" t="n"/>
-      <c r="AE76" s="7" t="inlineStr">
-        <is>
-          <t>73515681</t>
+      <c r="AE76" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6198,7 @@
       </c>
       <c r="C77" s="7" t="inlineStr">
         <is>
-          <t>Hatim Chaibi</t>
+          <t>Hatim Chaibi (73515681)</t>
         </is>
       </c>
       <c r="D77" s="8" t="n">
@@ -6285,10 +6237,10 @@
       <c r="O77" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P77" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q77" s="136" t="n"/>
+      <c r="P77" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q77" s="135" t="n"/>
       <c r="R77" s="9" t="n"/>
       <c r="S77" s="9" t="n"/>
       <c r="T77" s="9" t="n"/>
@@ -6298,9 +6250,9 @@
       </c>
       <c r="AC77" s="10" t="n"/>
       <c r="AD77" s="10" t="n"/>
-      <c r="AE77" s="7" t="inlineStr">
-        <is>
-          <t>73515681</t>
+      <c r="AE77" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -6315,7 +6267,7 @@
       </c>
       <c r="C78" s="13" t="inlineStr">
         <is>
-          <t>Beguenstigter/Zahlungspflichtiger</t>
+          <t>(01608531784)</t>
         </is>
       </c>
       <c r="D78" s="15" t="n"/>
@@ -6365,9 +6317,9 @@
       </c>
       <c r="AC78" s="10" t="n"/>
       <c r="AD78" s="10" t="n"/>
-      <c r="AE78" s="13" t="inlineStr">
-        <is>
-          <t>01608531784</t>
+      <c r="AE78" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -6382,7 +6334,7 @@
       </c>
       <c r="C79" s="7" t="inlineStr">
         <is>
-          <t>Abdelhamid Chaoui Benaissa</t>
+          <t>Abdelhamid Chaoui Benaissa (015758484473)</t>
         </is>
       </c>
       <c r="D79" s="15" t="n"/>
@@ -6416,10 +6368,10 @@
       <c r="N79" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="O79" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="P79" s="136" t="n"/>
+      <c r="O79" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="P79" s="135" t="n"/>
       <c r="Q79" s="9" t="n"/>
       <c r="R79" s="9" t="n"/>
       <c r="S79" s="9" t="n"/>
@@ -6430,9 +6382,9 @@
       </c>
       <c r="AC79" s="10" t="n"/>
       <c r="AD79" s="10" t="n"/>
-      <c r="AE79" s="7" t="inlineStr">
-        <is>
-          <t>015758484473</t>
+      <c r="AE79" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -6447,7 +6399,7 @@
       </c>
       <c r="C80" s="7" t="inlineStr">
         <is>
-          <t>Abdelhamid Chaoui Benaissa</t>
+          <t>Abdelhamid Chaoui Benaissa (015758484473)</t>
         </is>
       </c>
       <c r="D80" s="15" t="n"/>
@@ -6481,10 +6433,10 @@
       <c r="N80" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="O80" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="P80" s="136" t="n"/>
+      <c r="O80" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="P80" s="135" t="n"/>
       <c r="Q80" s="9" t="n"/>
       <c r="R80" s="9" t="n"/>
       <c r="S80" s="9" t="n"/>
@@ -6495,9 +6447,9 @@
       </c>
       <c r="AC80" s="10" t="n"/>
       <c r="AD80" s="10" t="n"/>
-      <c r="AE80" s="7" t="inlineStr">
-        <is>
-          <t>015758484473</t>
+      <c r="AE80" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -6512,7 +6464,7 @@
       </c>
       <c r="C81" s="7" t="inlineStr">
         <is>
-          <t>Rachid Cherkaoui, und Wafa Boussetta</t>
+          <t>Rachid Cherkaoui (015773665575)</t>
         </is>
       </c>
       <c r="D81" s="15" t="n"/>
@@ -6541,10 +6493,10 @@
       <c r="O81" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P81" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q81" s="136" t="n"/>
+      <c r="P81" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q81" s="135" t="n"/>
       <c r="R81" s="9" t="n"/>
       <c r="S81" s="9" t="n"/>
       <c r="T81" s="9" t="n"/>
@@ -6554,9 +6506,9 @@
       </c>
       <c r="AC81" s="10" t="n"/>
       <c r="AD81" s="10" t="n"/>
-      <c r="AE81" s="7" t="inlineStr">
-        <is>
-          <t>015773665575</t>
+      <c r="AE81" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -6571,7 +6523,7 @@
       </c>
       <c r="C82" s="7" t="inlineStr">
         <is>
-          <t>Rachid Cherkaoui, und Wafa Boussetta</t>
+          <t>Rachid Cherkaoui (015773665575)</t>
         </is>
       </c>
       <c r="D82" s="15" t="n"/>
@@ -6606,7 +6558,7 @@
       <c r="O82" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P82" s="136" t="n"/>
+      <c r="P82" s="135" t="n"/>
       <c r="Q82" s="9" t="n"/>
       <c r="R82" s="9" t="n"/>
       <c r="S82" s="9" t="n"/>
@@ -6617,9 +6569,9 @@
       </c>
       <c r="AC82" s="10" t="n"/>
       <c r="AD82" s="10" t="n"/>
-      <c r="AE82" s="7" t="inlineStr">
-        <is>
-          <t>015773665575</t>
+      <c r="AE82" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -6634,7 +6586,7 @@
       </c>
       <c r="C83" s="7" t="inlineStr">
         <is>
-          <t>Rachid Cherkaoui, und Wafa Boussetta</t>
+          <t>Rachid Cherkaoui (015773665575)</t>
         </is>
       </c>
       <c r="D83" s="15" t="n"/>
@@ -6669,7 +6621,7 @@
       <c r="O83" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P83" s="136" t="n"/>
+      <c r="P83" s="135" t="n"/>
       <c r="Q83" s="9" t="n"/>
       <c r="R83" s="9" t="n"/>
       <c r="S83" s="9" t="n"/>
@@ -6680,9 +6632,9 @@
       </c>
       <c r="AC83" s="10" t="n"/>
       <c r="AD83" s="10" t="n"/>
-      <c r="AE83" s="7" t="inlineStr">
-        <is>
-          <t>015773665575</t>
+      <c r="AE83" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -6697,7 +6649,7 @@
       </c>
       <c r="C84" s="7" t="inlineStr">
         <is>
-          <t>Said Chochouh und Ouafae Barzizoui</t>
+          <t>Said Chochouh (78354446)</t>
         </is>
       </c>
       <c r="D84" s="8" t="n">
@@ -6747,9 +6699,9 @@
       </c>
       <c r="AC84" s="10" t="n"/>
       <c r="AD84" s="10" t="n"/>
-      <c r="AE84" s="7" t="inlineStr">
-        <is>
-          <t>78354446</t>
+      <c r="AE84" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -6762,11 +6714,7 @@
           <t>Chochouh Maryam</t>
         </is>
       </c>
-      <c r="C85" s="7" t="inlineStr">
-        <is>
-          <t>Said Chochouh</t>
-        </is>
-      </c>
+      <c r="C85" s="7" t="n"/>
       <c r="D85" s="15" t="n"/>
       <c r="E85" s="15" t="n"/>
       <c r="F85" s="15" t="n"/>
@@ -6788,7 +6736,7 @@
       <c r="R85" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="S85" s="136" t="n"/>
+      <c r="S85" s="135" t="n"/>
       <c r="T85" s="9" t="n"/>
       <c r="AB85" s="6">
         <f>IF(OR(M85=25, P85=25), "A5", IF(OR(M85&lt;25, P85&lt;25), "B0", ""))</f>
@@ -6796,9 +6744,7 @@
       </c>
       <c r="AC85" s="10" t="n"/>
       <c r="AD85" s="10" t="n"/>
-      <c r="AE85" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE85" s="11" t="n"/>
     </row>
     <row r="86" ht="21.1" customHeight="1">
       <c r="A86" s="6" t="n">
@@ -6809,11 +6755,7 @@
           <t>Chochouh Zaynab</t>
         </is>
       </c>
-      <c r="C86" s="7" t="inlineStr">
-        <is>
-          <t>Said Chochouh</t>
-        </is>
-      </c>
+      <c r="C86" s="7" t="n"/>
       <c r="D86" s="15" t="n"/>
       <c r="E86" s="15" t="n"/>
       <c r="F86" s="15" t="n"/>
@@ -6835,7 +6777,7 @@
       <c r="R86" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="S86" s="136" t="n"/>
+      <c r="S86" s="135" t="n"/>
       <c r="T86" s="9" t="n"/>
       <c r="AB86" s="6">
         <f>IF(OR(M86=25, P86=25), "A5", IF(OR(M86&lt;25, P86&lt;25), "B0", ""))</f>
@@ -6843,9 +6785,7 @@
       </c>
       <c r="AC86" s="10" t="n"/>
       <c r="AD86" s="10" t="n"/>
-      <c r="AE86" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE86" s="11" t="n"/>
     </row>
     <row r="87" ht="21.1" customHeight="1">
       <c r="A87" s="6" t="n">
@@ -6858,7 +6798,7 @@
       </c>
       <c r="C87" s="7" t="inlineStr">
         <is>
-          <t>Chourak Jaouad</t>
+          <t>Chourak Jaouad (72268205)</t>
         </is>
       </c>
       <c r="D87" s="15" t="n"/>
@@ -6889,7 +6829,7 @@
       <c r="O87" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P87" s="136" t="n"/>
+      <c r="P87" s="135" t="n"/>
       <c r="Q87" s="9" t="n"/>
       <c r="R87" s="9" t="n"/>
       <c r="S87" s="9" t="n"/>
@@ -6900,9 +6840,9 @@
       </c>
       <c r="AC87" s="10" t="n"/>
       <c r="AD87" s="10" t="n"/>
-      <c r="AE87" s="7" t="inlineStr">
-        <is>
-          <t>72268205</t>
+      <c r="AE87" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -6917,7 +6857,7 @@
       </c>
       <c r="C88" s="7" t="inlineStr">
         <is>
-          <t>Chourak Jaouad</t>
+          <t>Chourak Jaouad (72268205)</t>
         </is>
       </c>
       <c r="D88" s="15" t="n"/>
@@ -6948,7 +6888,7 @@
       <c r="O88" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P88" s="136" t="n"/>
+      <c r="P88" s="135" t="n"/>
       <c r="Q88" s="9" t="n"/>
       <c r="R88" s="9" t="n"/>
       <c r="S88" s="9" t="n"/>
@@ -6959,9 +6899,9 @@
       </c>
       <c r="AC88" s="10" t="n"/>
       <c r="AD88" s="10" t="n"/>
-      <c r="AE88" s="7" t="inlineStr">
-        <is>
-          <t>72268205</t>
+      <c r="AE88" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -6976,7 +6916,7 @@
       </c>
       <c r="C89" s="13" t="inlineStr">
         <is>
-          <t>Dargazi Jamal</t>
+          <t>Dargazi Jamal (72001140)</t>
         </is>
       </c>
       <c r="D89" s="8" t="n">
@@ -7015,7 +6955,7 @@
       <c r="O89" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="P89" s="136" t="n"/>
+      <c r="P89" s="135" t="n"/>
       <c r="Q89" s="9" t="n"/>
       <c r="R89" s="9" t="n"/>
       <c r="S89" s="9" t="n"/>
@@ -7026,9 +6966,9 @@
       </c>
       <c r="AC89" s="10" t="n"/>
       <c r="AD89" s="10" t="n"/>
-      <c r="AE89" s="13" t="inlineStr">
-        <is>
-          <t>72001140</t>
+      <c r="AE89" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -7043,7 +6983,7 @@
       </c>
       <c r="C90" s="13" t="inlineStr">
         <is>
-          <t>Dargazi Jamal</t>
+          <t>Dargazi Jamal (72001140)</t>
         </is>
       </c>
       <c r="D90" s="8" t="n">
@@ -7082,7 +7022,7 @@
       <c r="O90" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P90" s="136" t="n"/>
+      <c r="P90" s="135" t="n"/>
       <c r="Q90" s="9" t="n"/>
       <c r="R90" s="9" t="n"/>
       <c r="S90" s="9" t="n"/>
@@ -7101,9 +7041,9 @@
           <t>*</t>
         </is>
       </c>
-      <c r="AE90" s="13" t="inlineStr">
-        <is>
-          <t>72001140</t>
+      <c r="AE90" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -7118,7 +7058,7 @@
       </c>
       <c r="C91" s="13" t="inlineStr">
         <is>
-          <t>Dargazi Jamal</t>
+          <t>Dargazi Jamal (72001140)</t>
         </is>
       </c>
       <c r="D91" s="8" t="n">
@@ -7157,7 +7097,7 @@
       <c r="O91" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P91" s="136" t="n"/>
+      <c r="P91" s="135" t="n"/>
       <c r="Q91" s="9" t="n"/>
       <c r="R91" s="9" t="n"/>
       <c r="S91" s="9" t="n"/>
@@ -7176,9 +7116,9 @@
           <t>*</t>
         </is>
       </c>
-      <c r="AE91" s="13" t="inlineStr">
-        <is>
-          <t>72001140</t>
+      <c r="AE91" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -7193,7 +7133,7 @@
       </c>
       <c r="C92" s="7" t="inlineStr">
         <is>
-          <t>CHAFIK DARRAZ</t>
+          <t>CHAFIK DARRAZ (657818946)</t>
         </is>
       </c>
       <c r="D92" s="8" t="n">
@@ -7235,7 +7175,7 @@
       <c r="P92" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="Q92" s="137" t="n">
+      <c r="Q92" s="136" t="n">
         <v>15</v>
       </c>
       <c r="R92" s="9" t="n"/>
@@ -7247,9 +7187,9 @@
       </c>
       <c r="AC92" s="10" t="n"/>
       <c r="AD92" s="10" t="n"/>
-      <c r="AE92" s="7" t="inlineStr">
-        <is>
-          <t>657818946</t>
+      <c r="AE92" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -7264,7 +7204,7 @@
       </c>
       <c r="C93" s="7" t="inlineStr">
         <is>
-          <t>CHAFIK DARRAZ</t>
+          <t>CHAFIK DARRAZ (657818946)</t>
         </is>
       </c>
       <c r="D93" s="8" t="n">
@@ -7306,7 +7246,7 @@
       <c r="P93" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="Q93" s="136" t="n"/>
+      <c r="Q93" s="135" t="n"/>
       <c r="R93" s="9" t="n"/>
       <c r="S93" s="9" t="n"/>
       <c r="T93" s="9" t="n"/>
@@ -7316,9 +7256,9 @@
       </c>
       <c r="AC93" s="10" t="n"/>
       <c r="AD93" s="10" t="n"/>
-      <c r="AE93" s="7" t="inlineStr">
-        <is>
-          <t>657818946</t>
+      <c r="AE93" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -7333,7 +7273,7 @@
       </c>
       <c r="C94" s="13" t="inlineStr">
         <is>
-          <t>Demir Mehmet</t>
+          <t>Demir Mehmet (738667380)</t>
         </is>
       </c>
       <c r="D94" s="8" t="n">
@@ -7372,7 +7312,7 @@
       <c r="O94" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P94" s="136" t="n"/>
+      <c r="P94" s="135" t="n"/>
       <c r="Q94" s="9" t="n"/>
       <c r="R94" s="9" t="n"/>
       <c r="S94" s="9" t="n"/>
@@ -7383,9 +7323,9 @@
       </c>
       <c r="AC94" s="10" t="n"/>
       <c r="AD94" s="10" t="n"/>
-      <c r="AE94" s="13" t="inlineStr">
-        <is>
-          <t>738667380</t>
+      <c r="AE94" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -7400,7 +7340,7 @@
       </c>
       <c r="C95" s="13" t="inlineStr">
         <is>
-          <t>Demir Mehmet</t>
+          <t>Demir Mehmet (738667380)</t>
         </is>
       </c>
       <c r="D95" s="8" t="n">
@@ -7439,7 +7379,7 @@
       <c r="O95" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P95" s="136" t="n"/>
+      <c r="P95" s="135" t="n"/>
       <c r="Q95" s="9" t="n"/>
       <c r="R95" s="9" t="n"/>
       <c r="S95" s="9" t="n"/>
@@ -7450,9 +7390,9 @@
       </c>
       <c r="AC95" s="10" t="n"/>
       <c r="AD95" s="10" t="n"/>
-      <c r="AE95" s="13" t="inlineStr">
-        <is>
-          <t>738667380</t>
+      <c r="AE95" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -7467,7 +7407,7 @@
       </c>
       <c r="C96" s="13" t="inlineStr">
         <is>
-          <t>Demir Mehmet</t>
+          <t>Demir Mehmet (738667380)</t>
         </is>
       </c>
       <c r="D96" s="8" t="n">
@@ -7506,7 +7446,7 @@
       <c r="O96" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P96" s="136" t="n"/>
+      <c r="P96" s="135" t="n"/>
       <c r="Q96" s="9" t="n"/>
       <c r="R96" s="9" t="n"/>
       <c r="S96" s="9" t="n"/>
@@ -7517,9 +7457,9 @@
       </c>
       <c r="AC96" s="10" t="n"/>
       <c r="AD96" s="10" t="n"/>
-      <c r="AE96" s="13" t="inlineStr">
-        <is>
-          <t>738667380</t>
+      <c r="AE96" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -7534,7 +7474,7 @@
       </c>
       <c r="C97" s="7" t="inlineStr">
         <is>
-          <t>Jaouad El Aissaoui und OuafaBoussenna</t>
+          <t>Jaouad El Aissaoui (015255709798)</t>
         </is>
       </c>
       <c r="D97" s="8" t="n">
@@ -7574,7 +7514,7 @@
       <c r="P97" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="Q97" s="137" t="n">
+      <c r="Q97" s="136" t="n">
         <v>20</v>
       </c>
       <c r="R97" s="9" t="n"/>
@@ -7594,9 +7534,9 @@
           <t>*</t>
         </is>
       </c>
-      <c r="AE97" s="7" t="inlineStr">
-        <is>
-          <t>015255709798</t>
+      <c r="AE97" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7551,7 @@
       </c>
       <c r="C98" s="7" t="inlineStr">
         <is>
-          <t>Jaouad El Aissaoui und OuafaBoussenna</t>
+          <t>Jaouad El Aissaoui (015255709798)</t>
         </is>
       </c>
       <c r="D98" s="8" t="n">
@@ -7651,7 +7591,7 @@
       <c r="P98" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="Q98" s="136" t="n"/>
+      <c r="Q98" s="135" t="n"/>
       <c r="R98" s="9" t="n"/>
       <c r="S98" s="9" t="n"/>
       <c r="T98" s="9" t="n"/>
@@ -7669,9 +7609,9 @@
           <t>*</t>
         </is>
       </c>
-      <c r="AE98" s="7" t="inlineStr">
-        <is>
-          <t>015255709798</t>
+      <c r="AE98" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -7708,9 +7648,7 @@
       </c>
       <c r="AC99" s="10" t="n"/>
       <c r="AD99" s="10" t="n"/>
-      <c r="AE99" s="17" t="n">
-        <v/>
-      </c>
+      <c r="AE99" s="11" t="n"/>
     </row>
     <row r="100" ht="21.1" customHeight="1">
       <c r="A100" s="6" t="n">
@@ -7723,7 +7661,7 @@
       </c>
       <c r="C100" s="13" t="inlineStr">
         <is>
-          <t>Badreddine El Akrouche</t>
+          <t>Badreddine El Akrouche (015903020809)</t>
         </is>
       </c>
       <c r="D100" s="15" t="n"/>
@@ -7749,11 +7687,7 @@
       </c>
       <c r="AC100" s="10" t="n"/>
       <c r="AD100" s="10" t="n"/>
-      <c r="AE100" s="13" t="inlineStr">
-        <is>
-          <t>015903020809</t>
-        </is>
-      </c>
+      <c r="AE100" s="11" t="n"/>
     </row>
     <row r="101" ht="21.1" customHeight="1">
       <c r="A101" s="6" t="n">
@@ -7766,7 +7700,7 @@
       </c>
       <c r="C101" s="13" t="inlineStr">
         <is>
-          <t>Badreddine El Akrouche</t>
+          <t>Badreddine El Akrouche (015903020809)</t>
         </is>
       </c>
       <c r="D101" s="8" t="n">
@@ -7812,9 +7746,9 @@
       </c>
       <c r="AC101" s="10" t="n"/>
       <c r="AD101" s="10" t="n"/>
-      <c r="AE101" s="13" t="inlineStr">
-        <is>
-          <t>015903020809</t>
+      <c r="AE101" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -7829,7 +7763,7 @@
       </c>
       <c r="C102" s="13" t="inlineStr">
         <is>
-          <t>Badreddine El Akrouche</t>
+          <t>Badreddine El Akrouche (015903020809)</t>
         </is>
       </c>
       <c r="D102" s="15" t="n"/>
@@ -7867,9 +7801,9 @@
       </c>
       <c r="AC102" s="10" t="n"/>
       <c r="AD102" s="10" t="n"/>
-      <c r="AE102" s="13" t="inlineStr">
-        <is>
-          <t>015903020809</t>
+      <c r="AE102" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -7884,7 +7818,7 @@
       </c>
       <c r="C103" s="7" t="inlineStr">
         <is>
-          <t>El Azzouzi Oussama</t>
+          <t>El Azzouzi Oussama (58638258)</t>
         </is>
       </c>
       <c r="D103" s="8" t="n">
@@ -7923,7 +7857,7 @@
       <c r="O103" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P103" s="136" t="n"/>
+      <c r="P103" s="135" t="n"/>
       <c r="Q103" s="9" t="n"/>
       <c r="R103" s="9" t="n"/>
       <c r="S103" s="9" t="n"/>
@@ -7942,9 +7876,9 @@
           <t>*</t>
         </is>
       </c>
-      <c r="AE103" s="7" t="inlineStr">
-        <is>
-          <t>58638258</t>
+      <c r="AE103" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -7959,7 +7893,7 @@
       </c>
       <c r="C104" s="7" t="inlineStr">
         <is>
-          <t>El Azzouzi Oussama</t>
+          <t>El Azzouzi Oussama (58638258)</t>
         </is>
       </c>
       <c r="D104" s="8" t="n">
@@ -7998,7 +7932,7 @@
       <c r="O104" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P104" s="136" t="n"/>
+      <c r="P104" s="135" t="n"/>
       <c r="Q104" s="9" t="n"/>
       <c r="R104" s="9" t="n"/>
       <c r="S104" s="9" t="n"/>
@@ -8017,9 +7951,9 @@
           <t>*</t>
         </is>
       </c>
-      <c r="AE104" s="7" t="inlineStr">
-        <is>
-          <t>58638258</t>
+      <c r="AE104" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -8034,7 +7968,7 @@
       </c>
       <c r="C105" s="17" t="inlineStr">
         <is>
-          <t>Hassan El Badaoui</t>
+          <t>Hassan El Badaoui (6 24640578)</t>
         </is>
       </c>
       <c r="D105" s="8" t="n">
@@ -8073,7 +8007,7 @@
       <c r="O105" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="P105" s="136" t="n"/>
+      <c r="P105" s="135" t="n"/>
       <c r="Q105" s="9" t="n"/>
       <c r="R105" s="9" t="n"/>
       <c r="S105" s="9" t="n"/>
@@ -8084,9 +8018,9 @@
       </c>
       <c r="AC105" s="10" t="n"/>
       <c r="AD105" s="10" t="n"/>
-      <c r="AE105" s="17" t="inlineStr">
-        <is>
-          <t>6 24640578</t>
+      <c r="AE105" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -8101,7 +8035,7 @@
       </c>
       <c r="C106" s="7" t="inlineStr">
         <is>
-          <t>Hassan El Badaoui</t>
+          <t>Hassan El Badaoui (6 24640578)</t>
         </is>
       </c>
       <c r="D106" s="15" t="n"/>
@@ -8138,7 +8072,7 @@
       <c r="O106" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P106" s="136" t="n"/>
+      <c r="P106" s="135" t="n"/>
       <c r="Q106" s="9" t="n"/>
       <c r="R106" s="9" t="n"/>
       <c r="S106" s="9" t="n"/>
@@ -8149,9 +8083,9 @@
       </c>
       <c r="AC106" s="10" t="n"/>
       <c r="AD106" s="10" t="n"/>
-      <c r="AE106" s="7" t="inlineStr">
-        <is>
-          <t>6 24640578</t>
+      <c r="AE106" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -8166,7 +8100,7 @@
       </c>
       <c r="C107" s="7" t="inlineStr">
         <is>
-          <t>Ahmed El Bakkali und Kenza Serhan</t>
+          <t>Ahmed El Bakkali (015906390487)</t>
         </is>
       </c>
       <c r="D107" s="8" t="n">
@@ -8216,9 +8150,9 @@
       </c>
       <c r="AC107" s="10" t="n"/>
       <c r="AD107" s="10" t="n"/>
-      <c r="AE107" s="7" t="inlineStr">
-        <is>
-          <t>015906390487</t>
+      <c r="AE107" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -8233,7 +8167,7 @@
       </c>
       <c r="C108" s="13" t="inlineStr">
         <is>
-          <t>SAMIR EL BALI LOUISA EL KEBIR</t>
+          <t>SAMIR EL BALI LOUISA EL KEBIR (015228352331)</t>
         </is>
       </c>
       <c r="D108" s="8" t="n">
@@ -8272,7 +8206,7 @@
       <c r="O108" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P108" s="136" t="n"/>
+      <c r="P108" s="135" t="n"/>
       <c r="Q108" s="9" t="n"/>
       <c r="R108" s="9" t="n"/>
       <c r="S108" s="9" t="n"/>
@@ -8291,9 +8225,9 @@
           <t>*</t>
         </is>
       </c>
-      <c r="AE108" s="13" t="inlineStr">
-        <is>
-          <t>015228352331</t>
+      <c r="AE108" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -8308,7 +8242,7 @@
       </c>
       <c r="C109" s="13" t="inlineStr">
         <is>
-          <t>SAMIR EL BALI LOUISA EL KEBIR</t>
+          <t>SAMIR EL BALI LOUISA EL KEBIR (015228352331)</t>
         </is>
       </c>
       <c r="D109" s="8" t="n">
@@ -8347,7 +8281,7 @@
       <c r="O109" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P109" s="136" t="n"/>
+      <c r="P109" s="135" t="n"/>
       <c r="Q109" s="9" t="n"/>
       <c r="R109" s="9" t="n"/>
       <c r="S109" s="9" t="n"/>
@@ -8366,9 +8300,9 @@
           <t>*</t>
         </is>
       </c>
-      <c r="AE109" s="13" t="inlineStr">
-        <is>
-          <t>015228352331</t>
+      <c r="AE109" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -8405,9 +8339,7 @@
       </c>
       <c r="AC110" s="10" t="n"/>
       <c r="AD110" s="10" t="n"/>
-      <c r="AE110" s="18" t="n">
-        <v/>
-      </c>
+      <c r="AE110" s="11" t="n"/>
     </row>
     <row r="111" ht="21.1" customHeight="1">
       <c r="A111" s="6" t="n">
@@ -8420,7 +8352,7 @@
       </c>
       <c r="C111" s="18" t="inlineStr">
         <is>
-          <t>Ibtissam Kassmi El Bali</t>
+          <t>Ibtissam Kassmi El Bali (51413553)</t>
         </is>
       </c>
       <c r="D111" s="15" t="n"/>
@@ -8446,11 +8378,7 @@
       </c>
       <c r="AC111" s="10" t="n"/>
       <c r="AD111" s="10" t="n"/>
-      <c r="AE111" s="18" t="inlineStr">
-        <is>
-          <t>51413553</t>
-        </is>
-      </c>
+      <c r="AE111" s="11" t="n"/>
     </row>
     <row r="112" ht="21.1" customHeight="1">
       <c r="A112" s="6" t="n">
@@ -8485,9 +8413,7 @@
       </c>
       <c r="AC112" s="10" t="n"/>
       <c r="AD112" s="10" t="n"/>
-      <c r="AE112" s="13" t="n">
-        <v/>
-      </c>
+      <c r="AE112" s="11" t="n"/>
     </row>
     <row r="113" ht="21.1" customHeight="1">
       <c r="A113" s="6" t="n">
@@ -8500,7 +8426,7 @@
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>Monir El Boujaddaini Rachida Bokhabza-El Boujaddaini</t>
+          <t>Monir El Boujaddaini (621609954)</t>
         </is>
       </c>
       <c r="D113" s="8" t="n">
@@ -8550,9 +8476,9 @@
       </c>
       <c r="AC113" s="10" t="n"/>
       <c r="AD113" s="10" t="n"/>
-      <c r="AE113" s="7" t="inlineStr">
-        <is>
-          <t>621609954</t>
+      <c r="AE113" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -8567,7 +8493,7 @@
       </c>
       <c r="C114" s="13" t="inlineStr">
         <is>
-          <t>El Farsioui Rachid</t>
+          <t>El Farsioui Rachid (01628501395)</t>
         </is>
       </c>
       <c r="D114" s="8" t="n">
@@ -8612,7 +8538,7 @@
       <c r="Q114" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="R114" s="136" t="n"/>
+      <c r="R114" s="135" t="n"/>
       <c r="S114" s="9" t="n"/>
       <c r="T114" s="9" t="n"/>
       <c r="AB114" s="6">
@@ -8621,9 +8547,9 @@
       </c>
       <c r="AC114" s="10" t="n"/>
       <c r="AD114" s="10" t="n"/>
-      <c r="AE114" s="13" t="inlineStr">
-        <is>
-          <t>01628501395</t>
+      <c r="AE114" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -8638,7 +8564,7 @@
       </c>
       <c r="C115" s="13" t="inlineStr">
         <is>
-          <t>El Farsioui Rachid</t>
+          <t>El Farsioui Rachid (01628501395)</t>
         </is>
       </c>
       <c r="D115" s="8" t="n">
@@ -8683,7 +8609,7 @@
       <c r="Q115" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="R115" s="136" t="n"/>
+      <c r="R115" s="135" t="n"/>
       <c r="S115" s="9" t="n"/>
       <c r="T115" s="9" t="n"/>
       <c r="AB115" s="6">
@@ -8692,9 +8618,9 @@
       </c>
       <c r="AC115" s="10" t="n"/>
       <c r="AD115" s="10" t="n"/>
-      <c r="AE115" s="13" t="inlineStr">
-        <is>
-          <t>01628501395</t>
+      <c r="AE115" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -8709,7 +8635,7 @@
       </c>
       <c r="C116" s="7" t="inlineStr">
         <is>
-          <t>Ouadi Dounia</t>
+          <t>Ouadi Dounia (015208548606)</t>
         </is>
       </c>
       <c r="D116" s="15" t="n"/>
@@ -8735,11 +8661,7 @@
       </c>
       <c r="AC116" s="10" t="n"/>
       <c r="AD116" s="10" t="n"/>
-      <c r="AE116" s="7" t="inlineStr">
-        <is>
-          <t>015208548606</t>
-        </is>
-      </c>
+      <c r="AE116" s="11" t="n"/>
     </row>
     <row r="117" ht="21.1" customHeight="1">
       <c r="A117" s="6" t="n">
@@ -8752,7 +8674,7 @@
       </c>
       <c r="C117" s="7" t="inlineStr">
         <is>
-          <t>Ouadi Dounia</t>
+          <t>Ouadi Dounia (015208548606)</t>
         </is>
       </c>
       <c r="D117" s="15" t="n"/>
@@ -8778,11 +8700,7 @@
       </c>
       <c r="AC117" s="10" t="n"/>
       <c r="AD117" s="10" t="n"/>
-      <c r="AE117" s="7" t="inlineStr">
-        <is>
-          <t>015208548606</t>
-        </is>
-      </c>
+      <c r="AE117" s="11" t="n"/>
     </row>
     <row r="118" ht="21.1" customHeight="1">
       <c r="A118" s="6" t="n">
@@ -8795,7 +8713,7 @@
       </c>
       <c r="C118" s="17" t="inlineStr">
         <is>
-          <t>El Hassnaoui, Najima</t>
+          <t>El Hajui Mohamed 015778575319 / El Hassnaoui, Najima</t>
         </is>
       </c>
       <c r="D118" s="8" t="n">
@@ -8834,10 +8752,10 @@
       <c r="O118" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="P118" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q118" s="136" t="n"/>
+      <c r="P118" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q118" s="135" t="n"/>
       <c r="R118" s="9" t="n"/>
       <c r="S118" s="9" t="n"/>
       <c r="T118" s="9" t="n"/>
@@ -8847,8 +8765,10 @@
       </c>
       <c r="AC118" s="10" t="n"/>
       <c r="AD118" s="10" t="n"/>
-      <c r="AE118" s="17" t="n">
-        <v/>
+      <c r="AE118" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
       </c>
     </row>
     <row r="119" ht="21.1" customHeight="1">
@@ -8862,7 +8782,7 @@
       </c>
       <c r="C119" s="7" t="inlineStr">
         <is>
-          <t>El Hassnaoui, Najima</t>
+          <t>El Hajui Mohamed 015778575319 / El Hassnaoui, Najima</t>
         </is>
       </c>
       <c r="D119" s="15" t="n"/>
@@ -8888,9 +8808,7 @@
       </c>
       <c r="AC119" s="10" t="n"/>
       <c r="AD119" s="10" t="n"/>
-      <c r="AE119" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE119" s="11" t="n"/>
     </row>
     <row r="120" ht="21.1" customHeight="1">
       <c r="A120" s="6" t="n">
@@ -8903,7 +8821,7 @@
       </c>
       <c r="C120" s="17" t="inlineStr">
         <is>
-          <t>El Hassnaoui, Najima</t>
+          <t>El Hajui Mohamed 015778575319 / El Hassnaoui, Najima</t>
         </is>
       </c>
       <c r="D120" s="8" t="n">
@@ -8942,7 +8860,7 @@
       <c r="O120" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P120" s="136" t="n"/>
+      <c r="P120" s="135" t="n"/>
       <c r="Q120" s="9" t="n"/>
       <c r="R120" s="9" t="n"/>
       <c r="S120" s="9" t="n"/>
@@ -8953,8 +8871,10 @@
       </c>
       <c r="AC120" s="10" t="n"/>
       <c r="AD120" s="10" t="n"/>
-      <c r="AE120" s="17" t="n">
-        <v/>
+      <c r="AE120" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
       </c>
     </row>
     <row r="121" ht="21.1" customHeight="1">
@@ -8968,7 +8888,7 @@
       </c>
       <c r="C121" s="7" t="inlineStr">
         <is>
-          <t>Khaled El Hamyani</t>
+          <t>Khaled El Hamyani (01637884674)</t>
         </is>
       </c>
       <c r="D121" s="8" t="n">
@@ -9013,34 +8933,34 @@
       <c r="Q121" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="R121" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="S121" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="T121" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="U121" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="V121" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="W121" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="X121" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y121" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z121" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA121" s="135" t="n">
+      <c r="R121" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="S121" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="T121" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="U121" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="V121" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="W121" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="X121" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y121" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z121" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA121" s="134" t="n">
         <v>25</v>
       </c>
       <c r="AB121" s="6">
@@ -9049,9 +8969,9 @@
       </c>
       <c r="AC121" s="10" t="n"/>
       <c r="AD121" s="9" t="n"/>
-      <c r="AE121" s="7" t="inlineStr">
-        <is>
-          <t>01637884674</t>
+      <c r="AE121" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -9066,7 +8986,7 @@
       </c>
       <c r="C122" s="7" t="inlineStr">
         <is>
-          <t>Khaled El Hamyani</t>
+          <t>Khaled El Hamyani (01637884674)</t>
         </is>
       </c>
       <c r="D122" s="8" t="n">
@@ -9111,34 +9031,34 @@
       <c r="Q122" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="R122" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="S122" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="T122" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="U122" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="V122" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="W122" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="X122" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y122" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z122" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA122" s="135" t="n">
+      <c r="R122" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="S122" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="T122" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="U122" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="V122" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="W122" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="X122" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y122" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z122" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA122" s="134" t="n">
         <v>15</v>
       </c>
       <c r="AB122" s="6">
@@ -9147,9 +9067,9 @@
       </c>
       <c r="AC122" s="10" t="n"/>
       <c r="AD122" s="9" t="n"/>
-      <c r="AE122" s="7" t="inlineStr">
-        <is>
-          <t>01637884674</t>
+      <c r="AE122" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -9164,7 +9084,7 @@
       </c>
       <c r="C123" s="18" t="inlineStr">
         <is>
-          <t>Mutter, Vater</t>
+          <t>Mutter (01634522399), Vater (015755789300)</t>
         </is>
       </c>
       <c r="D123" s="15" t="n"/>
@@ -9190,11 +9110,7 @@
       </c>
       <c r="AC123" s="10" t="n"/>
       <c r="AD123" s="10" t="n"/>
-      <c r="AE123" s="18" t="inlineStr">
-        <is>
-          <t>01634522399</t>
-        </is>
-      </c>
+      <c r="AE123" s="11" t="n"/>
     </row>
     <row r="124" ht="21.1" customHeight="1">
       <c r="A124" s="12" t="n">
@@ -9207,7 +9123,7 @@
       </c>
       <c r="C124" s="18" t="inlineStr">
         <is>
-          <t>Mutter, Vater</t>
+          <t>Mutter (01634522399), Vater (015755789300)</t>
         </is>
       </c>
       <c r="D124" s="15" t="n"/>
@@ -9233,9 +9149,9 @@
       </c>
       <c r="AC124" s="10" t="n"/>
       <c r="AD124" s="10" t="n"/>
-      <c r="AE124" s="18" t="inlineStr">
-        <is>
-          <t>01634522399</t>
+      <c r="AE124" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -9250,7 +9166,7 @@
       </c>
       <c r="C125" s="7" t="inlineStr">
         <is>
-          <t>Fadoua Kasrioui</t>
+          <t>El Hasnaoui Faissal (01633904259) / Fadoua Kasrioui</t>
         </is>
       </c>
       <c r="D125" s="8" t="n">
@@ -9300,9 +9216,9 @@
       </c>
       <c r="AC125" s="10" t="n"/>
       <c r="AD125" s="10" t="n"/>
-      <c r="AE125" s="7" t="inlineStr">
-        <is>
-          <t>01633904259</t>
+      <c r="AE125" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -9317,7 +9233,7 @@
       </c>
       <c r="C126" s="7" t="inlineStr">
         <is>
-          <t>Mustapha El Kabir</t>
+          <t>Mustapha El Kabir (015771964912)</t>
         </is>
       </c>
       <c r="D126" s="8" t="n">
@@ -9367,9 +9283,9 @@
       </c>
       <c r="AC126" s="10" t="n"/>
       <c r="AD126" s="10" t="n"/>
-      <c r="AE126" s="7" t="inlineStr">
-        <is>
-          <t>015771964912</t>
+      <c r="AE126" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -9384,7 +9300,7 @@
       </c>
       <c r="C127" s="7" t="inlineStr">
         <is>
-          <t>El Khalaf Mira</t>
+          <t>El Khalaf Mira (015755280532)</t>
         </is>
       </c>
       <c r="D127" s="15" t="n"/>
@@ -9405,7 +9321,7 @@
       <c r="Q127" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="R127" s="136" t="n"/>
+      <c r="R127" s="135" t="n"/>
       <c r="S127" s="9" t="n"/>
       <c r="T127" s="9" t="n"/>
       <c r="AB127" s="6">
@@ -9414,11 +9330,7 @@
       </c>
       <c r="AC127" s="10" t="n"/>
       <c r="AD127" s="10" t="n"/>
-      <c r="AE127" s="7" t="inlineStr">
-        <is>
-          <t>015755280532</t>
-        </is>
-      </c>
+      <c r="AE127" s="11" t="n"/>
     </row>
     <row r="128" ht="21.1" customHeight="1">
       <c r="A128" s="6" t="n">
@@ -9431,7 +9343,7 @@
       </c>
       <c r="C128" s="7" t="inlineStr">
         <is>
-          <t>El Khalaf Mira</t>
+          <t>El Khalaf Mira (015755280532)</t>
         </is>
       </c>
       <c r="D128" s="15" t="n"/>
@@ -9463,7 +9375,7 @@
       <c r="R128" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="S128" s="136" t="n"/>
+      <c r="S128" s="135" t="n"/>
       <c r="T128" s="9" t="n"/>
       <c r="AB128" s="6">
         <f>IF(OR(M128=25, P128=25), "A5", IF(OR(M128&lt;25, P128&lt;25), "B0", ""))</f>
@@ -9471,11 +9383,7 @@
       </c>
       <c r="AC128" s="10" t="n"/>
       <c r="AD128" s="10" t="n"/>
-      <c r="AE128" s="7" t="inlineStr">
-        <is>
-          <t>015755280532</t>
-        </is>
-      </c>
+      <c r="AE128" s="11" t="n"/>
     </row>
     <row r="129" ht="21.1" customHeight="1">
       <c r="A129" s="6" t="n">
@@ -9513,25 +9421,23 @@
       <c r="Q129" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="R129" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="S129" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="T129" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="U129" s="138" t="n"/>
+      <c r="R129" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="S129" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="T129" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="U129" s="137" t="n"/>
       <c r="AB129" s="6">
         <f>IF(OR(M129=25, P129=25), "A5", IF(OR(M129&lt;25, P129&lt;25), "B0", ""))</f>
         <v/>
       </c>
       <c r="AC129" s="10" t="n"/>
       <c r="AD129" s="10" t="n"/>
-      <c r="AE129" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE129" s="11" t="n"/>
     </row>
     <row r="130" ht="21.1" customHeight="1">
       <c r="A130" s="6" t="n">
@@ -9567,7 +9473,7 @@
       <c r="O130" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P130" s="136" t="n"/>
+      <c r="P130" s="135" t="n"/>
       <c r="Q130" s="9" t="n"/>
       <c r="R130" s="9" t="n"/>
       <c r="S130" s="9" t="n"/>
@@ -9578,9 +9484,7 @@
       </c>
       <c r="AC130" s="10" t="n"/>
       <c r="AD130" s="10" t="n"/>
-      <c r="AE130" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE130" s="11" t="n"/>
     </row>
     <row r="131" ht="21.1" customHeight="1">
       <c r="A131" s="6" t="n">
@@ -9616,7 +9520,7 @@
       <c r="O131" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P131" s="136" t="n"/>
+      <c r="P131" s="135" t="n"/>
       <c r="Q131" s="9" t="n"/>
       <c r="R131" s="9" t="n"/>
       <c r="S131" s="9" t="n"/>
@@ -9627,9 +9531,7 @@
       </c>
       <c r="AC131" s="10" t="n"/>
       <c r="AD131" s="10" t="n"/>
-      <c r="AE131" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE131" s="11" t="n"/>
     </row>
     <row r="132" ht="21.1" customHeight="1">
       <c r="A132" s="6" t="n">
@@ -9664,9 +9566,7 @@
       </c>
       <c r="AC132" s="10" t="n"/>
       <c r="AD132" s="10" t="n"/>
-      <c r="AE132" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE132" s="11" t="n"/>
     </row>
     <row r="133" ht="21.1" customHeight="1">
       <c r="A133" s="12" t="n">
@@ -9679,7 +9579,7 @@
       </c>
       <c r="C133" s="7" t="inlineStr">
         <is>
-          <t>El Khourani Ihab</t>
+          <t>El Khourani Ihab (01607918)</t>
         </is>
       </c>
       <c r="D133" s="8" t="n">
@@ -9721,9 +9621,9 @@
       </c>
       <c r="AC133" s="10" t="n"/>
       <c r="AD133" s="10" t="n"/>
-      <c r="AE133" s="7" t="inlineStr">
-        <is>
-          <t>01607918</t>
+      <c r="AE133" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -9759,16 +9659,16 @@
       <c r="O134" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P134" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q134" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="R134" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="S134" s="136" t="n"/>
+      <c r="P134" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q134" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="R134" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="S134" s="135" t="n"/>
       <c r="T134" s="9" t="n"/>
       <c r="AB134" s="6">
         <f>IF(OR(M134=25, P134=25), "A5", IF(OR(M134&lt;25, P134&lt;25), "B0", ""))</f>
@@ -9776,9 +9676,7 @@
       </c>
       <c r="AC134" s="10" t="n"/>
       <c r="AD134" s="10" t="n"/>
-      <c r="AE134" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE134" s="11" t="n"/>
     </row>
     <row r="135" ht="21.1" customHeight="1">
       <c r="A135" s="6" t="n">
@@ -9812,13 +9710,13 @@
       <c r="O135" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P135" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q135" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="R135" s="136" t="n"/>
+      <c r="P135" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q135" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="R135" s="135" t="n"/>
       <c r="S135" s="9" t="n"/>
       <c r="T135" s="9" t="n"/>
       <c r="AB135" s="6">
@@ -9827,9 +9725,7 @@
       </c>
       <c r="AC135" s="10" t="n"/>
       <c r="AD135" s="10" t="n"/>
-      <c r="AE135" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE135" s="11" t="n"/>
     </row>
     <row r="136" ht="21.1" customHeight="1">
       <c r="A136" s="6" t="n">
@@ -9863,13 +9759,13 @@
       <c r="O136" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P136" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q136" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="R136" s="136" t="n"/>
+      <c r="P136" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q136" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="R136" s="135" t="n"/>
       <c r="S136" s="9" t="n"/>
       <c r="T136" s="9" t="n"/>
       <c r="AB136" s="6">
@@ -9878,9 +9774,7 @@
       </c>
       <c r="AC136" s="10" t="n"/>
       <c r="AD136" s="10" t="n"/>
-      <c r="AE136" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE136" s="11" t="n"/>
     </row>
     <row r="137" ht="21.1" customHeight="1">
       <c r="A137" s="6" t="n">
@@ -9893,7 +9787,7 @@
       </c>
       <c r="C137" s="7" t="inlineStr">
         <is>
-          <t>El Mannini Bouziane</t>
+          <t>El Mannini Bouziane (630112288)</t>
         </is>
       </c>
       <c r="D137" s="8" t="n">
@@ -9935,7 +9829,7 @@
       <c r="P137" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="Q137" s="136" t="n"/>
+      <c r="Q137" s="135" t="n"/>
       <c r="R137" s="9" t="n"/>
       <c r="S137" s="9" t="n"/>
       <c r="T137" s="9" t="n"/>
@@ -9945,9 +9839,9 @@
       </c>
       <c r="AC137" s="10" t="n"/>
       <c r="AD137" s="10" t="n"/>
-      <c r="AE137" s="7" t="inlineStr">
-        <is>
-          <t>630112288</t>
+      <c r="AE137" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -9962,7 +9856,7 @@
       </c>
       <c r="C138" s="7" t="inlineStr">
         <is>
-          <t>El Mannini Bouziane</t>
+          <t>El Mannini Bouziane (630112288)</t>
         </is>
       </c>
       <c r="D138" s="8" t="n">
@@ -10004,7 +9898,7 @@
       <c r="P138" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="Q138" s="136" t="n"/>
+      <c r="Q138" s="135" t="n"/>
       <c r="R138" s="9" t="n"/>
       <c r="S138" s="9" t="n"/>
       <c r="T138" s="9" t="n"/>
@@ -10014,9 +9908,9 @@
       </c>
       <c r="AC138" s="10" t="n"/>
       <c r="AD138" s="10" t="n"/>
-      <c r="AE138" s="7" t="inlineStr">
-        <is>
-          <t>630112288</t>
+      <c r="AE138" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -10031,7 +9925,7 @@
       </c>
       <c r="C139" s="17" t="inlineStr">
         <is>
-          <t>Farida Bourasse</t>
+          <t>Akram El Meddi / Farida Bourasse (86253175 / Vater 015731752857)</t>
         </is>
       </c>
       <c r="D139" s="8" t="n">
@@ -10070,28 +9964,28 @@
       <c r="O139" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="P139" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q139" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="R139" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="S139" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="T139" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="U139" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="V139" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="W139" s="137" t="n">
+      <c r="P139" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q139" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="R139" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="S139" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="T139" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="U139" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="V139" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="W139" s="136" t="n">
         <v>5</v>
       </c>
       <c r="AB139" s="6">
@@ -10100,9 +9994,9 @@
       </c>
       <c r="AC139" s="10" t="n"/>
       <c r="AD139" s="10" t="n"/>
-      <c r="AE139" s="17" t="inlineStr">
-        <is>
-          <t>86253175 / Vater 015731752857</t>
+      <c r="AE139" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -10117,7 +10011,7 @@
       </c>
       <c r="C140" s="7" t="inlineStr">
         <is>
-          <t>Farida Bourasse</t>
+          <t>Akram El Meddi / Farida Bourasse (86253175 / Vater 015731752857)</t>
         </is>
       </c>
       <c r="D140" s="8" t="n">
@@ -10156,34 +10050,34 @@
       <c r="O140" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="P140" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q140" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="R140" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="S140" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="T140" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="U140" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="V140" s="138" t="n"/>
+      <c r="P140" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q140" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="R140" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="S140" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="T140" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="U140" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="V140" s="137" t="n"/>
       <c r="AB140" s="6">
         <f>IF(OR(M140=25, P140=25), "A5", IF(OR(M140&lt;25, P140&lt;25), "B0", ""))</f>
         <v/>
       </c>
       <c r="AC140" s="10" t="n"/>
       <c r="AD140" s="10" t="n"/>
-      <c r="AE140" s="7" t="inlineStr">
-        <is>
-          <t>86253175 / Vater 015731752857</t>
+      <c r="AE140" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -10198,7 +10092,7 @@
       </c>
       <c r="C141" s="7" t="inlineStr">
         <is>
-          <t>Skander Mezhoud</t>
+          <t>Skander Mezhoud (682392891 / 666894717)</t>
         </is>
       </c>
       <c r="D141" s="8" t="n">
@@ -10226,7 +10120,7 @@
       <c r="L141" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="M141" s="136" t="n"/>
+      <c r="M141" s="135" t="n"/>
       <c r="N141" s="14" t="n"/>
       <c r="O141" s="14" t="n"/>
       <c r="P141" s="14" t="n"/>
@@ -10240,9 +10134,9 @@
       </c>
       <c r="AC141" s="10" t="n"/>
       <c r="AD141" s="10" t="n"/>
-      <c r="AE141" s="7" t="inlineStr">
-        <is>
-          <t>682392891 / 666894717</t>
+      <c r="AE141" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -10257,7 +10151,7 @@
       </c>
       <c r="C142" s="7" t="inlineStr">
         <is>
-          <t>Skander Mezhoud</t>
+          <t>Skander Mezhoud (682392891 / 666894717)</t>
         </is>
       </c>
       <c r="D142" s="8" t="n">
@@ -10285,7 +10179,7 @@
       <c r="L142" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="M142" s="136" t="n"/>
+      <c r="M142" s="135" t="n"/>
       <c r="N142" s="14" t="n"/>
       <c r="O142" s="14" t="n"/>
       <c r="P142" s="14" t="n"/>
@@ -10299,9 +10193,9 @@
       </c>
       <c r="AC142" s="10" t="n"/>
       <c r="AD142" s="10" t="n"/>
-      <c r="AE142" s="7" t="inlineStr">
-        <is>
-          <t>682392891 / 666894717</t>
+      <c r="AE142" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -10316,7 +10210,7 @@
       </c>
       <c r="C143" s="7" t="inlineStr">
         <is>
-          <t>Skander Mezhoud</t>
+          <t>Skander Mezhoud (682392891 / 666894717)</t>
         </is>
       </c>
       <c r="D143" s="8" t="n">
@@ -10344,7 +10238,7 @@
       <c r="L143" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="M143" s="136" t="n"/>
+      <c r="M143" s="135" t="n"/>
       <c r="N143" s="14" t="n"/>
       <c r="O143" s="14" t="n"/>
       <c r="P143" s="14" t="n"/>
@@ -10358,9 +10252,9 @@
       </c>
       <c r="AC143" s="10" t="n"/>
       <c r="AD143" s="10" t="n"/>
-      <c r="AE143" s="7" t="inlineStr">
-        <is>
-          <t>682392891 / 666894717</t>
+      <c r="AE143" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -10375,7 +10269,7 @@
       </c>
       <c r="C144" s="7" t="inlineStr">
         <is>
-          <t>Redouan El Mossaoui</t>
+          <t>Redouan El Mossaoui (78670630)</t>
         </is>
       </c>
       <c r="D144" s="8" t="n">
@@ -10417,7 +10311,7 @@
       <c r="P144" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="Q144" s="136" t="n"/>
+      <c r="Q144" s="135" t="n"/>
       <c r="R144" s="9" t="n"/>
       <c r="S144" s="9" t="n"/>
       <c r="T144" s="9" t="n"/>
@@ -10427,9 +10321,9 @@
       </c>
       <c r="AC144" s="10" t="n"/>
       <c r="AD144" s="10" t="n"/>
-      <c r="AE144" s="7" t="inlineStr">
-        <is>
-          <t>78670630</t>
+      <c r="AE144" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -10444,7 +10338,7 @@
       </c>
       <c r="C145" s="7" t="inlineStr">
         <is>
-          <t>Redouan El Mossaoui</t>
+          <t>Redouan El Mossaoui (78670630)</t>
         </is>
       </c>
       <c r="D145" s="8" t="n">
@@ -10486,7 +10380,7 @@
       <c r="P145" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="Q145" s="136" t="n"/>
+      <c r="Q145" s="135" t="n"/>
       <c r="R145" s="9" t="n"/>
       <c r="S145" s="9" t="n"/>
       <c r="T145" s="9" t="n"/>
@@ -10496,9 +10390,9 @@
       </c>
       <c r="AC145" s="10" t="n"/>
       <c r="AD145" s="10" t="n"/>
-      <c r="AE145" s="7" t="inlineStr">
-        <is>
-          <t>78670630</t>
+      <c r="AE145" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -10513,7 +10407,7 @@
       </c>
       <c r="C146" s="7" t="inlineStr">
         <is>
-          <t>Mimoun El Mourabit Hajjout</t>
+          <t>Mimoun El Mourabit Hajjout (015215810333)</t>
         </is>
       </c>
       <c r="D146" s="8" t="n">
@@ -10552,10 +10446,10 @@
       <c r="O146" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P146" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q146" s="136" t="n"/>
+      <c r="P146" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q146" s="135" t="n"/>
       <c r="R146" s="9" t="n"/>
       <c r="S146" s="9" t="n"/>
       <c r="T146" s="9" t="n"/>
@@ -10565,9 +10459,9 @@
       </c>
       <c r="AC146" s="10" t="n"/>
       <c r="AD146" s="10" t="n"/>
-      <c r="AE146" s="7" t="inlineStr">
-        <is>
-          <t>015215810333</t>
+      <c r="AE146" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -10582,7 +10476,7 @@
       </c>
       <c r="C147" s="7" t="inlineStr">
         <is>
-          <t>Mimoun El Mourabit Hajjout</t>
+          <t>Mimoun El Mourabit Hajjout (015215810333)</t>
         </is>
       </c>
       <c r="D147" s="8" t="n">
@@ -10621,10 +10515,10 @@
       <c r="O147" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P147" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q147" s="136" t="n"/>
+      <c r="P147" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q147" s="135" t="n"/>
       <c r="R147" s="9" t="n"/>
       <c r="S147" s="9" t="n"/>
       <c r="T147" s="9" t="n"/>
@@ -10634,9 +10528,9 @@
       </c>
       <c r="AC147" s="10" t="n"/>
       <c r="AD147" s="10" t="n"/>
-      <c r="AE147" s="7" t="inlineStr">
-        <is>
-          <t>015215810333</t>
+      <c r="AE147" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -10651,7 +10545,7 @@
       </c>
       <c r="C148" s="7" t="inlineStr">
         <is>
-          <t>El Moussaoui Redouan</t>
+          <t>El Moussaoui Redouan (015228266960)</t>
         </is>
       </c>
       <c r="D148" s="15" t="n"/>
@@ -10682,7 +10576,7 @@
       <c r="O148" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P148" s="136" t="n"/>
+      <c r="P148" s="135" t="n"/>
       <c r="Q148" s="9" t="n"/>
       <c r="R148" s="9" t="n"/>
       <c r="S148" s="9" t="n"/>
@@ -10693,9 +10587,9 @@
       </c>
       <c r="AC148" s="10" t="n"/>
       <c r="AD148" s="10" t="n"/>
-      <c r="AE148" s="7" t="inlineStr">
-        <is>
-          <t>015228266960</t>
+      <c r="AE148" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -10710,7 +10604,7 @@
       </c>
       <c r="C149" s="7" t="inlineStr">
         <is>
-          <t>El Moussaoui Redouan</t>
+          <t>El Moussaoui Redouan (015228266960)</t>
         </is>
       </c>
       <c r="D149" s="15" t="n"/>
@@ -10741,7 +10635,7 @@
       <c r="O149" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P149" s="136" t="n"/>
+      <c r="P149" s="135" t="n"/>
       <c r="Q149" s="9" t="n"/>
       <c r="R149" s="9" t="n"/>
       <c r="S149" s="9" t="n"/>
@@ -10752,9 +10646,9 @@
       </c>
       <c r="AC149" s="10" t="n"/>
       <c r="AD149" s="10" t="n"/>
-      <c r="AE149" s="7" t="inlineStr">
-        <is>
-          <t>015228266960</t>
+      <c r="AE149" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -10769,7 +10663,7 @@
       </c>
       <c r="C150" s="7" t="inlineStr">
         <is>
-          <t>El Moussaoui Redouan</t>
+          <t>El Moussaoui Redouan (015228266960)</t>
         </is>
       </c>
       <c r="D150" s="15" t="n"/>
@@ -10800,7 +10694,7 @@
       <c r="O150" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P150" s="136" t="n"/>
+      <c r="P150" s="135" t="n"/>
       <c r="Q150" s="9" t="n"/>
       <c r="R150" s="9" t="n"/>
       <c r="S150" s="9" t="n"/>
@@ -10811,9 +10705,9 @@
       </c>
       <c r="AC150" s="10" t="n"/>
       <c r="AD150" s="10" t="n"/>
-      <c r="AE150" s="7" t="inlineStr">
-        <is>
-          <t>015228266960</t>
+      <c r="AE150" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -10828,7 +10722,7 @@
       </c>
       <c r="C151" s="7" t="inlineStr">
         <is>
-          <t>ABDALLAH EL MSELLEM UND FOUZIA HAMDACH SAAIDI</t>
+          <t>ABDALLAH EL MSELLEM (94388219)</t>
         </is>
       </c>
       <c r="D151" s="8" t="n">
@@ -10878,9 +10772,9 @@
       </c>
       <c r="AC151" s="10" t="n"/>
       <c r="AD151" s="10" t="n"/>
-      <c r="AE151" s="7" t="inlineStr">
-        <is>
-          <t>94388219</t>
+      <c r="AE151" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -10917,9 +10811,7 @@
       </c>
       <c r="AC152" s="10" t="n"/>
       <c r="AD152" s="10" t="n"/>
-      <c r="AE152" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE152" s="11" t="n"/>
     </row>
     <row r="153" ht="21.1" customHeight="1">
       <c r="A153" s="6" t="n">
@@ -10932,7 +10824,7 @@
       </c>
       <c r="C153" s="7" t="inlineStr">
         <is>
-          <t>Hassan El Omari</t>
+          <t>Hassan El Omari (82665527)</t>
         </is>
       </c>
       <c r="D153" s="15" t="n"/>
@@ -10968,11 +10860,7 @@
       </c>
       <c r="AC153" s="10" t="n"/>
       <c r="AD153" s="10" t="n"/>
-      <c r="AE153" s="7" t="inlineStr">
-        <is>
-          <t>82665527</t>
-        </is>
-      </c>
+      <c r="AE153" s="11" t="n"/>
     </row>
     <row r="154" ht="21.1" customHeight="1">
       <c r="A154" s="6" t="n">
@@ -11007,9 +10895,7 @@
       </c>
       <c r="AC154" s="10" t="n"/>
       <c r="AD154" s="10" t="n"/>
-      <c r="AE154" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE154" s="11" t="n"/>
     </row>
     <row r="155" ht="21.1" customHeight="1">
       <c r="A155" s="6" t="n">
@@ -11022,7 +10908,7 @@
       </c>
       <c r="C155" s="7" t="inlineStr">
         <is>
-          <t>El Ouahabi Ahmed</t>
+          <t>El Ouahabi Ahmed (18007458)</t>
         </is>
       </c>
       <c r="D155" s="15" t="n"/>
@@ -11072,9 +10958,9 @@
       </c>
       <c r="AC155" s="10" t="n"/>
       <c r="AD155" s="10" t="n"/>
-      <c r="AE155" s="7" t="inlineStr">
-        <is>
-          <t>18007458</t>
+      <c r="AE155" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -11089,7 +10975,7 @@
       </c>
       <c r="C156" s="7" t="inlineStr">
         <is>
-          <t>KARIM EL OUARDANI</t>
+          <t>KARIM EL OUARDANI (01607598117)</t>
         </is>
       </c>
       <c r="D156" s="8" t="n">
@@ -11128,10 +11014,10 @@
       <c r="O156" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="P156" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q156" s="137" t="n">
+      <c r="P156" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q156" s="136" t="n">
         <v>10</v>
       </c>
       <c r="R156" s="9" t="n"/>
@@ -11143,9 +11029,9 @@
       </c>
       <c r="AC156" s="10" t="n"/>
       <c r="AD156" s="10" t="n"/>
-      <c r="AE156" s="7" t="inlineStr">
-        <is>
-          <t>01607598117</t>
+      <c r="AE156" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -11160,7 +11046,7 @@
       </c>
       <c r="C157" s="7" t="inlineStr">
         <is>
-          <t>KARIM EL OUARDANI</t>
+          <t>KARIM EL OUARDANI (01607598117)</t>
         </is>
       </c>
       <c r="D157" s="8" t="n">
@@ -11199,10 +11085,10 @@
       <c r="O157" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="P157" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q157" s="136" t="n"/>
+      <c r="P157" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q157" s="135" t="n"/>
       <c r="R157" s="9" t="n"/>
       <c r="S157" s="9" t="n"/>
       <c r="T157" s="9" t="n"/>
@@ -11212,9 +11098,9 @@
       </c>
       <c r="AC157" s="10" t="n"/>
       <c r="AD157" s="10" t="n"/>
-      <c r="AE157" s="7" t="inlineStr">
-        <is>
-          <t>01607598117</t>
+      <c r="AE157" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -11251,9 +11137,7 @@
       </c>
       <c r="AC158" s="10" t="n"/>
       <c r="AD158" s="10" t="n"/>
-      <c r="AE158" s="17" t="n">
-        <v/>
-      </c>
+      <c r="AE158" s="11" t="n"/>
     </row>
     <row r="159" ht="21.1" customHeight="1">
       <c r="A159" s="6" t="n">
@@ -11266,7 +11150,7 @@
       </c>
       <c r="C159" s="7" t="inlineStr">
         <is>
-          <t>Abderrahim El Ouariachi</t>
+          <t>Abderrahim El Ouariachi (03375753)</t>
         </is>
       </c>
       <c r="D159" s="8" t="n">
@@ -11305,7 +11189,7 @@
       <c r="O159" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P159" s="136" t="n"/>
+      <c r="P159" s="135" t="n"/>
       <c r="Q159" s="9" t="n"/>
       <c r="R159" s="9" t="n"/>
       <c r="S159" s="9" t="n"/>
@@ -11316,9 +11200,9 @@
       </c>
       <c r="AC159" s="10" t="n"/>
       <c r="AD159" s="10" t="n"/>
-      <c r="AE159" s="7" t="inlineStr">
-        <is>
-          <t>03375753</t>
+      <c r="AE159" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -11333,7 +11217,7 @@
       </c>
       <c r="C160" s="7" t="inlineStr">
         <is>
-          <t>Abderrahim El Ouariachi</t>
+          <t>Abderrahim El Ouariachi (03375753)</t>
         </is>
       </c>
       <c r="D160" s="8" t="n">
@@ -11372,7 +11256,7 @@
       <c r="O160" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P160" s="136" t="n"/>
+      <c r="P160" s="135" t="n"/>
       <c r="Q160" s="9" t="n"/>
       <c r="R160" s="9" t="n"/>
       <c r="S160" s="9" t="n"/>
@@ -11383,9 +11267,9 @@
       </c>
       <c r="AC160" s="10" t="n"/>
       <c r="AD160" s="10" t="n"/>
-      <c r="AE160" s="7" t="inlineStr">
-        <is>
-          <t>03375753</t>
+      <c r="AE160" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -11400,7 +11284,7 @@
       </c>
       <c r="C161" s="7" t="inlineStr">
         <is>
-          <t>El Ouriachi Otman</t>
+          <t>El Ouriachi Otman (33839254)</t>
         </is>
       </c>
       <c r="D161" s="15" t="n"/>
@@ -11431,7 +11315,7 @@
       <c r="O161" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P161" s="136" t="n"/>
+      <c r="P161" s="135" t="n"/>
       <c r="Q161" s="9" t="n"/>
       <c r="R161" s="9" t="n"/>
       <c r="S161" s="9" t="n"/>
@@ -11442,9 +11326,9 @@
       </c>
       <c r="AC161" s="10" t="n"/>
       <c r="AD161" s="10" t="n"/>
-      <c r="AE161" s="7" t="inlineStr">
-        <is>
-          <t>33839254</t>
+      <c r="AE161" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -11459,7 +11343,7 @@
       </c>
       <c r="C162" s="7" t="inlineStr">
         <is>
-          <t>El Ouriachi Otman</t>
+          <t>El Ouriachi Otman (33839254)</t>
         </is>
       </c>
       <c r="D162" s="15" t="n"/>
@@ -11490,7 +11374,7 @@
       <c r="O162" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P162" s="136" t="n"/>
+      <c r="P162" s="135" t="n"/>
       <c r="Q162" s="9" t="n"/>
       <c r="R162" s="9" t="n"/>
       <c r="S162" s="9" t="n"/>
@@ -11501,9 +11385,9 @@
       </c>
       <c r="AC162" s="10" t="n"/>
       <c r="AD162" s="10" t="n"/>
-      <c r="AE162" s="7" t="inlineStr">
-        <is>
-          <t>33839254</t>
+      <c r="AE162" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -11518,7 +11402,7 @@
       </c>
       <c r="C163" s="13" t="inlineStr">
         <is>
-          <t>El Outmani Mostafa</t>
+          <t>El Outmani Mostafa (015735741208)</t>
         </is>
       </c>
       <c r="D163" s="8" t="n">
@@ -11570,9 +11454,9 @@
       </c>
       <c r="AC163" s="10" t="n"/>
       <c r="AD163" s="10" t="n"/>
-      <c r="AE163" s="13" t="inlineStr">
-        <is>
-          <t>015735741208</t>
+      <c r="AE163" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -11609,9 +11493,7 @@
       </c>
       <c r="AC164" s="10" t="n"/>
       <c r="AD164" s="10" t="n"/>
-      <c r="AE164" s="13" t="n">
-        <v/>
-      </c>
+      <c r="AE164" s="11" t="n"/>
     </row>
     <row r="165" ht="21.1" customHeight="1">
       <c r="A165" s="6" t="n">
@@ -11624,7 +11506,7 @@
       </c>
       <c r="C165" s="7" t="inlineStr">
         <is>
-          <t>Hafid El Wali Jali und Loubna Ghouti</t>
+          <t>Hafid El Wali Jali (01629136240)</t>
         </is>
       </c>
       <c r="D165" s="8" t="n">
@@ -11676,9 +11558,9 @@
       </c>
       <c r="AC165" s="10" t="n"/>
       <c r="AD165" s="10" t="n"/>
-      <c r="AE165" s="7" t="inlineStr">
-        <is>
-          <t>01629136240</t>
+      <c r="AE165" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -11693,7 +11575,7 @@
       </c>
       <c r="C166" s="7" t="inlineStr">
         <is>
-          <t>Ahmed El-Akrouche</t>
+          <t>Ahmed El-Akrouche (680895592)</t>
         </is>
       </c>
       <c r="D166" s="8" t="n">
@@ -11732,10 +11614,10 @@
       <c r="O166" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P166" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q166" s="137" t="n">
+      <c r="P166" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q166" s="136" t="n">
         <v>15</v>
       </c>
       <c r="R166" s="9" t="n"/>
@@ -11755,9 +11637,9 @@
           <t>*</t>
         </is>
       </c>
-      <c r="AE166" s="7" t="inlineStr">
-        <is>
-          <t>680895592</t>
+      <c r="AE166" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -11772,7 +11654,7 @@
       </c>
       <c r="C167" s="7" t="inlineStr">
         <is>
-          <t>Ahmed El-Akrouche</t>
+          <t>Ahmed El-Akrouche (680895592)</t>
         </is>
       </c>
       <c r="D167" s="8" t="n">
@@ -11811,10 +11693,10 @@
       <c r="O167" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P167" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q167" s="136" t="n"/>
+      <c r="P167" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q167" s="135" t="n"/>
       <c r="R167" s="9" t="n"/>
       <c r="S167" s="9" t="n"/>
       <c r="T167" s="9" t="n"/>
@@ -11832,9 +11714,9 @@
           <t>*</t>
         </is>
       </c>
-      <c r="AE167" s="7" t="inlineStr">
-        <is>
-          <t>680895592</t>
+      <c r="AE167" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -11871,9 +11753,7 @@
       </c>
       <c r="AC168" s="10" t="n"/>
       <c r="AD168" s="10" t="n"/>
-      <c r="AE168" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE168" s="11" t="n"/>
     </row>
     <row r="169" ht="21.1" customHeight="1">
       <c r="A169" s="6" t="n">
@@ -11908,9 +11788,7 @@
       </c>
       <c r="AC169" s="10" t="n"/>
       <c r="AD169" s="10" t="n"/>
-      <c r="AE169" s="17" t="n">
-        <v/>
-      </c>
+      <c r="AE169" s="11" t="n"/>
     </row>
     <row r="170" ht="21.1" customHeight="1">
       <c r="A170" s="6" t="n">
@@ -11923,7 +11801,7 @@
       </c>
       <c r="C170" s="7" t="inlineStr">
         <is>
-          <t>Halim Faouzi</t>
+          <t>Halim Faouzi (8817832)</t>
         </is>
       </c>
       <c r="D170" s="15" t="n"/>
@@ -11971,9 +11849,9 @@
       </c>
       <c r="AC170" s="10" t="n"/>
       <c r="AD170" s="10" t="n"/>
-      <c r="AE170" s="7" t="inlineStr">
-        <is>
-          <t>8817832</t>
+      <c r="AE170" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -11988,7 +11866,7 @@
       </c>
       <c r="C171" s="7" t="inlineStr">
         <is>
-          <t>Fatahi Rachid</t>
+          <t>Fatahi Rachid (015231704789)</t>
         </is>
       </c>
       <c r="D171" s="15" t="n"/>
@@ -12022,11 +11900,7 @@
       </c>
       <c r="AC171" s="10" t="n"/>
       <c r="AD171" s="10" t="n"/>
-      <c r="AE171" s="7" t="inlineStr">
-        <is>
-          <t>015231704789</t>
-        </is>
-      </c>
+      <c r="AE171" s="11" t="n"/>
     </row>
     <row r="172" ht="21.1" customHeight="1">
       <c r="A172" s="6" t="n">
@@ -12039,7 +11913,7 @@
       </c>
       <c r="C172" s="7" t="inlineStr">
         <is>
-          <t>Driss Ghzal</t>
+          <t>Driss Ghzal (015730836942)</t>
         </is>
       </c>
       <c r="D172" s="8" t="n">
@@ -12091,9 +11965,9 @@
       </c>
       <c r="AC172" s="10" t="n"/>
       <c r="AD172" s="10" t="n"/>
-      <c r="AE172" s="7" t="inlineStr">
-        <is>
-          <t>015730836942</t>
+      <c r="AE172" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -12108,7 +11982,7 @@
       </c>
       <c r="C173" s="18" t="inlineStr">
         <is>
-          <t>Haddi Mohamed</t>
+          <t>Haddi Mohamed (622047214)</t>
         </is>
       </c>
       <c r="D173" s="8" t="n">
@@ -12158,9 +12032,9 @@
       </c>
       <c r="AC173" s="10" t="n"/>
       <c r="AD173" s="10" t="n"/>
-      <c r="AE173" s="18" t="inlineStr">
-        <is>
-          <t>622047214</t>
+      <c r="AE173" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -12175,7 +12049,7 @@
       </c>
       <c r="C174" s="13" t="inlineStr">
         <is>
-          <t>Hafhaf Ahmed</t>
+          <t>Hafhaf Ahmed (015901163595)</t>
         </is>
       </c>
       <c r="D174" s="8" t="n">
@@ -12213,7 +12087,7 @@
       <c r="P174" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="Q174" s="136" t="n"/>
+      <c r="Q174" s="135" t="n"/>
       <c r="R174" s="9" t="n"/>
       <c r="S174" s="9" t="n"/>
       <c r="T174" s="9" t="n"/>
@@ -12231,9 +12105,9 @@
           <t>*</t>
         </is>
       </c>
-      <c r="AE174" s="13" t="inlineStr">
-        <is>
-          <t>015901163595</t>
+      <c r="AE174" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -12248,7 +12122,7 @@
       </c>
       <c r="C175" s="13" t="inlineStr">
         <is>
-          <t>Hafhaf Ahmed</t>
+          <t>Hafhaf Ahmed (015901163595)</t>
         </is>
       </c>
       <c r="D175" s="8" t="n">
@@ -12286,7 +12160,7 @@
       <c r="P175" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="Q175" s="136" t="n"/>
+      <c r="Q175" s="135" t="n"/>
       <c r="R175" s="9" t="n"/>
       <c r="S175" s="9" t="n"/>
       <c r="T175" s="9" t="n"/>
@@ -12304,9 +12178,9 @@
           <t>*</t>
         </is>
       </c>
-      <c r="AE175" s="13" t="inlineStr">
-        <is>
-          <t>015901163595</t>
+      <c r="AE175" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -12321,7 +12195,7 @@
       </c>
       <c r="C176" s="7" t="inlineStr">
         <is>
-          <t>Hajri Mimoun / Hajri Choumicha</t>
+          <t>Hajri Mimoun / Hajri Choumicha (92011709)</t>
         </is>
       </c>
       <c r="D176" s="8" t="n">
@@ -12363,7 +12237,7 @@
       <c r="P176" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="Q176" s="136" t="n"/>
+      <c r="Q176" s="135" t="n"/>
       <c r="R176" s="9" t="n"/>
       <c r="S176" s="9" t="n"/>
       <c r="T176" s="9" t="n"/>
@@ -12373,9 +12247,9 @@
       </c>
       <c r="AC176" s="10" t="n"/>
       <c r="AD176" s="10" t="n"/>
-      <c r="AE176" s="7" t="inlineStr">
-        <is>
-          <t>92011709</t>
+      <c r="AE176" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -12390,7 +12264,7 @@
       </c>
       <c r="C177" s="7" t="inlineStr">
         <is>
-          <t>Hajri Mimoun / Hajri Choumicha</t>
+          <t>Hajri Mimoun / Hajri Choumicha (92011709)</t>
         </is>
       </c>
       <c r="D177" s="8" t="n">
@@ -12432,7 +12306,7 @@
       <c r="P177" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="Q177" s="136" t="n"/>
+      <c r="Q177" s="135" t="n"/>
       <c r="R177" s="9" t="n"/>
       <c r="S177" s="9" t="n"/>
       <c r="T177" s="9" t="n"/>
@@ -12442,9 +12316,9 @@
       </c>
       <c r="AC177" s="10" t="n"/>
       <c r="AD177" s="10" t="n"/>
-      <c r="AE177" s="7" t="inlineStr">
-        <is>
-          <t>92011709</t>
+      <c r="AE177" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -12459,7 +12333,7 @@
       </c>
       <c r="C178" s="7" t="inlineStr">
         <is>
-          <t>Hajri Mimoun / Hajri Choumicha</t>
+          <t>Hajri Mimoun / Hajri Choumicha (92011709)</t>
         </is>
       </c>
       <c r="D178" s="8" t="n">
@@ -12501,7 +12375,7 @@
       <c r="P178" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="Q178" s="136" t="n"/>
+      <c r="Q178" s="135" t="n"/>
       <c r="R178" s="9" t="n"/>
       <c r="S178" s="9" t="n"/>
       <c r="T178" s="9" t="n"/>
@@ -12511,9 +12385,9 @@
       </c>
       <c r="AC178" s="10" t="n"/>
       <c r="AD178" s="10" t="n"/>
-      <c r="AE178" s="7" t="inlineStr">
-        <is>
-          <t>92011709</t>
+      <c r="AE178" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -12550,9 +12424,7 @@
       </c>
       <c r="AC179" s="10" t="n"/>
       <c r="AD179" s="10" t="n"/>
-      <c r="AE179" s="17" t="n">
-        <v/>
-      </c>
+      <c r="AE179" s="11" t="n"/>
     </row>
     <row r="180" ht="21.1" customHeight="1">
       <c r="A180" s="12" t="n">
@@ -12565,7 +12437,7 @@
       </c>
       <c r="C180" s="7" t="inlineStr">
         <is>
-          <t>Rima Rashid</t>
+          <t>Rima Rashid / Hanan Khashav (656478038)</t>
         </is>
       </c>
       <c r="D180" s="8" t="n">
@@ -12601,10 +12473,10 @@
       <c r="N180" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="O180" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="P180" s="136" t="n"/>
+      <c r="O180" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="P180" s="135" t="n"/>
       <c r="Q180" s="9" t="n"/>
       <c r="R180" s="9" t="n"/>
       <c r="S180" s="9" t="n"/>
@@ -12615,9 +12487,9 @@
       </c>
       <c r="AC180" s="10" t="n"/>
       <c r="AD180" s="10" t="n"/>
-      <c r="AE180" s="7" t="inlineStr">
-        <is>
-          <t>656478038</t>
+      <c r="AE180" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -12632,7 +12504,7 @@
       </c>
       <c r="C181" s="7" t="inlineStr">
         <is>
-          <t>Rima Rashid</t>
+          <t>Rima Rashid / Hanan Khashav (656478038)</t>
         </is>
       </c>
       <c r="D181" s="8" t="n">
@@ -12668,10 +12540,10 @@
       <c r="N181" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="O181" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="P181" s="136" t="n"/>
+      <c r="O181" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="P181" s="135" t="n"/>
       <c r="Q181" s="9" t="n"/>
       <c r="R181" s="9" t="n"/>
       <c r="S181" s="9" t="n"/>
@@ -12682,9 +12554,9 @@
       </c>
       <c r="AC181" s="10" t="n"/>
       <c r="AD181" s="10" t="n"/>
-      <c r="AE181" s="7" t="inlineStr">
-        <is>
-          <t>656478038</t>
+      <c r="AE181" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -12697,11 +12569,7 @@
           <t>Hannun Amira</t>
         </is>
       </c>
-      <c r="C182" s="7" t="inlineStr">
-        <is>
-          <t>Nour-Eddine Hannun</t>
-        </is>
-      </c>
+      <c r="C182" s="7" t="n"/>
       <c r="D182" s="21" t="n"/>
       <c r="E182" s="21" t="n"/>
       <c r="F182" s="21" t="n"/>
@@ -12714,16 +12582,16 @@
       <c r="M182" s="21" t="n"/>
       <c r="N182" s="21" t="n"/>
       <c r="O182" s="21" t="n"/>
-      <c r="P182" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q182" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="R182" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="S182" s="136" t="n"/>
+      <c r="P182" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q182" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="R182" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="S182" s="135" t="n"/>
       <c r="T182" s="9" t="n"/>
       <c r="AB182" s="6">
         <f>IF(OR(M182=25, P182=25), "A5", IF(OR(M182&lt;25, P182&lt;25), "B0", ""))</f>
@@ -12731,9 +12599,7 @@
       </c>
       <c r="AC182" s="10" t="n"/>
       <c r="AD182" s="10" t="n"/>
-      <c r="AE182" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE182" s="11" t="n"/>
     </row>
     <row r="183" ht="21.1" customHeight="1">
       <c r="A183" s="6" t="n">
@@ -12744,11 +12610,7 @@
           <t>Hannun Jana</t>
         </is>
       </c>
-      <c r="C183" s="7" t="inlineStr">
-        <is>
-          <t>Nour-Eddine Hannun</t>
-        </is>
-      </c>
+      <c r="C183" s="7" t="n"/>
       <c r="D183" s="21" t="n"/>
       <c r="E183" s="21" t="n"/>
       <c r="F183" s="21" t="n"/>
@@ -12761,10 +12623,10 @@
       <c r="M183" s="21" t="n"/>
       <c r="N183" s="21" t="n"/>
       <c r="O183" s="21" t="n"/>
-      <c r="P183" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q183" s="136" t="n"/>
+      <c r="P183" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q183" s="135" t="n"/>
       <c r="R183" s="9" t="n"/>
       <c r="S183" s="9" t="n"/>
       <c r="T183" s="9" t="n"/>
@@ -12774,9 +12636,7 @@
       </c>
       <c r="AC183" s="10" t="n"/>
       <c r="AD183" s="10" t="n"/>
-      <c r="AE183" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE183" s="11" t="n"/>
     </row>
     <row r="184" ht="21.1" customHeight="1">
       <c r="A184" s="6" t="n">
@@ -12787,11 +12647,7 @@
           <t>Hannun Nassim</t>
         </is>
       </c>
-      <c r="C184" s="7" t="inlineStr">
-        <is>
-          <t>Nour-Eddine Hannun</t>
-        </is>
-      </c>
+      <c r="C184" s="7" t="n"/>
       <c r="D184" s="21" t="n"/>
       <c r="E184" s="21" t="n"/>
       <c r="F184" s="21" t="n"/>
@@ -12804,10 +12660,10 @@
       <c r="M184" s="21" t="n"/>
       <c r="N184" s="21" t="n"/>
       <c r="O184" s="21" t="n"/>
-      <c r="P184" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q184" s="136" t="n"/>
+      <c r="P184" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q184" s="135" t="n"/>
       <c r="R184" s="9" t="n"/>
       <c r="S184" s="9" t="n"/>
       <c r="T184" s="9" t="n"/>
@@ -12817,9 +12673,7 @@
       </c>
       <c r="AC184" s="10" t="n"/>
       <c r="AD184" s="10" t="n"/>
-      <c r="AE184" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE184" s="11" t="n"/>
     </row>
     <row r="185" ht="21.1" customHeight="1">
       <c r="A185" s="6" t="n">
@@ -12832,7 +12686,7 @@
       </c>
       <c r="C185" s="13" t="inlineStr">
         <is>
-          <t>Hanzouli Mohamed</t>
+          <t>Hanzouli Mohamed (33641335)</t>
         </is>
       </c>
       <c r="D185" s="8" t="n">
@@ -12882,9 +12736,9 @@
       </c>
       <c r="AC185" s="10" t="n"/>
       <c r="AD185" s="10" t="n"/>
-      <c r="AE185" s="13" t="inlineStr">
-        <is>
-          <t>33641335</t>
+      <c r="AE185" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -12899,7 +12753,7 @@
       </c>
       <c r="C186" s="17" t="inlineStr">
         <is>
-          <t>Harchaoui Hassan</t>
+          <t>Harchaoui Hassan (29489957)</t>
         </is>
       </c>
       <c r="D186" s="21" t="n"/>
@@ -12945,9 +12799,9 @@
       </c>
       <c r="AC186" s="10" t="n"/>
       <c r="AD186" s="10" t="n"/>
-      <c r="AE186" s="17" t="inlineStr">
-        <is>
-          <t>29489957</t>
+      <c r="AE186" s="11" t="inlineStr">
+        <is>
+          <t>ja</t>
         </is>
       </c>
     </row>
@@ -12960,11 +12814,7 @@
           <t>Harchaoui Yassir</t>
         </is>
       </c>
-      <c r="C187" s="7" t="inlineStr">
-        <is>
-          <t>Hassan Harchaoui</t>
-        </is>
-      </c>
+      <c r="C187" s="7" t="n"/>
       <c r="D187" s="21" t="n"/>
       <c r="E187" s="21" t="n"/>
       <c r="F187" s="21" t="n"/>
@@ -12988,9 +12838,7 @@
       </c>
       <c r="AC187" s="10" t="n"/>
       <c r="AD187" s="10" t="n"/>
-      <c r="AE187" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE187" s="11" t="n"/>
     </row>
     <row r="188" ht="21.1" customHeight="1">
       <c r="A188" s="6" t="n">
@@ -13003,7 +12851,7 @@
       </c>
       <c r="C188" s="7" t="inlineStr">
         <is>
-          <t>Abdellali Harfi</t>
+          <t>Abdellali Harfi (01623602124 / 652977162)</t>
         </is>
       </c>
       <c r="D188" s="8" t="n">
@@ -13042,10 +12890,10 @@
       <c r="O188" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P188" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q188" s="136" t="n"/>
+      <c r="P188" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q188" s="135" t="n"/>
       <c r="R188" s="9" t="n"/>
       <c r="S188" s="9" t="n"/>
       <c r="T188" s="9" t="n"/>
@@ -13063,9 +12911,9 @@
           <t>*</t>
         </is>
       </c>
-      <c r="AE188" s="7" t="inlineStr">
-        <is>
-          <t>01623602124 / 652977162</t>
+      <c r="AE188" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -13080,7 +12928,7 @@
       </c>
       <c r="C189" s="7" t="inlineStr">
         <is>
-          <t>Abdellali Harfi</t>
+          <t>Abdellali Harfi (01623602124 / 652977162)</t>
         </is>
       </c>
       <c r="D189" s="21" t="n"/>
@@ -13115,7 +12963,7 @@
       <c r="O189" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P189" s="136" t="n"/>
+      <c r="P189" s="135" t="n"/>
       <c r="Q189" s="9" t="n"/>
       <c r="R189" s="9" t="n"/>
       <c r="S189" s="9" t="n"/>
@@ -13126,9 +12974,9 @@
       </c>
       <c r="AC189" s="10" t="n"/>
       <c r="AD189" s="10" t="n"/>
-      <c r="AE189" s="7" t="inlineStr">
-        <is>
-          <t>01623602124 / 652977162</t>
+      <c r="AE189" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -13143,7 +12991,7 @@
       </c>
       <c r="C190" s="7" t="inlineStr">
         <is>
-          <t>Bilal Harnafi</t>
+          <t>Bilal Harnafi (01629748646)</t>
         </is>
       </c>
       <c r="D190" s="8" t="n">
@@ -13193,9 +13041,9 @@
       </c>
       <c r="AC190" s="10" t="n"/>
       <c r="AD190" s="10" t="n"/>
-      <c r="AE190" s="7" t="inlineStr">
-        <is>
-          <t>01629748646</t>
+      <c r="AE190" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -13210,7 +13058,7 @@
       </c>
       <c r="C191" s="7" t="inlineStr">
         <is>
-          <t>Zouhair Harnafi</t>
+          <t>Zouhair Harnafi (72585043)</t>
         </is>
       </c>
       <c r="D191" s="8" t="n">
@@ -13249,10 +13097,10 @@
       <c r="O191" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P191" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q191" s="136" t="n"/>
+      <c r="P191" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q191" s="135" t="n"/>
       <c r="R191" s="9" t="n"/>
       <c r="S191" s="9" t="n"/>
       <c r="T191" s="9" t="n"/>
@@ -13262,9 +13110,9 @@
       </c>
       <c r="AC191" s="10" t="n"/>
       <c r="AD191" s="10" t="n"/>
-      <c r="AE191" s="7" t="inlineStr">
-        <is>
-          <t>72585043</t>
+      <c r="AE191" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -13279,7 +13127,7 @@
       </c>
       <c r="C192" s="7" t="inlineStr">
         <is>
-          <t>Zouhair Harnafi</t>
+          <t>Zouhair Harnafi (72585043)</t>
         </is>
       </c>
       <c r="D192" s="8" t="n">
@@ -13318,10 +13166,10 @@
       <c r="O192" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P192" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q192" s="136" t="n"/>
+      <c r="P192" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q192" s="135" t="n"/>
       <c r="R192" s="9" t="n"/>
       <c r="S192" s="9" t="n"/>
       <c r="T192" s="9" t="n"/>
@@ -13331,9 +13179,9 @@
       </c>
       <c r="AC192" s="10" t="n"/>
       <c r="AD192" s="10" t="n"/>
-      <c r="AE192" s="7" t="inlineStr">
-        <is>
-          <t>72585043</t>
+      <c r="AE192" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -13348,7 +13196,7 @@
       </c>
       <c r="C193" s="7" t="inlineStr">
         <is>
-          <t>Mourad Houmoum und Siham Barzizoui</t>
+          <t>Mourad Houmoum (662279838)</t>
         </is>
       </c>
       <c r="D193" s="8" t="n">
@@ -13398,9 +13246,9 @@
       </c>
       <c r="AC193" s="10" t="n"/>
       <c r="AD193" s="10" t="n"/>
-      <c r="AE193" s="7" t="inlineStr">
-        <is>
-          <t>662279838</t>
+      <c r="AE193" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -13415,7 +13263,7 @@
       </c>
       <c r="C194" s="7" t="inlineStr">
         <is>
-          <t>PIRMOS SAGVAN MOHAMMED ALI PIRMOS</t>
+          <t>PIRMOS SAGVAN MOHAMMED ALI PIRMOS (015771992141 / 81037035)</t>
         </is>
       </c>
       <c r="D194" s="8" t="n">
@@ -13454,7 +13302,7 @@
       <c r="O194" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P194" s="136" t="n"/>
+      <c r="P194" s="135" t="n"/>
       <c r="Q194" s="9" t="n"/>
       <c r="R194" s="9" t="n"/>
       <c r="S194" s="9" t="n"/>
@@ -13473,9 +13321,9 @@
           <t>*</t>
         </is>
       </c>
-      <c r="AE194" s="7" t="inlineStr">
-        <is>
-          <t>015771992141 / 81037035</t>
+      <c r="AE194" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -13490,7 +13338,7 @@
       </c>
       <c r="C195" s="7" t="inlineStr">
         <is>
-          <t>PIRMOS SAGVAN MOHAMMED ALI PIRMOS</t>
+          <t>PIRMOS SAGVAN MOHAMMED ALI PIRMOS (015771992141 / 81037035)</t>
         </is>
       </c>
       <c r="D195" s="8" t="n">
@@ -13529,7 +13377,7 @@
       <c r="O195" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P195" s="136" t="n"/>
+      <c r="P195" s="135" t="n"/>
       <c r="Q195" s="9" t="n"/>
       <c r="R195" s="9" t="n"/>
       <c r="S195" s="9" t="n"/>
@@ -13548,9 +13396,9 @@
           <t>*</t>
         </is>
       </c>
-      <c r="AE195" s="7" t="inlineStr">
-        <is>
-          <t>015771992141 / 81037035</t>
+      <c r="AE195" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -13565,7 +13413,7 @@
       </c>
       <c r="C196" s="7" t="inlineStr">
         <is>
-          <t>Jabi Jamal</t>
+          <t>Jabi Jamal (28394342)</t>
         </is>
       </c>
       <c r="D196" s="21" t="n"/>
@@ -13615,9 +13463,9 @@
       </c>
       <c r="AC196" s="23" t="n"/>
       <c r="AD196" s="23" t="n"/>
-      <c r="AE196" s="7" t="inlineStr">
-        <is>
-          <t>28394342</t>
+      <c r="AE196" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -13632,7 +13480,7 @@
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>Benyouness Jali</t>
+          <t>Benyouness Jali (01605212145)</t>
         </is>
       </c>
       <c r="D197" s="8" t="n">
@@ -13678,9 +13526,9 @@
       </c>
       <c r="AC197" s="10" t="n"/>
       <c r="AD197" s="10" t="n"/>
-      <c r="AE197" s="7" t="inlineStr">
-        <is>
-          <t>01605212145</t>
+      <c r="AE197" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -13695,7 +13543,7 @@
       </c>
       <c r="C198" s="17" t="inlineStr">
         <is>
-          <t>Belkassem, Ahlam</t>
+          <t>Belkassem, Ahlam (01632059013)</t>
         </is>
       </c>
       <c r="D198" s="21" t="n"/>
@@ -13722,34 +13570,34 @@
       <c r="O198" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="P198" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q198" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="R198" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="S198" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="T198" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="U198" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="V198" s="138" t="n"/>
+      <c r="P198" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q198" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="R198" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="S198" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="T198" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="U198" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="V198" s="137" t="n"/>
       <c r="AB198" s="6">
         <f>IF(OR(M198=25, P198=25), "A5", IF(OR(M198&lt;25, P198&lt;25), "B0", ""))</f>
         <v/>
       </c>
       <c r="AC198" s="10" t="n"/>
       <c r="AD198" s="10" t="n"/>
-      <c r="AE198" s="17" t="inlineStr">
-        <is>
-          <t>01632059013</t>
+      <c r="AE198" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -13764,7 +13612,7 @@
       </c>
       <c r="C199" s="17" t="inlineStr">
         <is>
-          <t>Belkassem, Ahlam</t>
+          <t>Belkassem, Ahlam (01632059013)</t>
         </is>
       </c>
       <c r="D199" s="21" t="n"/>
@@ -13791,34 +13639,34 @@
       <c r="O199" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="P199" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q199" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="R199" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="S199" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="T199" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="U199" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="V199" s="138" t="n"/>
+      <c r="P199" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q199" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="R199" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="S199" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="T199" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="U199" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="V199" s="137" t="n"/>
       <c r="AB199" s="6">
         <f>IF(OR(M199=25, P199=25), "A5", IF(OR(M199&lt;25, P199&lt;25), "B0", ""))</f>
         <v/>
       </c>
       <c r="AC199" s="10" t="n"/>
       <c r="AD199" s="10" t="n"/>
-      <c r="AE199" s="17" t="inlineStr">
-        <is>
-          <t>01632059013</t>
+      <c r="AE199" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -13855,9 +13703,7 @@
       </c>
       <c r="AC200" s="10" t="n"/>
       <c r="AD200" s="10" t="n"/>
-      <c r="AE200" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE200" s="11" t="n"/>
     </row>
     <row r="201" ht="21.1" customHeight="1">
       <c r="A201" s="6" t="n">
@@ -13892,9 +13738,7 @@
       </c>
       <c r="AC201" s="10" t="n"/>
       <c r="AD201" s="10" t="n"/>
-      <c r="AE201" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE201" s="11" t="n"/>
     </row>
     <row r="202" ht="21.1" customHeight="1">
       <c r="A202" s="6" t="n">
@@ -13929,9 +13773,7 @@
       </c>
       <c r="AC202" s="10" t="n"/>
       <c r="AD202" s="10" t="n"/>
-      <c r="AE202" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE202" s="11" t="n"/>
     </row>
     <row r="203" ht="21.1" customHeight="1">
       <c r="A203" s="6" t="n">
@@ -13944,7 +13786,7 @@
       </c>
       <c r="C203" s="7" t="inlineStr">
         <is>
-          <t>Kaddouri El Bekkay</t>
+          <t>Kaddouri El Bekkay (015738339240)</t>
         </is>
       </c>
       <c r="D203" s="8" t="n">
@@ -13983,7 +13825,7 @@
       <c r="O203" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P203" s="136" t="n"/>
+      <c r="P203" s="135" t="n"/>
       <c r="Q203" s="9" t="n"/>
       <c r="R203" s="9" t="n"/>
       <c r="S203" s="9" t="n"/>
@@ -13994,9 +13836,9 @@
       </c>
       <c r="AC203" s="10" t="n"/>
       <c r="AD203" s="10" t="n"/>
-      <c r="AE203" s="7" t="inlineStr">
-        <is>
-          <t>015738339240</t>
+      <c r="AE203" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -14011,7 +13853,7 @@
       </c>
       <c r="C204" s="7" t="inlineStr">
         <is>
-          <t>Kaddouri El Bekkay</t>
+          <t>Kaddouri El Bekkay (015738339240)</t>
         </is>
       </c>
       <c r="D204" s="8" t="n">
@@ -14050,7 +13892,7 @@
       <c r="O204" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P204" s="136" t="n"/>
+      <c r="P204" s="135" t="n"/>
       <c r="Q204" s="9" t="n"/>
       <c r="R204" s="9" t="n"/>
       <c r="S204" s="9" t="n"/>
@@ -14069,9 +13911,9 @@
           <t>*</t>
         </is>
       </c>
-      <c r="AE204" s="7" t="inlineStr">
-        <is>
-          <t>015738339240</t>
+      <c r="AE204" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -14084,11 +13926,7 @@
           <t>Kadiri Jannah</t>
         </is>
       </c>
-      <c r="C205" s="17" t="inlineStr">
-        <is>
-          <t>Massud Kadiri</t>
-        </is>
-      </c>
+      <c r="C205" s="17" t="n"/>
       <c r="D205" s="21" t="n"/>
       <c r="E205" s="21" t="n"/>
       <c r="F205" s="21" t="n"/>
@@ -14101,10 +13939,10 @@
       <c r="M205" s="21" t="n"/>
       <c r="N205" s="21" t="n"/>
       <c r="O205" s="21" t="n"/>
-      <c r="P205" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q205" s="137" t="n">
+      <c r="P205" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q205" s="136" t="n">
         <v>5</v>
       </c>
       <c r="R205" s="9" t="n"/>
@@ -14116,9 +13954,7 @@
       </c>
       <c r="AC205" s="10" t="n"/>
       <c r="AD205" s="10" t="n"/>
-      <c r="AE205" s="17" t="n">
-        <v/>
-      </c>
+      <c r="AE205" s="11" t="n"/>
     </row>
     <row r="206" ht="21.1" customHeight="1">
       <c r="A206" s="6" t="n">
@@ -14129,11 +13965,7 @@
           <t xml:space="preserve">Kadiri Maruan </t>
         </is>
       </c>
-      <c r="C206" s="17" t="inlineStr">
-        <is>
-          <t>Massud Kadiri</t>
-        </is>
-      </c>
+      <c r="C206" s="17" t="n"/>
       <c r="D206" s="21" t="n"/>
       <c r="E206" s="21" t="n"/>
       <c r="F206" s="21" t="n"/>
@@ -14157,9 +13989,7 @@
       </c>
       <c r="AC206" s="10" t="n"/>
       <c r="AD206" s="10" t="n"/>
-      <c r="AE206" s="17" t="n">
-        <v/>
-      </c>
+      <c r="AE206" s="11" t="n"/>
     </row>
     <row r="207" ht="21.1" customHeight="1">
       <c r="A207" s="6" t="n">
@@ -14172,7 +14002,7 @@
       </c>
       <c r="C207" s="7" t="inlineStr">
         <is>
-          <t>CANBEK UND SAIDA KANSAT</t>
+          <t>CANBEK UND SAIDA KANSAT (73126230)</t>
         </is>
       </c>
       <c r="D207" s="21" t="n"/>
@@ -14195,10 +14025,10 @@
       <c r="O207" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P207" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q207" s="136" t="n"/>
+      <c r="P207" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q207" s="135" t="n"/>
       <c r="R207" s="9" t="n"/>
       <c r="S207" s="9" t="n"/>
       <c r="T207" s="9" t="n"/>
@@ -14208,9 +14038,9 @@
       </c>
       <c r="AC207" s="10" t="n"/>
       <c r="AD207" s="10" t="n"/>
-      <c r="AE207" s="7" t="inlineStr">
-        <is>
-          <t>73126230</t>
+      <c r="AE207" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -14225,7 +14055,7 @@
       </c>
       <c r="C208" s="7" t="inlineStr">
         <is>
-          <t>CANBEK UND SAIDA KANSAT</t>
+          <t>CANBEK UND SAIDA KANSAT (73126230)</t>
         </is>
       </c>
       <c r="D208" s="21" t="n"/>
@@ -14248,10 +14078,10 @@
       <c r="O208" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P208" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q208" s="136" t="n"/>
+      <c r="P208" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q208" s="135" t="n"/>
       <c r="R208" s="9" t="n"/>
       <c r="S208" s="9" t="n"/>
       <c r="T208" s="9" t="n"/>
@@ -14261,9 +14091,9 @@
       </c>
       <c r="AC208" s="10" t="n"/>
       <c r="AD208" s="10" t="n"/>
-      <c r="AE208" s="7" t="inlineStr">
-        <is>
-          <t>73126230</t>
+      <c r="AE208" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -14300,9 +14130,7 @@
       </c>
       <c r="AC209" s="10" t="n"/>
       <c r="AD209" s="10" t="n"/>
-      <c r="AE209" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE209" s="11" t="n"/>
     </row>
     <row r="210" ht="21.1" customHeight="1">
       <c r="A210" s="6" t="n">
@@ -14315,7 +14143,7 @@
       </c>
       <c r="C210" s="7" t="inlineStr">
         <is>
-          <t>Mustapha Karim Samira Razouki</t>
+          <t>Mustapha Karim (015174457532)</t>
         </is>
       </c>
       <c r="D210" s="8" t="n">
@@ -14367,9 +14195,9 @@
       </c>
       <c r="AC210" s="10" t="n"/>
       <c r="AD210" s="10" t="n"/>
-      <c r="AE210" s="7" t="inlineStr">
-        <is>
-          <t>015174457532</t>
+      <c r="AE210" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -14384,7 +14212,7 @@
       </c>
       <c r="C211" s="13" t="inlineStr">
         <is>
-          <t>Kasmi Chaouki /</t>
+          <t>Kasmi Chaouki (78015492) / (44751916)</t>
         </is>
       </c>
       <c r="D211" s="21" t="n"/>
@@ -14419,7 +14247,7 @@
       <c r="O211" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P211" s="136" t="n"/>
+      <c r="P211" s="135" t="n"/>
       <c r="Q211" s="9" t="n"/>
       <c r="R211" s="9" t="n"/>
       <c r="S211" s="9" t="n"/>
@@ -14430,9 +14258,9 @@
       </c>
       <c r="AC211" s="10" t="n"/>
       <c r="AD211" s="10" t="n"/>
-      <c r="AE211" s="13" t="inlineStr">
-        <is>
-          <t>78015492</t>
+      <c r="AE211" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -14447,7 +14275,7 @@
       </c>
       <c r="C212" s="13" t="inlineStr">
         <is>
-          <t>Kasmi Chaouki /</t>
+          <t>Kasmi Chaouki (78015492) / (44751916)</t>
         </is>
       </c>
       <c r="D212" s="8" t="n">
@@ -14489,7 +14317,7 @@
       <c r="P212" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="Q212" s="136" t="n"/>
+      <c r="Q212" s="135" t="n"/>
       <c r="R212" s="9" t="n"/>
       <c r="S212" s="9" t="n"/>
       <c r="T212" s="9" t="n"/>
@@ -14499,9 +14327,9 @@
       </c>
       <c r="AC212" s="10" t="n"/>
       <c r="AD212" s="10" t="n"/>
-      <c r="AE212" s="13" t="inlineStr">
-        <is>
-          <t>78015492</t>
+      <c r="AE212" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -14516,7 +14344,7 @@
       </c>
       <c r="C213" s="7" t="inlineStr">
         <is>
-          <t>Dalila Moussaoui</t>
+          <t>Kebdani Zaki / Dalila Moussaoui (79331020)</t>
         </is>
       </c>
       <c r="D213" s="21" t="n"/>
@@ -14547,10 +14375,10 @@
       <c r="O213" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P213" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q213" s="136" t="n"/>
+      <c r="P213" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q213" s="135" t="n"/>
       <c r="R213" s="9" t="n"/>
       <c r="S213" s="9" t="n"/>
       <c r="T213" s="9" t="n"/>
@@ -14560,9 +14388,9 @@
       </c>
       <c r="AC213" s="10" t="n"/>
       <c r="AD213" s="10" t="n"/>
-      <c r="AE213" s="7" t="inlineStr">
-        <is>
-          <t>79331020</t>
+      <c r="AE213" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -14577,7 +14405,7 @@
       </c>
       <c r="C214" s="7" t="inlineStr">
         <is>
-          <t>Dalila Moussaoui</t>
+          <t>Kebdani Zaki / Dalila Moussaoui (79331020)</t>
         </is>
       </c>
       <c r="D214" s="21" t="n"/>
@@ -14608,10 +14436,10 @@
       <c r="O214" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P214" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q214" s="136" t="n"/>
+      <c r="P214" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q214" s="135" t="n"/>
       <c r="R214" s="9" t="n"/>
       <c r="S214" s="9" t="n"/>
       <c r="T214" s="9" t="n"/>
@@ -14621,9 +14449,9 @@
       </c>
       <c r="AC214" s="10" t="n"/>
       <c r="AD214" s="10" t="n"/>
-      <c r="AE214" s="7" t="inlineStr">
-        <is>
-          <t>79331020</t>
+      <c r="AE214" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -14638,7 +14466,7 @@
       </c>
       <c r="C215" s="7" t="inlineStr">
         <is>
-          <t>Kebdani Salim</t>
+          <t>Kebdani Salim (46917705)</t>
         </is>
       </c>
       <c r="D215" s="21" t="n"/>
@@ -14669,7 +14497,7 @@
       <c r="O215" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P215" s="136" t="n"/>
+      <c r="P215" s="135" t="n"/>
       <c r="Q215" s="9" t="n"/>
       <c r="R215" s="9" t="n"/>
       <c r="S215" s="9" t="n"/>
@@ -14680,9 +14508,9 @@
       </c>
       <c r="AC215" s="10" t="n"/>
       <c r="AD215" s="10" t="n"/>
-      <c r="AE215" s="7" t="inlineStr">
-        <is>
-          <t>46917705</t>
+      <c r="AE215" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -14720,10 +14548,10 @@
       <c r="O216" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P216" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q216" s="136" t="n"/>
+      <c r="P216" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q216" s="135" t="n"/>
       <c r="R216" s="9" t="n"/>
       <c r="S216" s="9" t="n"/>
       <c r="T216" s="9" t="n"/>
@@ -14733,9 +14561,7 @@
       </c>
       <c r="AC216" s="10" t="n"/>
       <c r="AD216" s="10" t="n"/>
-      <c r="AE216" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE216" s="11" t="n"/>
     </row>
     <row r="217" ht="21.1" customHeight="1">
       <c r="A217" s="6" t="n">
@@ -14748,7 +14574,7 @@
       </c>
       <c r="C217" s="7" t="inlineStr">
         <is>
-          <t>Kebdani Salim</t>
+          <t>Kebdani Salim (46917705)</t>
         </is>
       </c>
       <c r="D217" s="21" t="n"/>
@@ -14779,7 +14605,7 @@
       <c r="O217" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P217" s="136" t="n"/>
+      <c r="P217" s="135" t="n"/>
       <c r="Q217" s="9" t="n"/>
       <c r="R217" s="9" t="n"/>
       <c r="S217" s="9" t="n"/>
@@ -14790,9 +14616,9 @@
       </c>
       <c r="AC217" s="10" t="n"/>
       <c r="AD217" s="10" t="n"/>
-      <c r="AE217" s="7" t="inlineStr">
-        <is>
-          <t>46917705</t>
+      <c r="AE217" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -14830,7 +14656,7 @@
       <c r="O218" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P218" s="136" t="n"/>
+      <c r="P218" s="135" t="n"/>
       <c r="Q218" s="9" t="n"/>
       <c r="R218" s="9" t="n"/>
       <c r="S218" s="9" t="n"/>
@@ -14841,9 +14667,7 @@
       </c>
       <c r="AC218" s="10" t="n"/>
       <c r="AD218" s="10" t="n"/>
-      <c r="AE218" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE218" s="11" t="n"/>
     </row>
     <row r="219" ht="21.1" customHeight="1">
       <c r="A219" s="6" t="n">
@@ -14879,7 +14703,7 @@
       <c r="O219" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="P219" s="136" t="n"/>
+      <c r="P219" s="135" t="n"/>
       <c r="Q219" s="9" t="n"/>
       <c r="R219" s="9" t="n"/>
       <c r="S219" s="9" t="n"/>
@@ -14890,9 +14714,7 @@
       </c>
       <c r="AC219" s="10" t="n"/>
       <c r="AD219" s="10" t="n"/>
-      <c r="AE219" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE219" s="11" t="n"/>
     </row>
     <row r="220" ht="21.1" customHeight="1">
       <c r="A220" s="6" t="n">
@@ -14905,7 +14727,7 @@
       </c>
       <c r="C220" s="13" t="inlineStr">
         <is>
-          <t>El Idrissi El Mokaddem, Khaiati</t>
+          <t>El Idrissi El Mokaddem, Khaiati (0034632997890)</t>
         </is>
       </c>
       <c r="D220" s="8" t="n">
@@ -14955,9 +14777,9 @@
       </c>
       <c r="AC220" s="10" t="n"/>
       <c r="AD220" s="10" t="n"/>
-      <c r="AE220" s="13" t="inlineStr">
-        <is>
-          <t>0034632997890</t>
+      <c r="AE220" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -14972,7 +14794,7 @@
       </c>
       <c r="C221" s="7" t="inlineStr">
         <is>
-          <t>Mohamed Khattouti</t>
+          <t>Mohamed Khattouti (01604263446)</t>
         </is>
       </c>
       <c r="D221" s="8" t="n">
@@ -15022,9 +14844,9 @@
       </c>
       <c r="AC221" s="10" t="n"/>
       <c r="AD221" s="10" t="n"/>
-      <c r="AE221" s="7" t="inlineStr">
-        <is>
-          <t>01604263446</t>
+      <c r="AE221" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -15039,7 +14861,7 @@
       </c>
       <c r="C222" s="7" t="inlineStr">
         <is>
-          <t>Abdelhakim Khattouti</t>
+          <t>Abdelhakim Khattouti (14901105)</t>
         </is>
       </c>
       <c r="D222" s="8" t="n">
@@ -15078,13 +14900,13 @@
       <c r="O222" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P222" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q222" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="R222" s="137" t="n">
+      <c r="P222" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q222" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="R222" s="136" t="n">
         <v>15</v>
       </c>
       <c r="S222" s="9" t="n"/>
@@ -15095,9 +14917,9 @@
       </c>
       <c r="AC222" s="10" t="n"/>
       <c r="AD222" s="10" t="n"/>
-      <c r="AE222" s="7" t="inlineStr">
-        <is>
-          <t>14901105</t>
+      <c r="AE222" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -15112,7 +14934,7 @@
       </c>
       <c r="C223" s="7" t="inlineStr">
         <is>
-          <t>Khattouti Abdelkarim</t>
+          <t>Khattouti Abdelkarim (01626576151)</t>
         </is>
       </c>
       <c r="D223" s="8" t="n">
@@ -15164,9 +14986,9 @@
       </c>
       <c r="AC223" s="10" t="n"/>
       <c r="AD223" s="10" t="n"/>
-      <c r="AE223" s="7" t="inlineStr">
-        <is>
-          <t>01626576151</t>
+      <c r="AE223" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -15181,7 +15003,7 @@
       </c>
       <c r="C224" s="7" t="inlineStr">
         <is>
-          <t>Abdelhakim Khattouti</t>
+          <t>Abdelhakim Khattouti (14901105)</t>
         </is>
       </c>
       <c r="D224" s="8" t="n">
@@ -15220,10 +15042,10 @@
       <c r="O224" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P224" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q224" s="136" t="n"/>
+      <c r="P224" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q224" s="135" t="n"/>
       <c r="R224" s="9" t="n"/>
       <c r="S224" s="9" t="n"/>
       <c r="T224" s="9" t="n"/>
@@ -15241,9 +15063,9 @@
           <t>*</t>
         </is>
       </c>
-      <c r="AE224" s="7" t="inlineStr">
-        <is>
-          <t>14901105</t>
+      <c r="AE224" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -15275,13 +15097,13 @@
       <c r="O225" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P225" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q225" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="R225" s="137" t="n">
+      <c r="P225" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q225" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="R225" s="136" t="n">
         <v>5</v>
       </c>
       <c r="S225" s="9" t="n"/>
@@ -15292,9 +15114,7 @@
       </c>
       <c r="AC225" s="10" t="n"/>
       <c r="AD225" s="10" t="n"/>
-      <c r="AE225" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE225" s="11" t="n"/>
     </row>
     <row r="226" ht="22.6" customHeight="1">
       <c r="A226" s="6" t="n">
@@ -15324,10 +15144,10 @@
       <c r="O226" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P226" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q226" s="136" t="n"/>
+      <c r="P226" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q226" s="135" t="n"/>
       <c r="R226" s="9" t="n"/>
       <c r="S226" s="9" t="n"/>
       <c r="T226" s="9" t="n"/>
@@ -15337,9 +15157,7 @@
       </c>
       <c r="AC226" s="10" t="n"/>
       <c r="AD226" s="10" t="n"/>
-      <c r="AE226" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE226" s="11" t="n"/>
     </row>
     <row r="227" ht="22.6" customHeight="1">
       <c r="A227" s="6" t="n">
@@ -15352,7 +15170,7 @@
       </c>
       <c r="C227" s="7" t="inlineStr">
         <is>
-          <t>Laanak Khalid</t>
+          <t>Laanak Khalid (657980622)</t>
         </is>
       </c>
       <c r="D227" s="21" t="n"/>
@@ -15383,7 +15201,7 @@
       <c r="O227" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P227" s="136" t="n"/>
+      <c r="P227" s="135" t="n"/>
       <c r="Q227" s="9" t="n"/>
       <c r="R227" s="9" t="n"/>
       <c r="S227" s="9" t="n"/>
@@ -15394,9 +15212,9 @@
       </c>
       <c r="AC227" s="24" t="n"/>
       <c r="AD227" s="23" t="n"/>
-      <c r="AE227" s="7" t="inlineStr">
-        <is>
-          <t>657980622</t>
+      <c r="AE227" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -15411,7 +15229,7 @@
       </c>
       <c r="C228" s="7" t="inlineStr">
         <is>
-          <t>Laanak Khalid</t>
+          <t>Laanak Khalid (657980622)</t>
         </is>
       </c>
       <c r="D228" s="21" t="n"/>
@@ -15442,7 +15260,7 @@
       <c r="O228" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P228" s="136" t="n"/>
+      <c r="P228" s="135" t="n"/>
       <c r="Q228" s="9" t="n"/>
       <c r="R228" s="9" t="n"/>
       <c r="S228" s="9" t="n"/>
@@ -15453,9 +15271,9 @@
       </c>
       <c r="AC228" s="24" t="n"/>
       <c r="AD228" s="23" t="n"/>
-      <c r="AE228" s="7" t="inlineStr">
-        <is>
-          <t>657980622</t>
+      <c r="AE228" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -15470,7 +15288,7 @@
       </c>
       <c r="C229" s="7" t="inlineStr">
         <is>
-          <t>Lamhamdi Mohammadine</t>
+          <t>Lamhamdi Mohammadine (015906544373)</t>
         </is>
       </c>
       <c r="D229" s="21" t="n"/>
@@ -15514,9 +15332,9 @@
       </c>
       <c r="AC229" s="10" t="n"/>
       <c r="AD229" s="10" t="n"/>
-      <c r="AE229" s="7" t="inlineStr">
-        <is>
-          <t>015906544373</t>
+      <c r="AE229" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -15531,7 +15349,7 @@
       </c>
       <c r="C230" s="13" t="inlineStr">
         <is>
-          <t>Beguenstigter/Zahlungspflichtiger</t>
+          <t>(015757071531)</t>
         </is>
       </c>
       <c r="D230" s="8" t="n">
@@ -15570,7 +15388,7 @@
       <c r="O230" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P230" s="136" t="n"/>
+      <c r="P230" s="135" t="n"/>
       <c r="Q230" s="9" t="n"/>
       <c r="R230" s="9" t="n"/>
       <c r="S230" s="9" t="n"/>
@@ -15581,9 +15399,9 @@
       </c>
       <c r="AC230" s="10" t="n"/>
       <c r="AD230" s="10" t="n"/>
-      <c r="AE230" s="13" t="inlineStr">
-        <is>
-          <t>015757071531</t>
+      <c r="AE230" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -15598,7 +15416,7 @@
       </c>
       <c r="C231" s="7" t="inlineStr">
         <is>
-          <t>Rachida Zaidouni</t>
+          <t>Nour-Eddine Maarad / Rachida Zaidouni (645999275)</t>
         </is>
       </c>
       <c r="D231" s="21" t="n"/>
@@ -15636,10 +15454,10 @@
       <c r="P231" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="Q231" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="R231" s="137" t="n">
+      <c r="Q231" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="R231" s="136" t="n">
         <v>10</v>
       </c>
       <c r="S231" s="9" t="n"/>
@@ -15650,9 +15468,9 @@
       </c>
       <c r="AC231" s="10" t="n"/>
       <c r="AD231" s="10" t="n"/>
-      <c r="AE231" s="7" t="inlineStr">
-        <is>
-          <t>645999275</t>
+      <c r="AE231" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -15667,7 +15485,7 @@
       </c>
       <c r="C232" s="7" t="inlineStr">
         <is>
-          <t>Rachida Zaidouni</t>
+          <t>Nour-Eddine Maarad / Rachida Zaidouni (645999275)</t>
         </is>
       </c>
       <c r="D232" s="21" t="n"/>
@@ -15690,10 +15508,10 @@
       <c r="M232" s="21" t="n"/>
       <c r="N232" s="21" t="n"/>
       <c r="O232" s="21" t="n"/>
-      <c r="P232" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q232" s="136" t="n"/>
+      <c r="P232" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q232" s="135" t="n"/>
       <c r="R232" s="9" t="n"/>
       <c r="S232" s="9" t="n"/>
       <c r="T232" s="9" t="n"/>
@@ -15703,9 +15521,9 @@
       </c>
       <c r="AC232" s="10" t="n"/>
       <c r="AD232" s="10" t="n"/>
-      <c r="AE232" s="7" t="inlineStr">
-        <is>
-          <t>645999275</t>
+      <c r="AE232" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -15718,11 +15536,7 @@
           <t>Maarad Houda Nour</t>
         </is>
       </c>
-      <c r="C233" s="7" t="inlineStr">
-        <is>
-          <t>NAJIM MAARAD</t>
-        </is>
-      </c>
+      <c r="C233" s="7" t="n"/>
       <c r="D233" s="21" t="n"/>
       <c r="E233" s="21" t="n"/>
       <c r="F233" s="21" t="n"/>
@@ -15746,9 +15560,7 @@
       </c>
       <c r="AC233" s="10" t="n"/>
       <c r="AD233" s="10" t="n"/>
-      <c r="AE233" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE233" s="11" t="n"/>
     </row>
     <row r="234" ht="21.1" customHeight="1">
       <c r="A234" s="6" t="n">
@@ -15761,7 +15573,7 @@
       </c>
       <c r="C234" s="7" t="inlineStr">
         <is>
-          <t>Maatouki Said</t>
+          <t>Maatouki Said (33489258)</t>
         </is>
       </c>
       <c r="D234" s="21" t="n"/>
@@ -15805,9 +15617,9 @@
       </c>
       <c r="AC234" s="10" t="n"/>
       <c r="AD234" s="10" t="n"/>
-      <c r="AE234" s="7" t="inlineStr">
-        <is>
-          <t>33489258</t>
+      <c r="AE234" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -15844,9 +15656,7 @@
       </c>
       <c r="AC235" s="10" t="n"/>
       <c r="AD235" s="10" t="n"/>
-      <c r="AE235" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE235" s="11" t="n"/>
     </row>
     <row r="236" ht="21.1" customHeight="1">
       <c r="A236" s="6" t="n">
@@ -15859,7 +15669,7 @@
       </c>
       <c r="C236" s="7" t="inlineStr">
         <is>
-          <t>Mahria Ahmed / Nadia El Hamyani</t>
+          <t xml:space="preserve">Mahria Ahmed (662743519) / Nadia El Hamyani </t>
         </is>
       </c>
       <c r="D236" s="21" t="n"/>
@@ -15897,11 +15707,7 @@
       </c>
       <c r="AC236" s="10" t="n"/>
       <c r="AD236" s="10" t="n"/>
-      <c r="AE236" s="7" t="inlineStr">
-        <is>
-          <t>662743519</t>
-        </is>
-      </c>
+      <c r="AE236" s="11" t="n"/>
     </row>
     <row r="237" ht="21.1" customHeight="1">
       <c r="A237" s="6" t="n">
@@ -15912,11 +15718,7 @@
           <t>Mahria Marwa</t>
         </is>
       </c>
-      <c r="C237" s="7" t="inlineStr">
-        <is>
-          <t>Mohamed Mahria</t>
-        </is>
-      </c>
+      <c r="C237" s="7" t="n"/>
       <c r="D237" s="21" t="n"/>
       <c r="E237" s="21" t="n"/>
       <c r="F237" s="21" t="n"/>
@@ -15940,9 +15742,7 @@
       </c>
       <c r="AC237" s="10" t="n"/>
       <c r="AD237" s="10" t="n"/>
-      <c r="AE237" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE237" s="11" t="n"/>
     </row>
     <row r="238" ht="21.1" customHeight="1">
       <c r="A238" s="6" t="n">
@@ -15955,7 +15755,7 @@
       </c>
       <c r="C238" s="7" t="inlineStr">
         <is>
-          <t>Abdulmajid Sapon</t>
+          <t>Abdulmajid Sapon (95631978 / 96670608)</t>
         </is>
       </c>
       <c r="D238" s="21" t="n"/>
@@ -15981,11 +15781,7 @@
       </c>
       <c r="AC238" s="10" t="n"/>
       <c r="AD238" s="10" t="n"/>
-      <c r="AE238" s="7" t="inlineStr">
-        <is>
-          <t>95631978 / 96670608</t>
-        </is>
-      </c>
+      <c r="AE238" s="11" t="n"/>
     </row>
     <row r="239" ht="21.1" customHeight="1">
       <c r="A239" s="6" t="n">
@@ -15998,7 +15794,7 @@
       </c>
       <c r="C239" s="7" t="inlineStr">
         <is>
-          <t>Abdulmajid Sapon</t>
+          <t>Abdulmajid Sapon (95631978 / 96670608)</t>
         </is>
       </c>
       <c r="D239" s="21" t="n"/>
@@ -16024,11 +15820,7 @@
       </c>
       <c r="AC239" s="10" t="n"/>
       <c r="AD239" s="10" t="n"/>
-      <c r="AE239" s="7" t="inlineStr">
-        <is>
-          <t>95631978 / 96670608</t>
-        </is>
-      </c>
+      <c r="AE239" s="11" t="n"/>
     </row>
     <row r="240" ht="21.1" customHeight="1">
       <c r="A240" s="6" t="n">
@@ -16041,7 +15833,7 @@
       </c>
       <c r="C240" s="17" t="inlineStr">
         <is>
-          <t>Anissa El Bali</t>
+          <t>Abdelaziz Martah / Anissa El Bali (27377930/78801311)</t>
         </is>
       </c>
       <c r="D240" s="21" t="n"/>
@@ -16067,11 +15859,7 @@
       </c>
       <c r="AC240" s="10" t="n"/>
       <c r="AD240" s="10" t="n"/>
-      <c r="AE240" s="17" t="inlineStr">
-        <is>
-          <t>27377930/78801311</t>
-        </is>
-      </c>
+      <c r="AE240" s="11" t="n"/>
     </row>
     <row r="241" ht="21.1" customHeight="1">
       <c r="A241" s="6" t="n">
@@ -16084,7 +15872,7 @@
       </c>
       <c r="C241" s="7" t="inlineStr">
         <is>
-          <t>Eilias Mazig</t>
+          <t>Eilias Mazig (685924977)</t>
         </is>
       </c>
       <c r="D241" s="21" t="n"/>
@@ -16102,10 +15890,10 @@
       <c r="P241" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="Q241" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="R241" s="136" t="n"/>
+      <c r="Q241" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="R241" s="135" t="n"/>
       <c r="S241" s="9" t="n"/>
       <c r="T241" s="9" t="n"/>
       <c r="AB241" s="6">
@@ -16114,11 +15902,7 @@
       </c>
       <c r="AC241" s="10" t="n"/>
       <c r="AD241" s="10" t="n"/>
-      <c r="AE241" s="7" t="inlineStr">
-        <is>
-          <t>685924977</t>
-        </is>
-      </c>
+      <c r="AE241" s="11" t="n"/>
     </row>
     <row r="242" ht="21.1" customHeight="1">
       <c r="A242" s="6" t="n">
@@ -16131,7 +15915,7 @@
       </c>
       <c r="C242" s="7" t="inlineStr">
         <is>
-          <t>Eilias Mazig</t>
+          <t>Eilias Mazig (685924977)</t>
         </is>
       </c>
       <c r="D242" s="21" t="n"/>
@@ -16151,7 +15935,7 @@
       <c r="P242" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="Q242" s="136" t="n"/>
+      <c r="Q242" s="135" t="n"/>
       <c r="R242" s="9" t="n"/>
       <c r="S242" s="9" t="n"/>
       <c r="T242" s="9" t="n"/>
@@ -16161,11 +15945,7 @@
       </c>
       <c r="AC242" s="10" t="n"/>
       <c r="AD242" s="10" t="n"/>
-      <c r="AE242" s="7" t="inlineStr">
-        <is>
-          <t>685924977</t>
-        </is>
-      </c>
+      <c r="AE242" s="11" t="n"/>
     </row>
     <row r="243" ht="21.1" customHeight="1">
       <c r="A243" s="6" t="n">
@@ -16178,7 +15958,7 @@
       </c>
       <c r="C243" s="7" t="inlineStr">
         <is>
-          <t>Moussaoui Firdaouss</t>
+          <t>Moussaoui Firdaouss (666999685)</t>
         </is>
       </c>
       <c r="D243" s="21" t="n"/>
@@ -16209,7 +15989,7 @@
       <c r="O243" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P243" s="136" t="n"/>
+      <c r="P243" s="135" t="n"/>
       <c r="Q243" s="9" t="n"/>
       <c r="R243" s="9" t="n"/>
       <c r="S243" s="9" t="n"/>
@@ -16220,9 +16000,9 @@
       </c>
       <c r="AC243" s="10" t="n"/>
       <c r="AD243" s="10" t="n"/>
-      <c r="AE243" s="7" t="inlineStr">
-        <is>
-          <t>666999685</t>
+      <c r="AE243" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -16237,7 +16017,7 @@
       </c>
       <c r="C244" s="7" t="inlineStr">
         <is>
-          <t>Moussaoui Firdaouss</t>
+          <t>Moussaoui Firdaouss (666999685)</t>
         </is>
       </c>
       <c r="D244" s="21" t="n"/>
@@ -16268,7 +16048,7 @@
       <c r="O244" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P244" s="136" t="n"/>
+      <c r="P244" s="135" t="n"/>
       <c r="Q244" s="9" t="n"/>
       <c r="R244" s="9" t="n"/>
       <c r="S244" s="9" t="n"/>
@@ -16279,9 +16059,9 @@
       </c>
       <c r="AC244" s="10" t="n"/>
       <c r="AD244" s="10" t="n"/>
-      <c r="AE244" s="7" t="inlineStr">
-        <is>
-          <t>666999685</t>
+      <c r="AE244" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -16314,7 +16094,7 @@
       <c r="P245" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="Q245" s="136" t="n"/>
+      <c r="Q245" s="135" t="n"/>
       <c r="R245" s="9" t="n"/>
       <c r="S245" s="9" t="n"/>
       <c r="T245" s="9" t="n"/>
@@ -16324,9 +16104,7 @@
       </c>
       <c r="AC245" s="10" t="n"/>
       <c r="AD245" s="10" t="n"/>
-      <c r="AE245" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE245" s="11" t="n"/>
     </row>
     <row r="246" ht="21.1" customHeight="1">
       <c r="A246" s="6" t="n">
@@ -16357,7 +16135,7 @@
       <c r="P246" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="Q246" s="136" t="n"/>
+      <c r="Q246" s="135" t="n"/>
       <c r="R246" s="9" t="n"/>
       <c r="S246" s="9" t="n"/>
       <c r="T246" s="9" t="n"/>
@@ -16367,9 +16145,7 @@
       </c>
       <c r="AC246" s="10" t="n"/>
       <c r="AD246" s="10" t="n"/>
-      <c r="AE246" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE246" s="11" t="n"/>
     </row>
     <row r="247" ht="21.1" customHeight="1">
       <c r="A247" s="6" t="n">
@@ -16382,7 +16158,7 @@
       </c>
       <c r="C247" s="7" t="inlineStr">
         <is>
-          <t>Mohammed Mokhlisse</t>
+          <t>Mohammed Mokhlisse (015737806350)</t>
         </is>
       </c>
       <c r="D247" s="8" t="n">
@@ -16432,9 +16208,9 @@
       </c>
       <c r="AC247" s="10" t="n"/>
       <c r="AD247" s="10" t="n"/>
-      <c r="AE247" s="7" t="inlineStr">
-        <is>
-          <t>015737806350</t>
+      <c r="AE247" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -16471,9 +16247,7 @@
       </c>
       <c r="AC248" s="10" t="n"/>
       <c r="AD248" s="10" t="n"/>
-      <c r="AE248" s="17" t="n">
-        <v/>
-      </c>
+      <c r="AE248" s="11" t="n"/>
     </row>
     <row r="249" ht="21.1" customHeight="1">
       <c r="A249" s="6" t="n">
@@ -16508,9 +16282,7 @@
       </c>
       <c r="AC249" s="10" t="n"/>
       <c r="AD249" s="10" t="n"/>
-      <c r="AE249" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE249" s="11" t="n"/>
     </row>
     <row r="250" ht="21.1" customHeight="1">
       <c r="A250" s="6" t="n">
@@ -16523,7 +16295,7 @@
       </c>
       <c r="C250" s="7" t="inlineStr">
         <is>
-          <t>Morabet Sellam</t>
+          <t>Morabet Sellam (11530035)</t>
         </is>
       </c>
       <c r="D250" s="8" t="n">
@@ -16562,7 +16334,7 @@
       <c r="O250" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P250" s="136" t="n"/>
+      <c r="P250" s="135" t="n"/>
       <c r="Q250" s="9" t="n"/>
       <c r="R250" s="9" t="n"/>
       <c r="S250" s="9" t="n"/>
@@ -16573,9 +16345,9 @@
       </c>
       <c r="AC250" s="10" t="n"/>
       <c r="AD250" s="10" t="n"/>
-      <c r="AE250" s="7" t="inlineStr">
-        <is>
-          <t>11530035</t>
+      <c r="AE250" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -16590,7 +16362,7 @@
       </c>
       <c r="C251" s="7" t="inlineStr">
         <is>
-          <t>Morabet Sellam</t>
+          <t>Morabet Sellam (11530035)</t>
         </is>
       </c>
       <c r="D251" s="8" t="n">
@@ -16629,7 +16401,7 @@
       <c r="O251" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P251" s="136" t="n"/>
+      <c r="P251" s="135" t="n"/>
       <c r="Q251" s="9" t="n"/>
       <c r="R251" s="9" t="n"/>
       <c r="S251" s="9" t="n"/>
@@ -16640,9 +16412,9 @@
       </c>
       <c r="AC251" s="10" t="n"/>
       <c r="AD251" s="10" t="n"/>
-      <c r="AE251" s="7" t="inlineStr">
-        <is>
-          <t>11530035</t>
+      <c r="AE251" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -16657,7 +16429,7 @@
       </c>
       <c r="C252" s="7" t="inlineStr">
         <is>
-          <t>Anas Mouria</t>
+          <t>Anas Mouria (87714295)</t>
         </is>
       </c>
       <c r="D252" s="8" t="n">
@@ -16696,13 +16468,13 @@
       <c r="O252" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P252" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q252" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="R252" s="137" t="n">
+      <c r="P252" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q252" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="R252" s="136" t="n">
         <v>15</v>
       </c>
       <c r="S252" s="9" t="n"/>
@@ -16713,9 +16485,9 @@
       </c>
       <c r="AC252" s="10" t="n"/>
       <c r="AD252" s="10" t="n"/>
-      <c r="AE252" s="7" t="inlineStr">
-        <is>
-          <t>87714295</t>
+      <c r="AE252" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -16730,7 +16502,7 @@
       </c>
       <c r="C253" s="7" t="inlineStr">
         <is>
-          <t>Anas Mouria</t>
+          <t>Anas Mouria (87714295)</t>
         </is>
       </c>
       <c r="D253" s="21" t="n"/>
@@ -16765,10 +16537,10 @@
       <c r="O253" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P253" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q253" s="136" t="n"/>
+      <c r="P253" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q253" s="135" t="n"/>
       <c r="R253" s="9" t="n"/>
       <c r="S253" s="9" t="n"/>
       <c r="T253" s="9" t="n"/>
@@ -16778,9 +16550,9 @@
       </c>
       <c r="AC253" s="10" t="n"/>
       <c r="AD253" s="10" t="n"/>
-      <c r="AE253" s="7" t="inlineStr">
-        <is>
-          <t>87714295</t>
+      <c r="AE253" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -16817,9 +16589,7 @@
       </c>
       <c r="AC254" s="10" t="n"/>
       <c r="AD254" s="10" t="n"/>
-      <c r="AE254" s="17" t="n">
-        <v/>
-      </c>
+      <c r="AE254" s="11" t="n"/>
     </row>
     <row r="255" ht="21.1" customHeight="1">
       <c r="A255" s="6" t="n">
@@ -16832,7 +16602,7 @@
       </c>
       <c r="C255" s="7" t="inlineStr">
         <is>
-          <t>Hassane Omari</t>
+          <t>Hassane Omari (37529504)</t>
         </is>
       </c>
       <c r="D255" s="21" t="n"/>
@@ -16867,10 +16637,10 @@
       <c r="O255" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P255" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q255" s="136" t="n"/>
+      <c r="P255" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q255" s="135" t="n"/>
       <c r="R255" s="9" t="n"/>
       <c r="S255" s="9" t="n"/>
       <c r="T255" s="9" t="n"/>
@@ -16880,9 +16650,9 @@
       </c>
       <c r="AC255" s="10" t="n"/>
       <c r="AD255" s="10" t="n"/>
-      <c r="AE255" s="7" t="inlineStr">
-        <is>
-          <t>37529504</t>
+      <c r="AE255" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -16897,7 +16667,7 @@
       </c>
       <c r="C256" s="7" t="inlineStr">
         <is>
-          <t>Hassane Omari</t>
+          <t>Hassane Omari (37529504)</t>
         </is>
       </c>
       <c r="D256" s="21" t="n"/>
@@ -16932,10 +16702,10 @@
       <c r="O256" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P256" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q256" s="136" t="n"/>
+      <c r="P256" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q256" s="135" t="n"/>
       <c r="R256" s="9" t="n"/>
       <c r="S256" s="9" t="n"/>
       <c r="T256" s="9" t="n"/>
@@ -16945,9 +16715,9 @@
       </c>
       <c r="AC256" s="10" t="n"/>
       <c r="AD256" s="10" t="n"/>
-      <c r="AE256" s="7" t="inlineStr">
-        <is>
-          <t>37529504</t>
+      <c r="AE256" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -16960,11 +16730,7 @@
           <t>Ouadi Abderrahman</t>
         </is>
       </c>
-      <c r="C257" s="7" t="inlineStr">
-        <is>
-          <t>Abdelhalim Ouadi</t>
-        </is>
-      </c>
+      <c r="C257" s="7" t="n"/>
       <c r="D257" s="21" t="n"/>
       <c r="E257" s="21" t="n"/>
       <c r="F257" s="21" t="n"/>
@@ -16977,10 +16743,10 @@
       <c r="M257" s="21" t="n"/>
       <c r="N257" s="21" t="n"/>
       <c r="O257" s="21" t="n"/>
-      <c r="P257" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q257" s="137" t="n">
+      <c r="P257" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q257" s="136" t="n">
         <v>6</v>
       </c>
       <c r="R257" s="9" t="n"/>
@@ -16992,9 +16758,7 @@
       </c>
       <c r="AC257" s="10" t="n"/>
       <c r="AD257" s="10" t="n"/>
-      <c r="AE257" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE257" s="11" t="n"/>
     </row>
     <row r="258" ht="21.1" customHeight="1">
       <c r="A258" s="6" t="n">
@@ -17005,11 +16769,7 @@
           <t>Ouadi Nouh</t>
         </is>
       </c>
-      <c r="C258" s="7" t="inlineStr">
-        <is>
-          <t>Abdelhalim Ouadi</t>
-        </is>
-      </c>
+      <c r="C258" s="7" t="n"/>
       <c r="D258" s="21" t="n"/>
       <c r="E258" s="21" t="n"/>
       <c r="F258" s="21" t="n"/>
@@ -17033,9 +16793,7 @@
       </c>
       <c r="AC258" s="10" t="n"/>
       <c r="AD258" s="10" t="n"/>
-      <c r="AE258" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE258" s="11" t="n"/>
     </row>
     <row r="259" ht="21.1" customHeight="1">
       <c r="A259" s="6" t="n">
@@ -17084,9 +16842,7 @@
       </c>
       <c r="AC259" s="10" t="n"/>
       <c r="AD259" s="10" t="n"/>
-      <c r="AE259" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE259" s="11" t="n"/>
     </row>
     <row r="260" ht="21.1" customHeight="1">
       <c r="A260" s="6" t="n">
@@ -17099,7 +16855,7 @@
       </c>
       <c r="C260" s="17" t="inlineStr">
         <is>
-          <t>Oudife Omar</t>
+          <t>Oudife Omar (622809686)</t>
         </is>
       </c>
       <c r="D260" s="21" t="n"/>
@@ -17139,9 +16895,9 @@
       </c>
       <c r="AC260" s="27" t="n"/>
       <c r="AD260" s="27" t="n"/>
-      <c r="AE260" s="17" t="inlineStr">
-        <is>
-          <t>622809686</t>
+      <c r="AE260" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -17154,10 +16910,8 @@
           <t xml:space="preserve">Oughannou Layal </t>
         </is>
       </c>
-      <c r="C261" s="17" t="inlineStr">
-        <is>
-          <t>1729385627</t>
-        </is>
+      <c r="C261" s="17" t="n">
+        <v>1729385627</v>
       </c>
       <c r="D261" s="21" t="n"/>
       <c r="E261" s="21" t="n"/>
@@ -17182,9 +16936,7 @@
       </c>
       <c r="AC261" s="10" t="n"/>
       <c r="AD261" s="10" t="n"/>
-      <c r="AE261" s="17" t="n">
-        <v/>
-      </c>
+      <c r="AE261" s="11" t="n"/>
     </row>
     <row r="262" ht="21.1" customHeight="1">
       <c r="A262" s="6" t="n">
@@ -17195,10 +16947,8 @@
           <t xml:space="preserve">Oughannou Sofia </t>
         </is>
       </c>
-      <c r="C262" s="17" t="inlineStr">
-        <is>
-          <t>1729385627</t>
-        </is>
+      <c r="C262" s="17" t="n">
+        <v>1729385627</v>
       </c>
       <c r="D262" s="21" t="n"/>
       <c r="E262" s="21" t="n"/>
@@ -17223,9 +16973,7 @@
       </c>
       <c r="AC262" s="10" t="n"/>
       <c r="AD262" s="10" t="n"/>
-      <c r="AE262" s="17" t="n">
-        <v/>
-      </c>
+      <c r="AE262" s="11" t="n"/>
     </row>
     <row r="263" ht="21.1" customHeight="1">
       <c r="A263" s="6" t="n">
@@ -17296,8 +17044,10 @@
           <t>*</t>
         </is>
       </c>
-      <c r="AE263" s="13" t="n">
-        <v/>
+      <c r="AE263" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
       </c>
     </row>
     <row r="264" ht="21.1" customHeight="1">
@@ -17311,7 +17061,7 @@
       </c>
       <c r="C264" s="13" t="inlineStr">
         <is>
-          <t>IMANE OEZENIR</t>
+          <t>IMANE OEZENIR (015253120932)</t>
         </is>
       </c>
       <c r="D264" s="21" t="n"/>
@@ -17347,9 +17097,9 @@
       </c>
       <c r="AC264" s="10" t="n"/>
       <c r="AD264" s="10" t="n"/>
-      <c r="AE264" s="13" t="inlineStr">
-        <is>
-          <t>015253120932</t>
+      <c r="AE264" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -17386,9 +17136,7 @@
       </c>
       <c r="AC265" s="10" t="n"/>
       <c r="AD265" s="10" t="n"/>
-      <c r="AE265" s="18" t="n">
-        <v/>
-      </c>
+      <c r="AE265" s="11" t="n"/>
     </row>
     <row r="266" ht="21.1" customHeight="1">
       <c r="A266" s="6" t="n">
@@ -17401,7 +17149,7 @@
       </c>
       <c r="C266" s="7" t="inlineStr">
         <is>
-          <t>Yassin Rizqi</t>
+          <t>Yassin Rizqi (643576404)</t>
         </is>
       </c>
       <c r="D266" s="8" t="n">
@@ -17440,13 +17188,13 @@
       <c r="O266" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P266" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q266" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="R266" s="137" t="n">
+      <c r="P266" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q266" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="R266" s="136" t="n">
         <v>10</v>
       </c>
       <c r="S266" s="9" t="n"/>
@@ -17457,9 +17205,9 @@
       </c>
       <c r="AC266" s="10" t="n"/>
       <c r="AD266" s="10" t="n"/>
-      <c r="AE266" s="7" t="inlineStr">
-        <is>
-          <t>643576404</t>
+      <c r="AE266" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -17474,7 +17222,7 @@
       </c>
       <c r="C267" s="7" t="inlineStr">
         <is>
-          <t>Yassin Rizqi</t>
+          <t>Yassin Rizqi (643576404)</t>
         </is>
       </c>
       <c r="D267" s="8" t="n">
@@ -17513,13 +17261,13 @@
       <c r="O267" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P267" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q267" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="R267" s="136" t="n"/>
+      <c r="P267" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q267" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="R267" s="135" t="n"/>
       <c r="S267" s="9" t="n"/>
       <c r="T267" s="9" t="n"/>
       <c r="AB267" s="6">
@@ -17528,9 +17276,9 @@
       </c>
       <c r="AC267" s="10" t="n"/>
       <c r="AD267" s="10" t="n"/>
-      <c r="AE267" s="7" t="inlineStr">
-        <is>
-          <t>643576404</t>
+      <c r="AE267" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -17545,7 +17293,7 @@
       </c>
       <c r="C268" s="13" t="inlineStr">
         <is>
-          <t>Mohamed Saidi Benali</t>
+          <t>Mohamed Saidi Benali (015202080274)</t>
         </is>
       </c>
       <c r="D268" s="8" t="n">
@@ -17587,25 +17335,25 @@
       <c r="P268" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="Q268" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="R268" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="S268" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="T268" s="136" t="n"/>
+      <c r="Q268" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="R268" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="S268" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="T268" s="135" t="n"/>
       <c r="AB268" s="6">
         <f>IF(OR(M268=25, P268=25), "A5", IF(OR(M268&lt;25, P268&lt;25), "B0", ""))</f>
         <v/>
       </c>
       <c r="AC268" s="10" t="n"/>
       <c r="AD268" s="10" t="n"/>
-      <c r="AE268" s="13" t="inlineStr">
-        <is>
-          <t>015202080274</t>
+      <c r="AE268" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -17620,7 +17368,7 @@
       </c>
       <c r="C269" s="13" t="inlineStr">
         <is>
-          <t>Mohamed Saidi Benali</t>
+          <t>Mohamed Saidi Benali (015202080274)</t>
         </is>
       </c>
       <c r="D269" s="8" t="n">
@@ -17662,7 +17410,7 @@
       <c r="P269" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="Q269" s="136" t="n"/>
+      <c r="Q269" s="135" t="n"/>
       <c r="R269" s="9" t="n"/>
       <c r="S269" s="9" t="n"/>
       <c r="T269" s="9" t="n"/>
@@ -17672,9 +17420,9 @@
       </c>
       <c r="AC269" s="10" t="n"/>
       <c r="AD269" s="10" t="n"/>
-      <c r="AE269" s="13" t="inlineStr">
-        <is>
-          <t>015202080274</t>
+      <c r="AE269" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -17689,7 +17437,7 @@
       </c>
       <c r="C270" s="13" t="inlineStr">
         <is>
-          <t>Mohamed Saidi Benali</t>
+          <t>Mohamed Saidi Benali (015202080274)</t>
         </is>
       </c>
       <c r="D270" s="8" t="n">
@@ -17731,7 +17479,7 @@
       <c r="P270" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="Q270" s="136" t="n"/>
+      <c r="Q270" s="135" t="n"/>
       <c r="R270" s="9" t="n"/>
       <c r="S270" s="9" t="n"/>
       <c r="T270" s="9" t="n"/>
@@ -17741,9 +17489,9 @@
       </c>
       <c r="AC270" s="10" t="n"/>
       <c r="AD270" s="10" t="n"/>
-      <c r="AE270" s="13" t="inlineStr">
-        <is>
-          <t>015202080274</t>
+      <c r="AE270" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -17758,7 +17506,7 @@
       </c>
       <c r="C271" s="7" t="inlineStr">
         <is>
-          <t>Mohamed Saidi Benali</t>
+          <t>Mohamed Saidi Benali (015202080274)</t>
         </is>
       </c>
       <c r="D271" s="8" t="n">
@@ -17800,7 +17548,7 @@
       <c r="P271" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="Q271" s="136" t="n"/>
+      <c r="Q271" s="135" t="n"/>
       <c r="R271" s="9" t="n"/>
       <c r="S271" s="9" t="n"/>
       <c r="T271" s="9" t="n"/>
@@ -17810,9 +17558,9 @@
       </c>
       <c r="AC271" s="10" t="n"/>
       <c r="AD271" s="10" t="n"/>
-      <c r="AE271" s="7" t="inlineStr">
-        <is>
-          <t>015202080274</t>
+      <c r="AE271" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -17827,7 +17575,7 @@
       </c>
       <c r="C272" s="7" t="inlineStr">
         <is>
-          <t>Mohamed Saidi Benali</t>
+          <t>Mohamed Saidi Benali (015202080274)</t>
         </is>
       </c>
       <c r="D272" s="8" t="n">
@@ -17869,7 +17617,7 @@
       <c r="P272" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="Q272" s="136" t="n"/>
+      <c r="Q272" s="135" t="n"/>
       <c r="R272" s="9" t="n"/>
       <c r="S272" s="9" t="n"/>
       <c r="T272" s="9" t="n"/>
@@ -17879,9 +17627,9 @@
       </c>
       <c r="AC272" s="10" t="n"/>
       <c r="AD272" s="10" t="n"/>
-      <c r="AE272" s="7" t="inlineStr">
-        <is>
-          <t>015202080274</t>
+      <c r="AE272" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -17896,7 +17644,7 @@
       </c>
       <c r="C273" s="7" t="inlineStr">
         <is>
-          <t>ABDALLAH SAMI</t>
+          <t>ABDALLAH SAMI (25305913)</t>
         </is>
       </c>
       <c r="D273" s="8" t="n">
@@ -17946,9 +17694,9 @@
       </c>
       <c r="AC273" s="10" t="n"/>
       <c r="AD273" s="10" t="n"/>
-      <c r="AE273" s="7" t="inlineStr">
-        <is>
-          <t>25305913</t>
+      <c r="AE273" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -17961,11 +17709,7 @@
           <t>Sarrar Musa</t>
         </is>
       </c>
-      <c r="C274" s="7" t="inlineStr">
-        <is>
-          <t>Fikri El Khatabi El Hassnaoui undHakima Moussaoui Sarrar</t>
-        </is>
-      </c>
+      <c r="C274" s="7" t="n"/>
       <c r="D274" s="21" t="n"/>
       <c r="E274" s="21" t="n"/>
       <c r="F274" s="21" t="n"/>
@@ -17989,9 +17733,7 @@
       </c>
       <c r="AC274" s="10" t="n"/>
       <c r="AD274" s="10" t="n"/>
-      <c r="AE274" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE274" s="11" t="n"/>
     </row>
     <row r="275" ht="21.1" customHeight="1">
       <c r="A275" s="6" t="n">
@@ -18004,7 +17746,7 @@
       </c>
       <c r="C275" s="7" t="inlineStr">
         <is>
-          <t>Khalid Sehli</t>
+          <t>Khalid Sehli (015735210305)</t>
         </is>
       </c>
       <c r="D275" s="8" t="n">
@@ -18056,9 +17798,9 @@
       </c>
       <c r="AC275" s="10" t="n"/>
       <c r="AD275" s="10" t="n"/>
-      <c r="AE275" s="7" t="inlineStr">
-        <is>
-          <t>015735210305</t>
+      <c r="AE275" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -18071,11 +17813,7 @@
           <t xml:space="preserve">Sghiri Mossaab </t>
         </is>
       </c>
-      <c r="C276" s="7" t="inlineStr">
-        <is>
-          <t>ABDELHAMID SGHIRI</t>
-        </is>
-      </c>
+      <c r="C276" s="7" t="n"/>
       <c r="D276" s="21" t="n"/>
       <c r="E276" s="21" t="n"/>
       <c r="F276" s="21" t="n"/>
@@ -18088,13 +17826,13 @@
       <c r="M276" s="21" t="n"/>
       <c r="N276" s="21" t="n"/>
       <c r="O276" s="21" t="n"/>
-      <c r="P276" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q276" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="R276" s="137" t="n">
+      <c r="P276" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q276" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="R276" s="136" t="n">
         <v>5</v>
       </c>
       <c r="S276" s="9" t="n"/>
@@ -18105,9 +17843,7 @@
       </c>
       <c r="AC276" s="10" t="n"/>
       <c r="AD276" s="10" t="n"/>
-      <c r="AE276" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE276" s="11" t="n"/>
     </row>
     <row r="277" ht="21.1" customHeight="1">
       <c r="A277" s="6" t="n">
@@ -18118,11 +17854,7 @@
           <t>Sghiri Souahail</t>
         </is>
       </c>
-      <c r="C277" s="7" t="inlineStr">
-        <is>
-          <t>ABDELHAMID SGHIRI</t>
-        </is>
-      </c>
+      <c r="C277" s="7" t="n"/>
       <c r="D277" s="21" t="n"/>
       <c r="E277" s="21" t="n"/>
       <c r="F277" s="21" t="n"/>
@@ -18135,10 +17867,10 @@
       <c r="M277" s="21" t="n"/>
       <c r="N277" s="21" t="n"/>
       <c r="O277" s="21" t="n"/>
-      <c r="P277" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q277" s="136" t="n"/>
+      <c r="P277" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q277" s="135" t="n"/>
       <c r="R277" s="9" t="n"/>
       <c r="S277" s="9" t="n"/>
       <c r="T277" s="9" t="n"/>
@@ -18148,9 +17880,7 @@
       </c>
       <c r="AC277" s="10" t="n"/>
       <c r="AD277" s="10" t="n"/>
-      <c r="AE277" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE277" s="11" t="n"/>
     </row>
     <row r="278" ht="21.1" customHeight="1">
       <c r="A278" s="6" t="n">
@@ -18163,7 +17893,7 @@
       </c>
       <c r="C278" s="7" t="inlineStr">
         <is>
-          <t>Jamal Slimani</t>
+          <t>Jamal Slimani (88740045)</t>
         </is>
       </c>
       <c r="D278" s="8" t="n">
@@ -18202,7 +17932,7 @@
       <c r="O278" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P278" s="136" t="n"/>
+      <c r="P278" s="135" t="n"/>
       <c r="Q278" s="9" t="n"/>
       <c r="R278" s="9" t="n"/>
       <c r="S278" s="9" t="n"/>
@@ -18213,9 +17943,9 @@
       </c>
       <c r="AC278" s="10" t="n"/>
       <c r="AD278" s="10" t="n"/>
-      <c r="AE278" s="7" t="inlineStr">
-        <is>
-          <t>88740045</t>
+      <c r="AE278" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -18230,7 +17960,7 @@
       </c>
       <c r="C279" s="7" t="inlineStr">
         <is>
-          <t>Jamal Slimani</t>
+          <t>Jamal Slimani (88740045)</t>
         </is>
       </c>
       <c r="D279" s="21" t="n"/>
@@ -18265,7 +17995,7 @@
       <c r="O279" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P279" s="136" t="n"/>
+      <c r="P279" s="135" t="n"/>
       <c r="Q279" s="9" t="n"/>
       <c r="R279" s="9" t="n"/>
       <c r="S279" s="9" t="n"/>
@@ -18276,9 +18006,9 @@
       </c>
       <c r="AC279" s="10" t="n"/>
       <c r="AD279" s="10" t="n"/>
-      <c r="AE279" s="7" t="inlineStr">
-        <is>
-          <t>88740045</t>
+      <c r="AE279" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -18293,7 +18023,7 @@
       </c>
       <c r="C280" s="7" t="inlineStr">
         <is>
-          <t>Jamal Slimani</t>
+          <t>Jamal Slimani (88740045)</t>
         </is>
       </c>
       <c r="D280" s="8" t="n">
@@ -18332,7 +18062,7 @@
       <c r="O280" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P280" s="136" t="n"/>
+      <c r="P280" s="135" t="n"/>
       <c r="Q280" s="9" t="n"/>
       <c r="R280" s="9" t="n"/>
       <c r="S280" s="9" t="n"/>
@@ -18343,9 +18073,9 @@
       </c>
       <c r="AC280" s="10" t="n"/>
       <c r="AD280" s="10" t="n"/>
-      <c r="AE280" s="7" t="inlineStr">
-        <is>
-          <t>88740045</t>
+      <c r="AE280" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -18360,7 +18090,7 @@
       </c>
       <c r="C281" s="7" t="inlineStr">
         <is>
-          <t>Jamal Slimani</t>
+          <t>Jamal Slimani (88740045)</t>
         </is>
       </c>
       <c r="D281" s="8" t="n">
@@ -18399,7 +18129,7 @@
       <c r="O281" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P281" s="136" t="n"/>
+      <c r="P281" s="135" t="n"/>
       <c r="Q281" s="9" t="n"/>
       <c r="R281" s="9" t="n"/>
       <c r="S281" s="9" t="n"/>
@@ -18410,9 +18140,9 @@
       </c>
       <c r="AC281" s="10" t="n"/>
       <c r="AD281" s="10" t="n"/>
-      <c r="AE281" s="7" t="inlineStr">
-        <is>
-          <t>88740045</t>
+      <c r="AE281" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -18427,7 +18157,7 @@
       </c>
       <c r="C282" s="7" t="inlineStr">
         <is>
-          <t>Jamal Slimani</t>
+          <t>Jamal Slimani (88740045)</t>
         </is>
       </c>
       <c r="D282" s="8" t="n">
@@ -18466,7 +18196,7 @@
       <c r="O282" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P282" s="136" t="n"/>
+      <c r="P282" s="135" t="n"/>
       <c r="Q282" s="9" t="n"/>
       <c r="R282" s="9" t="n"/>
       <c r="S282" s="9" t="n"/>
@@ -18477,9 +18207,9 @@
       </c>
       <c r="AC282" s="10" t="n"/>
       <c r="AD282" s="10" t="n"/>
-      <c r="AE282" s="7" t="inlineStr">
-        <is>
-          <t>88740045</t>
+      <c r="AE282" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -18494,7 +18224,7 @@
       </c>
       <c r="C283" s="7" t="inlineStr">
         <is>
-          <t>Herr Remo Statello</t>
+          <t>Remo Statello (015110782399)</t>
         </is>
       </c>
       <c r="D283" s="21" t="n"/>
@@ -18540,9 +18270,9 @@
       </c>
       <c r="AC283" s="10" t="n"/>
       <c r="AD283" s="10" t="n"/>
-      <c r="AE283" s="7" t="inlineStr">
-        <is>
-          <t>015110782399</t>
+      <c r="AE283" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -18579,9 +18309,7 @@
       </c>
       <c r="AC284" s="10" t="n"/>
       <c r="AD284" s="10" t="n"/>
-      <c r="AE284" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE284" s="11" t="n"/>
     </row>
     <row r="285" ht="21.1" customHeight="1">
       <c r="A285" s="6" t="n">
@@ -18594,7 +18322,7 @@
       </c>
       <c r="C285" s="7" t="inlineStr">
         <is>
-          <t>Tabzioui Hamid</t>
+          <t>Tabzioui Hamid (681190908)</t>
         </is>
       </c>
       <c r="D285" s="8" t="n">
@@ -18644,9 +18372,9 @@
       </c>
       <c r="AC285" s="10" t="n"/>
       <c r="AD285" s="10" t="n"/>
-      <c r="AE285" s="7" t="inlineStr">
-        <is>
-          <t>681190908</t>
+      <c r="AE285" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -18661,7 +18389,7 @@
       </c>
       <c r="C286" s="7" t="inlineStr">
         <is>
-          <t>Rachid Tagharbit</t>
+          <t xml:space="preserve">Rachid Tagharbit / Laila Badraoui (015908442447 oder 015908420126) </t>
         </is>
       </c>
       <c r="D286" s="8" t="n">
@@ -18707,9 +18435,9 @@
       </c>
       <c r="AC286" s="10" t="n"/>
       <c r="AD286" s="10" t="n"/>
-      <c r="AE286" s="7" t="inlineStr">
-        <is>
-          <t>015908442447 oder 015908420126</t>
+      <c r="AE286" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -18724,7 +18452,7 @@
       </c>
       <c r="C287" s="7" t="inlineStr">
         <is>
-          <t>Laila Badraoui</t>
+          <t>Laila Badraoui (656809351)</t>
         </is>
       </c>
       <c r="D287" s="21" t="n"/>
@@ -18766,9 +18494,9 @@
       </c>
       <c r="AC287" s="10" t="n"/>
       <c r="AD287" s="10" t="n"/>
-      <c r="AE287" s="7" t="inlineStr">
-        <is>
-          <t>656809351</t>
+      <c r="AE287" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -18783,7 +18511,7 @@
       </c>
       <c r="C288" s="13" t="inlineStr">
         <is>
-          <t>Youssef Taghassa Nadine Taghassa</t>
+          <t>Youssef Taghassa Nadine Taghassa (03683967)</t>
         </is>
       </c>
       <c r="D288" s="8" t="n">
@@ -18833,9 +18561,9 @@
       </c>
       <c r="AC288" s="10" t="n"/>
       <c r="AD288" s="10" t="n"/>
-      <c r="AE288" s="13" t="inlineStr">
-        <is>
-          <t>03683967</t>
+      <c r="AE288" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -18850,7 +18578,7 @@
       </c>
       <c r="C289" s="13" t="inlineStr">
         <is>
-          <t>Tamer</t>
+          <t>Tamer (676867604)</t>
         </is>
       </c>
       <c r="D289" s="8" t="n">
@@ -18896,9 +18624,9 @@
       </c>
       <c r="AC289" s="10" t="n"/>
       <c r="AD289" s="27" t="n"/>
-      <c r="AE289" s="13" t="inlineStr">
-        <is>
-          <t>676867604</t>
+      <c r="AE289" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -18913,7 +18641,7 @@
       </c>
       <c r="C290" s="13" t="inlineStr">
         <is>
-          <t>Tamer</t>
+          <t>Tamer (676867604)</t>
         </is>
       </c>
       <c r="D290" s="8" t="n">
@@ -18959,9 +18687,9 @@
       </c>
       <c r="AC290" s="10" t="n"/>
       <c r="AD290" s="27" t="n"/>
-      <c r="AE290" s="13" t="inlineStr">
-        <is>
-          <t>676867604</t>
+      <c r="AE290" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -18998,9 +18726,7 @@
       </c>
       <c r="AC291" s="10" t="n"/>
       <c r="AD291" s="10" t="n"/>
-      <c r="AE291" s="13" t="n">
-        <v/>
-      </c>
+      <c r="AE291" s="11" t="n"/>
     </row>
     <row r="292" ht="21.1" customHeight="1">
       <c r="A292" s="6" t="n">
@@ -19013,7 +18739,7 @@
       </c>
       <c r="C292" s="13" t="inlineStr">
         <is>
-          <t>Jasmin Radouche-Tibarkanine</t>
+          <t>Jasmin Radouche-Tibarkanine (630730160)</t>
         </is>
       </c>
       <c r="D292" s="8" t="n">
@@ -19063,9 +18789,9 @@
       </c>
       <c r="AC292" s="10" t="n"/>
       <c r="AD292" s="10" t="n"/>
-      <c r="AE292" s="13" t="inlineStr">
-        <is>
-          <t>630730160</t>
+      <c r="AE292" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -19099,7 +18825,7 @@
       <c r="O293" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P293" s="136" t="n"/>
+      <c r="P293" s="135" t="n"/>
       <c r="Q293" s="9" t="n"/>
       <c r="R293" s="9" t="n"/>
       <c r="S293" s="9" t="n"/>
@@ -19110,9 +18836,7 @@
       </c>
       <c r="AC293" s="10" t="n"/>
       <c r="AD293" s="10" t="n"/>
-      <c r="AE293" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE293" s="11" t="n"/>
     </row>
     <row r="294" ht="21.1" customHeight="1">
       <c r="A294" s="12" t="n">
@@ -19125,7 +18849,7 @@
       </c>
       <c r="C294" s="13" t="inlineStr">
         <is>
-          <t>Mimoun Toumi</t>
+          <t>Mimoun Toumi (664148356)</t>
         </is>
       </c>
       <c r="D294" s="21" t="n"/>
@@ -19155,9 +18879,9 @@
       </c>
       <c r="AC294" s="10" t="n"/>
       <c r="AD294" s="10" t="n"/>
-      <c r="AE294" s="13" t="inlineStr">
-        <is>
-          <t>664148356</t>
+      <c r="AE294" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -19172,7 +18896,7 @@
       </c>
       <c r="C295" s="7" t="inlineStr">
         <is>
-          <t>Ahmed Toumi</t>
+          <t>Ahmed Toumi (664148356)</t>
         </is>
       </c>
       <c r="D295" s="8" t="n">
@@ -19222,9 +18946,9 @@
       </c>
       <c r="AC295" s="10" t="n"/>
       <c r="AD295" s="10" t="n"/>
-      <c r="AE295" s="7" t="inlineStr">
-        <is>
-          <t>664148356</t>
+      <c r="AE295" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -19273,9 +18997,7 @@
       </c>
       <c r="AC296" s="10" t="n"/>
       <c r="AD296" s="10" t="n"/>
-      <c r="AE296" s="7" t="n">
-        <v/>
-      </c>
+      <c r="AE296" s="11" t="n"/>
     </row>
     <row r="297" ht="21.1" customHeight="1">
       <c r="A297" s="6" t="n">
@@ -19288,7 +19010,7 @@
       </c>
       <c r="C297" s="7" t="inlineStr">
         <is>
-          <t>Hassan Zakhnini</t>
+          <t>Hassan Zakhnini (015779624907)</t>
         </is>
       </c>
       <c r="D297" s="8" t="n">
@@ -19327,10 +19049,10 @@
       <c r="O297" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="P297" s="135" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q297" s="137" t="n">
+      <c r="P297" s="134" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q297" s="136" t="n">
         <v>5</v>
       </c>
       <c r="R297" s="9" t="n"/>
@@ -19342,9 +19064,9 @@
       </c>
       <c r="AC297" s="10" t="n"/>
       <c r="AD297" s="10" t="n"/>
-      <c r="AE297" s="7" t="inlineStr">
-        <is>
-          <t>015779624907</t>
+      <c r="AE297" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -19359,7 +19081,7 @@
       </c>
       <c r="C298" s="7" t="inlineStr">
         <is>
-          <t>Zakhnini Rachid</t>
+          <t>Zakhnini Rachid (29170909)</t>
         </is>
       </c>
       <c r="D298" s="8" t="n">
@@ -19389,7 +19111,7 @@
       <c r="L298" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="M298" s="136" t="n"/>
+      <c r="M298" s="135" t="n"/>
       <c r="N298" s="14" t="n"/>
       <c r="O298" s="14" t="n"/>
       <c r="P298" s="9" t="n"/>
@@ -19403,9 +19125,9 @@
       </c>
       <c r="AC298" s="10" t="n"/>
       <c r="AD298" s="10" t="n"/>
-      <c r="AE298" s="7" t="inlineStr">
-        <is>
-          <t>29170909</t>
+      <c r="AE298" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -19420,7 +19142,7 @@
       </c>
       <c r="C299" s="7" t="inlineStr">
         <is>
-          <t>Zakhnini Rachid</t>
+          <t>Zakhnini Rachid (29170909)</t>
         </is>
       </c>
       <c r="D299" s="8" t="n">
@@ -19450,7 +19172,7 @@
       <c r="L299" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="M299" s="136" t="n"/>
+      <c r="M299" s="135" t="n"/>
       <c r="N299" s="14" t="n"/>
       <c r="O299" s="14" t="n"/>
       <c r="P299" s="9" t="n"/>
@@ -19464,9 +19186,9 @@
       </c>
       <c r="AC299" s="10" t="n"/>
       <c r="AD299" s="10" t="n"/>
-      <c r="AE299" s="7" t="inlineStr">
-        <is>
-          <t>29170909</t>
+      <c r="AE299" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -19479,10 +19201,8 @@
           <t>Zakhnini Yasmin</t>
         </is>
       </c>
-      <c r="C300" s="17" t="inlineStr">
-        <is>
-          <t>Hassan Zakhnini</t>
-        </is>
+      <c r="C300" s="17" t="n">
+        <v>15779624902</v>
       </c>
       <c r="D300" s="21" t="n"/>
       <c r="E300" s="21" t="n"/>
@@ -19496,10 +19216,10 @@
       <c r="M300" s="21" t="n"/>
       <c r="N300" s="21" t="n"/>
       <c r="O300" s="21" t="n"/>
-      <c r="P300" s="135" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q300" s="136" t="n"/>
+      <c r="P300" s="134" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q300" s="135" t="n"/>
       <c r="R300" s="9" t="n"/>
       <c r="S300" s="9" t="n"/>
       <c r="T300" s="9" t="n"/>
@@ -19509,9 +19229,7 @@
       </c>
       <c r="AC300" s="10" t="n"/>
       <c r="AD300" s="10" t="n"/>
-      <c r="AE300" s="17" t="n">
-        <v/>
-      </c>
+      <c r="AE300" s="11" t="n"/>
     </row>
     <row r="301" ht="21.1" customHeight="1">
       <c r="A301" s="12" t="n">
@@ -19524,7 +19242,7 @@
       </c>
       <c r="C301" s="7" t="inlineStr">
         <is>
-          <t>Yassine Zekhnini</t>
+          <t>Yassine Zekhnini (655282818)</t>
         </is>
       </c>
       <c r="D301" s="8" t="n">
@@ -19572,9 +19290,9 @@
       </c>
       <c r="AC301" s="10" t="n"/>
       <c r="AD301" s="10" t="n"/>
-      <c r="AE301" s="7" t="inlineStr">
-        <is>
-          <t>655282818</t>
+      <c r="AE301" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -19635,8 +19353,10 @@
       </c>
       <c r="AC302" s="10" t="n"/>
       <c r="AD302" s="10" t="n"/>
-      <c r="AE302" s="7" t="n">
-        <v/>
+      <c r="AE302" s="11" t="inlineStr">
+        <is>
+          <t>Ja</t>
+        </is>
       </c>
     </row>
     <row r="303" ht="16.3" customHeight="1">
@@ -20196,14 +19916,14 @@
           <t>Quran/Arabisch Ducane</t>
         </is>
       </c>
-      <c r="B1" s="139" t="n"/>
-      <c r="C1" s="140" t="n"/>
+      <c r="B1" s="138" t="n"/>
+      <c r="C1" s="139" t="n"/>
       <c r="D1" s="113" t="n">
         <v>2024</v>
       </c>
-      <c r="E1" s="141" t="n"/>
-      <c r="F1" s="141" t="n"/>
-      <c r="G1" s="142" t="n"/>
+      <c r="E1" s="140" t="n"/>
+      <c r="F1" s="140" t="n"/>
+      <c r="G1" s="141" t="n"/>
       <c r="H1" s="114" t="n">
         <v>2025</v>
       </c>
@@ -26854,20 +26574,20 @@
           <t>لائـــــــــــــــــــــــــــــــــــــــحـــــــــــــــــــــــــــــــــــة  الواجب الشهري للفتيات في برنامج  القران الكريم</t>
         </is>
       </c>
-      <c r="B1" s="139" t="n"/>
-      <c r="C1" s="139" t="n"/>
-      <c r="D1" s="139" t="n"/>
-      <c r="E1" s="139" t="n"/>
-      <c r="F1" s="139" t="n"/>
-      <c r="G1" s="139" t="n"/>
-      <c r="H1" s="139" t="n"/>
-      <c r="I1" s="139" t="n"/>
-      <c r="J1" s="139" t="n"/>
-      <c r="K1" s="139" t="n"/>
-      <c r="L1" s="139" t="n"/>
-      <c r="M1" s="139" t="n"/>
-      <c r="N1" s="139" t="n"/>
-      <c r="O1" s="140" t="n"/>
+      <c r="B1" s="138" t="n"/>
+      <c r="C1" s="138" t="n"/>
+      <c r="D1" s="138" t="n"/>
+      <c r="E1" s="138" t="n"/>
+      <c r="F1" s="138" t="n"/>
+      <c r="G1" s="138" t="n"/>
+      <c r="H1" s="138" t="n"/>
+      <c r="I1" s="138" t="n"/>
+      <c r="J1" s="138" t="n"/>
+      <c r="K1" s="138" t="n"/>
+      <c r="L1" s="138" t="n"/>
+      <c r="M1" s="138" t="n"/>
+      <c r="N1" s="138" t="n"/>
+      <c r="O1" s="139" t="n"/>
       <c r="P1" s="85" t="n"/>
       <c r="Q1" s="85" t="n"/>
       <c r="R1" s="85" t="n"/>
@@ -26894,26 +26614,26 @@
           <t>2024 / 2025</t>
         </is>
       </c>
-      <c r="E2" s="139" t="n"/>
-      <c r="F2" s="139" t="n"/>
-      <c r="G2" s="139" t="n"/>
-      <c r="H2" s="139" t="n"/>
-      <c r="I2" s="139" t="n"/>
-      <c r="J2" s="139" t="n"/>
-      <c r="K2" s="139" t="n"/>
-      <c r="L2" s="139" t="n"/>
-      <c r="M2" s="139" t="n"/>
-      <c r="N2" s="139" t="n"/>
-      <c r="O2" s="140" t="n"/>
+      <c r="E2" s="138" t="n"/>
+      <c r="F2" s="138" t="n"/>
+      <c r="G2" s="138" t="n"/>
+      <c r="H2" s="138" t="n"/>
+      <c r="I2" s="138" t="n"/>
+      <c r="J2" s="138" t="n"/>
+      <c r="K2" s="138" t="n"/>
+      <c r="L2" s="138" t="n"/>
+      <c r="M2" s="138" t="n"/>
+      <c r="N2" s="138" t="n"/>
+      <c r="O2" s="139" t="n"/>
       <c r="P2" s="86" t="n"/>
       <c r="Q2" s="86" t="n"/>
       <c r="R2" s="86" t="n"/>
       <c r="S2" s="86" t="n"/>
     </row>
     <row r="3" ht="25.85" customHeight="1">
-      <c r="A3" s="143" t="n"/>
-      <c r="B3" s="143" t="n"/>
-      <c r="C3" s="143" t="n"/>
+      <c r="A3" s="142" t="n"/>
+      <c r="B3" s="142" t="n"/>
+      <c r="C3" s="142" t="n"/>
       <c r="D3" s="87" t="n">
         <v>9</v>
       </c>
@@ -28428,12 +28148,12 @@
         </is>
       </c>
       <c r="D1" s="122" t="n"/>
-      <c r="E1" s="139" t="n"/>
-      <c r="F1" s="139" t="n"/>
-      <c r="G1" s="139" t="n"/>
-      <c r="H1" s="139" t="n"/>
-      <c r="I1" s="139" t="n"/>
-      <c r="J1" s="140" t="n"/>
+      <c r="E1" s="138" t="n"/>
+      <c r="F1" s="138" t="n"/>
+      <c r="G1" s="138" t="n"/>
+      <c r="H1" s="138" t="n"/>
+      <c r="I1" s="138" t="n"/>
+      <c r="J1" s="139" t="n"/>
       <c r="K1" s="86" t="n"/>
       <c r="L1" s="86" t="n"/>
       <c r="M1" s="86" t="n"/>
@@ -28441,9 +28161,9 @@
       <c r="O1" s="86" t="n"/>
     </row>
     <row r="2" ht="25.85" customHeight="1">
-      <c r="A2" s="143" t="n"/>
-      <c r="B2" s="143" t="n"/>
-      <c r="C2" s="143" t="n"/>
+      <c r="A2" s="142" t="n"/>
+      <c r="B2" s="142" t="n"/>
+      <c r="C2" s="142" t="n"/>
       <c r="D2" s="87" t="n">
         <v>2</v>
       </c>
